--- a/!!!ЗП.xlsx
+++ b/!!!ЗП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="4"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Табель" sheetId="1" r:id="rId1"/>
@@ -541,11 +541,11 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="0" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -740,7 +740,7 @@
       <charset val="204"/>
     </font>
   </fonts>
-  <fills count="22">
+  <fills count="23">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -867,8 +867,14 @@
         <bgColor indexed="23"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="34">
     <border>
       <left/>
       <right/>
@@ -1226,6 +1232,55 @@
         <color indexed="64"/>
       </top>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -2728,7 +2783,7 @@
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="57">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2770,7 +2825,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -2836,6 +2891,12 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
@@ -2844,12 +2905,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2866,6 +2921,16 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="20% - Акцент1 1" xfId="2"/>
@@ -4451,7 +4516,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4486,7 +4550,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4662,14 +4725,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AJ34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -4679,8 +4742,8 @@
     <col min="35" max="36" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:36" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1">
       <c r="A3" s="27" t="s">
         <v>0</v>
       </c>
@@ -4722,7 +4785,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="42" customHeight="1">
       <c r="A4" s="34" t="s">
         <v>1</v>
       </c>
@@ -4828,7 +4891,7 @@
       </c>
       <c r="AJ4" s="24"/>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="30" customHeight="1">
       <c r="A5" s="30" t="s">
         <v>2</v>
       </c>
@@ -4939,7 +5002,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1">
       <c r="A6" s="32" t="s">
         <v>3</v>
       </c>
@@ -5050,7 +5113,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="30" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5088,7 +5151,7 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="30" customHeight="1">
       <c r="A8" s="26" t="s">
         <v>8</v>
       </c>
@@ -5132,7 +5195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="45.75" customHeight="1">
       <c r="A9" s="36" t="str">
         <f>A4</f>
         <v>Дата</v>
@@ -5253,7 +5316,7 @@
       <c r="AI9" s="25"/>
       <c r="AJ9" s="25"/>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="30" customHeight="1">
       <c r="A10" s="25" t="s">
         <v>5</v>
       </c>
@@ -5367,7 +5430,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:36" ht="30" customHeight="1">
       <c r="A11" s="25"/>
       <c r="B11" s="2" t="s">
         <v>7</v>
@@ -5483,7 +5546,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:36" ht="33" customHeight="1">
       <c r="A12" s="25" t="s">
         <v>5</v>
       </c>
@@ -5597,7 +5660,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:36" ht="30" customHeight="1">
       <c r="A13" s="25"/>
       <c r="B13" s="2" t="str">
         <f>B11</f>
@@ -5717,7 +5780,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:36" ht="33" customHeight="1">
       <c r="A14" s="25" t="s">
         <v>44</v>
       </c>
@@ -5830,7 +5893,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:36" ht="30" customHeight="1">
       <c r="A15" s="25"/>
       <c r="B15" s="2" t="str">
         <f>B13</f>
@@ -5964,7 +6027,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:36">
       <c r="A16" s="22" t="s">
         <v>10</v>
       </c>
@@ -5973,7 +6036,7 @@
       <c r="D16" s="22"/>
       <c r="E16" s="22"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5">
       <c r="A17" s="22" t="s">
         <v>11</v>
       </c>
@@ -5982,17 +6045,17 @@
       <c r="D17" s="22"/>
       <c r="E17" s="22"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5">
       <c r="A21" s="22" t="s">
         <v>16</v>
       </c>
@@ -6001,7 +6064,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -6012,7 +6075,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -6028,7 +6091,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6044,7 +6107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6061,12 +6124,12 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5">
       <c r="A28" s="22" t="s">
         <v>16</v>
       </c>
@@ -6075,7 +6138,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -6086,7 +6149,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6102,7 +6165,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6118,7 +6181,7 @@
         <v>11477.272727272728</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -6135,7 +6198,7 @@
         <v>12840.909090909092</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6165,15 +6228,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" sqref="A1:Y1"/>
+      <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6187,37 +6250,37 @@
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
     </row>
-    <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -6235,39 +6298,39 @@
       <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="39" t="s">
         <v>47</v>
       </c>
       <c r="T2" s="43" t="s">
@@ -6276,21 +6339,21 @@
       <c r="U2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="37" t="s">
+      <c r="X2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="39" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:25" ht="75">
+      <c r="A3" s="41"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -6305,24 +6368,24 @@
       <c r="I3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
       <c r="T3" s="44"/>
       <c r="U3" s="44"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
-      <c r="X3" s="37"/>
-      <c r="Y3" s="37"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
+      <c r="X3" s="39"/>
+      <c r="Y3" s="39"/>
     </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6378,11 +6441,11 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12">
-        <f>SUM(N4:X4)</f>
+        <f t="shared" ref="Y4:Y10" si="0">SUM(N4:X4)</f>
         <v>34090.909090909088</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -6438,11 +6501,11 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12">
-        <f>SUM(N5:X5)</f>
+        <f t="shared" si="0"/>
         <v>11363.636363636362</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="33" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6477,14 +6540,14 @@
         <v>90000</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" ref="L6:L7" si="0">J6-K6</f>
+        <f t="shared" ref="L6:L7" si="1">J6-K6</f>
         <v>50000</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" ref="N6:N9" si="1">(K6/176*H6)+(L6*M6/176*H6)</f>
+        <f t="shared" ref="N6:N9" si="2">(K6/176*H6)+(L6*M6/176*H6)</f>
         <v>70000</v>
       </c>
       <c r="O6" s="12"/>
@@ -6498,11 +6561,11 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12">
-        <f>SUM(N6:X6)</f>
+        <f t="shared" si="0"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="31.5" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6535,7 +6598,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="M7" s="11"/>
@@ -6556,11 +6619,11 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12">
-        <f>SUM(N7:X7)</f>
+        <f t="shared" si="0"/>
         <v>16652.17391304348</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6602,7 +6665,7 @@
         <v>0.9</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43204</v>
       </c>
       <c r="O8" s="12"/>
@@ -6616,11 +6679,11 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12">
-        <f>SUM(N8:X8)</f>
+        <f t="shared" si="0"/>
         <v>43204</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6656,7 +6719,7 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="12">
@@ -6672,11 +6735,11 @@
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12">
-        <f>SUM(N9:X9)</f>
+        <f t="shared" si="0"/>
         <v>37833</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6732,12 +6795,20 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12">
-        <f>SUM(N10:X10)</f>
+        <f t="shared" si="0"/>
         <v>32500</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="P2:P3"/>
@@ -6754,14 +6825,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6770,15 +6833,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AH11" sqref="AH11:AI11"/>
+      <selection pane="topRight" activeCell="AI18" sqref="AI18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6795,43 +6858,43 @@
     <col min="16" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1">
+      <c r="A1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
       <c r="AE1" s="42"/>
     </row>
-    <row r="2" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:46" ht="31.5" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -6849,10 +6912,10 @@
       <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="42"/>
       <c r="J2" s="43" t="s">
         <v>39</v>
@@ -6899,30 +6962,44 @@
       <c r="X2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="39" t="s">
         <v>49</v>
       </c>
       <c r="Z2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AD2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AE2" s="39" t="s">
         <v>56</v>
       </c>
+      <c r="AG2" s="48"/>
+      <c r="AH2" s="49"/>
+      <c r="AI2" s="49"/>
+      <c r="AJ2" s="49"/>
+      <c r="AK2" s="49"/>
+      <c r="AL2" s="49"/>
+      <c r="AM2" s="49"/>
+      <c r="AN2" s="49"/>
+      <c r="AO2" s="49"/>
+      <c r="AP2" s="49"/>
+      <c r="AQ2" s="49"/>
+      <c r="AR2" s="49"/>
+      <c r="AS2" s="49"/>
+      <c r="AT2" s="50"/>
     </row>
-    <row r="3" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:46" ht="75">
+      <c r="A3" s="41"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -6952,15 +7029,29 @@
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
-      <c r="Y3" s="37"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="44"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
       <c r="AD3" s="46"/>
-      <c r="AE3" s="37"/>
+      <c r="AE3" s="39"/>
+      <c r="AG3" s="51"/>
+      <c r="AH3" s="52"/>
+      <c r="AI3" s="52"/>
+      <c r="AJ3" s="52"/>
+      <c r="AK3" s="52"/>
+      <c r="AL3" s="52"/>
+      <c r="AM3" s="52"/>
+      <c r="AN3" s="52"/>
+      <c r="AO3" s="52"/>
+      <c r="AP3" s="52"/>
+      <c r="AQ3" s="52"/>
+      <c r="AR3" s="52"/>
+      <c r="AS3" s="52"/>
+      <c r="AT3" s="53"/>
     </row>
-    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="35.25" customHeight="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7016,7 +7107,7 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12">
-        <f>SUM(N4:X4)</f>
+        <f t="shared" ref="Y4:Y10" si="0">SUM(N4:X4)</f>
         <v>34090.909090909088</v>
       </c>
       <c r="Z4" s="12"/>
@@ -7032,8 +7123,22 @@
         <f>Y4-Z4-AA4-AB4-AC4-AD4</f>
         <v>570.90909090908826</v>
       </c>
+      <c r="AG4" s="51"/>
+      <c r="AH4" s="52"/>
+      <c r="AI4" s="52"/>
+      <c r="AJ4" s="52"/>
+      <c r="AK4" s="52"/>
+      <c r="AL4" s="52"/>
+      <c r="AM4" s="52"/>
+      <c r="AN4" s="52"/>
+      <c r="AO4" s="52"/>
+      <c r="AP4" s="52"/>
+      <c r="AQ4" s="52"/>
+      <c r="AR4" s="52"/>
+      <c r="AS4" s="52"/>
+      <c r="AT4" s="53"/>
     </row>
-    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="35.25" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -7089,7 +7194,7 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12">
-        <f>SUM(N5:X5)</f>
+        <f t="shared" si="0"/>
         <v>11363.636363636362</v>
       </c>
       <c r="Z5" s="12"/>
@@ -7105,8 +7210,22 @@
         <f>Y5-Z5-AA5-AB5-AC5-AD5</f>
         <v>-22156.36363636364</v>
       </c>
+      <c r="AG5" s="51"/>
+      <c r="AH5" s="52"/>
+      <c r="AI5" s="52"/>
+      <c r="AJ5" s="52"/>
+      <c r="AK5" s="52"/>
+      <c r="AL5" s="52"/>
+      <c r="AM5" s="52"/>
+      <c r="AN5" s="52"/>
+      <c r="AO5" s="52"/>
+      <c r="AP5" s="52"/>
+      <c r="AQ5" s="52"/>
+      <c r="AR5" s="52"/>
+      <c r="AS5" s="52"/>
+      <c r="AT5" s="53"/>
     </row>
-    <row r="6" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="33" customHeight="1">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -7141,14 +7260,14 @@
         <v>90000</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" ref="L6:L7" si="0">J6-K6</f>
+        <f t="shared" ref="L6:L7" si="1">J6-K6</f>
         <v>50000</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" ref="N6:N9" si="1">(K6/176*H6)+(L6*M6/176*H6)</f>
+        <f t="shared" ref="N6:N9" si="2">(K6/176*H6)+(L6*M6/176*H6)</f>
         <v>70000</v>
       </c>
       <c r="O6" s="12"/>
@@ -7162,7 +7281,7 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12">
-        <f>SUM(N6:X6)</f>
+        <f t="shared" si="0"/>
         <v>70000</v>
       </c>
       <c r="Z6" s="12"/>
@@ -7175,11 +7294,25 @@
         <v>67000</v>
       </c>
       <c r="AE6" s="12">
-        <f t="shared" ref="AE6:AE10" si="2">Y6-Z6-AA6-AB6-AC6-AD6</f>
-        <v>0</v>
-      </c>
+        <f t="shared" ref="AE6:AE10" si="3">Y6-Z6-AA6-AB6-AC6-AD6</f>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="51"/>
+      <c r="AH6" s="52"/>
+      <c r="AI6" s="52"/>
+      <c r="AJ6" s="52"/>
+      <c r="AK6" s="52"/>
+      <c r="AL6" s="52"/>
+      <c r="AM6" s="52"/>
+      <c r="AN6" s="52"/>
+      <c r="AO6" s="52"/>
+      <c r="AP6" s="52"/>
+      <c r="AQ6" s="52"/>
+      <c r="AR6" s="52"/>
+      <c r="AS6" s="52"/>
+      <c r="AT6" s="53"/>
     </row>
-    <row r="7" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="31.5" customHeight="1">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -7212,7 +7345,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="M7" s="11"/>
@@ -7233,7 +7366,7 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12">
-        <f>SUM(N7:X7)</f>
+        <f t="shared" si="0"/>
         <v>16652.17391304348</v>
       </c>
       <c r="Z7" s="12"/>
@@ -7246,11 +7379,25 @@
         <v>10852</v>
       </c>
       <c r="AE7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1739130434798426</v>
       </c>
+      <c r="AG7" s="51"/>
+      <c r="AH7" s="52"/>
+      <c r="AI7" s="52"/>
+      <c r="AJ7" s="52"/>
+      <c r="AK7" s="52"/>
+      <c r="AL7" s="52"/>
+      <c r="AM7" s="52"/>
+      <c r="AN7" s="52"/>
+      <c r="AO7" s="52"/>
+      <c r="AP7" s="52"/>
+      <c r="AQ7" s="52"/>
+      <c r="AR7" s="52"/>
+      <c r="AS7" s="52"/>
+      <c r="AT7" s="53"/>
     </row>
-    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="30" customHeight="1">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -7292,7 +7439,7 @@
         <v>0.9</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43204</v>
       </c>
       <c r="O8" s="12"/>
@@ -7306,7 +7453,7 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12">
-        <f>SUM(N8:X8)</f>
+        <f t="shared" si="0"/>
         <v>43204</v>
       </c>
       <c r="Z8" s="12"/>
@@ -7319,11 +7466,25 @@
         <v>32000</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4504</v>
       </c>
+      <c r="AG8" s="51"/>
+      <c r="AH8" s="52"/>
+      <c r="AI8" s="52"/>
+      <c r="AJ8" s="52"/>
+      <c r="AK8" s="52"/>
+      <c r="AL8" s="52"/>
+      <c r="AM8" s="52"/>
+      <c r="AN8" s="52"/>
+      <c r="AO8" s="52"/>
+      <c r="AP8" s="52"/>
+      <c r="AQ8" s="52"/>
+      <c r="AR8" s="52"/>
+      <c r="AS8" s="52"/>
+      <c r="AT8" s="53"/>
     </row>
-    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="30" customHeight="1">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -7359,7 +7520,7 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="12">
@@ -7375,7 +7536,7 @@
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12">
-        <f>SUM(N9:X9)</f>
+        <f t="shared" si="0"/>
         <v>37833</v>
       </c>
       <c r="Z9" s="12">
@@ -7390,11 +7551,25 @@
         <v>27000</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4933</v>
       </c>
+      <c r="AG9" s="51"/>
+      <c r="AH9" s="52"/>
+      <c r="AI9" s="52"/>
+      <c r="AJ9" s="52"/>
+      <c r="AK9" s="52"/>
+      <c r="AL9" s="52"/>
+      <c r="AM9" s="52"/>
+      <c r="AN9" s="52"/>
+      <c r="AO9" s="52"/>
+      <c r="AP9" s="52"/>
+      <c r="AQ9" s="52"/>
+      <c r="AR9" s="52"/>
+      <c r="AS9" s="52"/>
+      <c r="AT9" s="53"/>
     </row>
-    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -7450,7 +7625,7 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12">
-        <f>SUM(N10:X10)</f>
+        <f t="shared" si="0"/>
         <v>32500</v>
       </c>
       <c r="Z10" s="12"/>
@@ -7463,17 +7638,36 @@
         <v>5000</v>
       </c>
       <c r="AE10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22300</v>
       </c>
+      <c r="AG10" s="54"/>
+      <c r="AH10" s="55"/>
+      <c r="AI10" s="55"/>
+      <c r="AJ10" s="55"/>
+      <c r="AK10" s="55"/>
+      <c r="AL10" s="55"/>
+      <c r="AM10" s="55"/>
+      <c r="AN10" s="55"/>
+      <c r="AO10" s="55"/>
+      <c r="AP10" s="55"/>
+      <c r="AQ10" s="55"/>
+      <c r="AR10" s="55"/>
+      <c r="AS10" s="55"/>
+      <c r="AT10" s="56"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
+  <mergeCells count="31">
+    <mergeCell ref="AG2:AT10"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="M2:M3"/>
@@ -7490,15 +7684,11 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7507,15 +7697,15 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AE10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AK26" sqref="AK26"/>
+      <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -7531,43 +7721,43 @@
     <col min="16" max="30" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:31" ht="31.5" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
       <c r="AE1" s="42"/>
     </row>
-    <row r="2" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:31" ht="31.5" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -7585,10 +7775,10 @@
       <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="42"/>
       <c r="J2" s="43" t="s">
         <v>39</v>
@@ -7635,30 +7825,30 @@
       <c r="X2" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="37" t="s">
+      <c r="Y2" s="39" t="s">
         <v>49</v>
       </c>
       <c r="Z2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AD2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="37" t="s">
+      <c r="AE2" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:31" ht="75">
+      <c r="A3" s="41"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -7688,15 +7878,15 @@
       <c r="V3" s="44"/>
       <c r="W3" s="44"/>
       <c r="X3" s="44"/>
-      <c r="Y3" s="37"/>
+      <c r="Y3" s="39"/>
       <c r="Z3" s="44"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
       <c r="AD3" s="46"/>
-      <c r="AE3" s="37"/>
+      <c r="AE3" s="39"/>
     </row>
-    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="35.25" customHeight="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7752,7 +7942,7 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12">
-        <f>SUM(N4:X4)</f>
+        <f t="shared" ref="Y4:Y10" si="0">SUM(N4:X4)</f>
         <v>34090.909090909088</v>
       </c>
       <c r="Z4" s="12"/>
@@ -7769,7 +7959,7 @@
         <v>570.90909090908826</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="35.25" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -7825,7 +8015,7 @@
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
       <c r="Y5" s="12">
-        <f>SUM(N5:X5)</f>
+        <f t="shared" si="0"/>
         <v>11363.636363636362</v>
       </c>
       <c r="Z5" s="12"/>
@@ -7842,7 +8032,7 @@
         <v>2843.6363636363621</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="33" customHeight="1">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -7877,14 +8067,14 @@
         <v>90000</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" ref="L6:L7" si="0">J6-K6</f>
+        <f t="shared" ref="L6:L7" si="1">J6-K6</f>
         <v>50000</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" ref="N6:N9" si="1">(K6/176*H6)+(L6*M6/176*H6)</f>
+        <f t="shared" ref="N6:N9" si="2">(K6/176*H6)+(L6*M6/176*H6)</f>
         <v>70000</v>
       </c>
       <c r="O6" s="12"/>
@@ -7898,7 +8088,7 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12">
-        <f>SUM(N6:X6)</f>
+        <f t="shared" si="0"/>
         <v>70000</v>
       </c>
       <c r="Z6" s="12"/>
@@ -7911,11 +8101,11 @@
         <v>67000</v>
       </c>
       <c r="AE6" s="12">
-        <f t="shared" ref="AE6:AE10" si="2">Y6-Z6-AA6-AB6-AC6-AD6</f>
+        <f t="shared" ref="AE6:AE10" si="3">Y6-Z6-AA6-AB6-AC6-AD6</f>
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="31.5" customHeight="1">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -7948,7 +8138,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>30000</v>
       </c>
       <c r="M7" s="11"/>
@@ -7969,7 +8159,7 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12">
-        <f>SUM(N7:X7)</f>
+        <f t="shared" si="0"/>
         <v>16652.17391304348</v>
       </c>
       <c r="Z7" s="12"/>
@@ -7982,11 +8172,11 @@
         <v>10852</v>
       </c>
       <c r="AE7" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="30" customHeight="1">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -8028,7 +8218,7 @@
         <v>0.9</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>43204</v>
       </c>
       <c r="O8" s="12"/>
@@ -8042,7 +8232,7 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12">
-        <f>SUM(N8:X8)</f>
+        <f t="shared" si="0"/>
         <v>43204</v>
       </c>
       <c r="Z8" s="12"/>
@@ -8055,11 +8245,11 @@
         <v>32000</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="30" customHeight="1">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -8095,7 +8285,7 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="O9" s="12">
@@ -8111,7 +8301,7 @@
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12">
-        <f>SUM(N9:X9)</f>
+        <f t="shared" si="0"/>
         <v>37833</v>
       </c>
       <c r="Z9" s="12">
@@ -8126,11 +8316,11 @@
         <v>27000</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>4933</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="30" customHeight="1">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -8186,7 +8376,7 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12">
-        <f>SUM(N10:X10)</f>
+        <f t="shared" si="0"/>
         <v>32500</v>
       </c>
       <c r="Z10" s="12"/>
@@ -8199,32 +8389,863 @@
         <v>5000</v>
       </c>
       <c r="AE10" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>22300</v>
       </c>
+    </row>
+    <row r="18" spans="2:49">
+      <c r="B18" s="47"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="47"/>
+      <c r="E18" s="47"/>
+      <c r="F18" s="47"/>
+      <c r="G18" s="47"/>
+      <c r="H18" s="47"/>
+      <c r="I18" s="47"/>
+      <c r="J18" s="47"/>
+      <c r="K18" s="47"/>
+      <c r="L18" s="47"/>
+      <c r="M18" s="47"/>
+      <c r="N18" s="47"/>
+      <c r="O18" s="47"/>
+      <c r="P18" s="47"/>
+      <c r="Q18" s="47"/>
+      <c r="R18" s="47"/>
+      <c r="S18" s="47"/>
+      <c r="T18" s="47"/>
+      <c r="U18" s="47"/>
+      <c r="V18" s="47"/>
+      <c r="W18" s="47"/>
+      <c r="X18" s="47"/>
+      <c r="Y18" s="47"/>
+      <c r="Z18" s="47"/>
+      <c r="AA18" s="47"/>
+      <c r="AB18" s="47"/>
+      <c r="AC18" s="47"/>
+      <c r="AD18" s="47"/>
+      <c r="AE18" s="47"/>
+      <c r="AF18" s="47"/>
+      <c r="AG18" s="47"/>
+      <c r="AH18" s="47"/>
+      <c r="AI18" s="47"/>
+      <c r="AJ18" s="47"/>
+      <c r="AK18" s="47"/>
+      <c r="AL18" s="47"/>
+      <c r="AM18" s="47"/>
+      <c r="AN18" s="47"/>
+      <c r="AO18" s="47"/>
+      <c r="AP18" s="47"/>
+      <c r="AQ18" s="47"/>
+      <c r="AR18" s="47"/>
+      <c r="AS18" s="47"/>
+      <c r="AT18" s="47"/>
+      <c r="AU18" s="47"/>
+      <c r="AV18" s="47"/>
+      <c r="AW18" s="47"/>
+    </row>
+    <row r="19" spans="2:49">
+      <c r="B19" s="47"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="47"/>
+      <c r="E19" s="47"/>
+      <c r="F19" s="47"/>
+      <c r="G19" s="47"/>
+      <c r="H19" s="47"/>
+      <c r="I19" s="47"/>
+      <c r="J19" s="47"/>
+      <c r="K19" s="47"/>
+      <c r="L19" s="47"/>
+      <c r="M19" s="47"/>
+      <c r="N19" s="47"/>
+      <c r="O19" s="47"/>
+      <c r="P19" s="47"/>
+      <c r="Q19" s="47"/>
+      <c r="R19" s="47"/>
+      <c r="S19" s="47"/>
+      <c r="T19" s="47"/>
+      <c r="U19" s="47"/>
+      <c r="V19" s="47"/>
+      <c r="W19" s="47"/>
+      <c r="X19" s="47"/>
+      <c r="Y19" s="47"/>
+      <c r="Z19" s="47"/>
+      <c r="AA19" s="47"/>
+      <c r="AB19" s="47"/>
+      <c r="AC19" s="47"/>
+      <c r="AD19" s="47"/>
+      <c r="AE19" s="47"/>
+      <c r="AF19" s="47"/>
+      <c r="AG19" s="47"/>
+      <c r="AH19" s="47"/>
+      <c r="AI19" s="47"/>
+      <c r="AJ19" s="47"/>
+      <c r="AK19" s="47"/>
+      <c r="AL19" s="47"/>
+      <c r="AM19" s="47"/>
+      <c r="AN19" s="47"/>
+      <c r="AO19" s="47"/>
+      <c r="AP19" s="47"/>
+      <c r="AQ19" s="47"/>
+      <c r="AR19" s="47"/>
+      <c r="AS19" s="47"/>
+      <c r="AT19" s="47"/>
+      <c r="AU19" s="47"/>
+      <c r="AV19" s="47"/>
+      <c r="AW19" s="47"/>
+    </row>
+    <row r="20" spans="2:49">
+      <c r="B20" s="47"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="47"/>
+      <c r="E20" s="47"/>
+      <c r="F20" s="47"/>
+      <c r="G20" s="47"/>
+      <c r="H20" s="47"/>
+      <c r="I20" s="47"/>
+      <c r="J20" s="47"/>
+      <c r="K20" s="47"/>
+      <c r="L20" s="47"/>
+      <c r="M20" s="47"/>
+      <c r="N20" s="47"/>
+      <c r="O20" s="47"/>
+      <c r="P20" s="47"/>
+      <c r="Q20" s="47"/>
+      <c r="R20" s="47"/>
+      <c r="S20" s="47"/>
+      <c r="T20" s="47"/>
+      <c r="U20" s="47"/>
+      <c r="V20" s="47"/>
+      <c r="W20" s="47"/>
+      <c r="X20" s="47"/>
+      <c r="Y20" s="47"/>
+      <c r="Z20" s="47"/>
+      <c r="AA20" s="47"/>
+      <c r="AB20" s="47"/>
+      <c r="AC20" s="47"/>
+      <c r="AD20" s="47"/>
+      <c r="AE20" s="47"/>
+      <c r="AF20" s="47"/>
+      <c r="AG20" s="47"/>
+      <c r="AH20" s="47"/>
+      <c r="AI20" s="47"/>
+      <c r="AJ20" s="47"/>
+      <c r="AK20" s="47"/>
+      <c r="AL20" s="47"/>
+      <c r="AM20" s="47"/>
+      <c r="AN20" s="47"/>
+      <c r="AO20" s="47"/>
+      <c r="AP20" s="47"/>
+      <c r="AQ20" s="47"/>
+      <c r="AR20" s="47"/>
+      <c r="AS20" s="47"/>
+      <c r="AT20" s="47"/>
+      <c r="AU20" s="47"/>
+      <c r="AV20" s="47"/>
+      <c r="AW20" s="47"/>
+    </row>
+    <row r="21" spans="2:49">
+      <c r="B21" s="47"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="47"/>
+      <c r="H21" s="47"/>
+      <c r="I21" s="47"/>
+      <c r="J21" s="47"/>
+      <c r="K21" s="47"/>
+      <c r="L21" s="47"/>
+      <c r="M21" s="47"/>
+      <c r="N21" s="47"/>
+      <c r="O21" s="47"/>
+      <c r="P21" s="47"/>
+      <c r="Q21" s="47"/>
+      <c r="R21" s="47"/>
+      <c r="S21" s="47"/>
+      <c r="T21" s="47"/>
+      <c r="U21" s="47"/>
+      <c r="V21" s="47"/>
+      <c r="W21" s="47"/>
+      <c r="X21" s="47"/>
+      <c r="Y21" s="47"/>
+      <c r="Z21" s="47"/>
+      <c r="AA21" s="47"/>
+      <c r="AB21" s="47"/>
+      <c r="AC21" s="47"/>
+      <c r="AD21" s="47"/>
+      <c r="AE21" s="47"/>
+      <c r="AF21" s="47"/>
+      <c r="AG21" s="47"/>
+      <c r="AH21" s="47"/>
+      <c r="AI21" s="47"/>
+      <c r="AJ21" s="47"/>
+      <c r="AK21" s="47"/>
+      <c r="AL21" s="47"/>
+      <c r="AM21" s="47"/>
+      <c r="AN21" s="47"/>
+      <c r="AO21" s="47"/>
+      <c r="AP21" s="47"/>
+      <c r="AQ21" s="47"/>
+      <c r="AR21" s="47"/>
+      <c r="AS21" s="47"/>
+      <c r="AT21" s="47"/>
+      <c r="AU21" s="47"/>
+      <c r="AV21" s="47"/>
+      <c r="AW21" s="47"/>
+    </row>
+    <row r="22" spans="2:49">
+      <c r="B22" s="47"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="47"/>
+      <c r="H22" s="47"/>
+      <c r="I22" s="47"/>
+      <c r="J22" s="47"/>
+      <c r="K22" s="47"/>
+      <c r="L22" s="47"/>
+      <c r="M22" s="47"/>
+      <c r="N22" s="47"/>
+      <c r="O22" s="47"/>
+      <c r="P22" s="47"/>
+      <c r="Q22" s="47"/>
+      <c r="R22" s="47"/>
+      <c r="S22" s="47"/>
+      <c r="T22" s="47"/>
+      <c r="U22" s="47"/>
+      <c r="V22" s="47"/>
+      <c r="W22" s="47"/>
+      <c r="X22" s="47"/>
+      <c r="Y22" s="47"/>
+      <c r="Z22" s="47"/>
+      <c r="AA22" s="47"/>
+      <c r="AB22" s="47"/>
+      <c r="AC22" s="47"/>
+      <c r="AD22" s="47"/>
+      <c r="AE22" s="47"/>
+      <c r="AF22" s="47"/>
+      <c r="AG22" s="47"/>
+      <c r="AH22" s="47"/>
+      <c r="AI22" s="47"/>
+      <c r="AJ22" s="47"/>
+      <c r="AK22" s="47"/>
+      <c r="AL22" s="47"/>
+      <c r="AM22" s="47"/>
+      <c r="AN22" s="47"/>
+      <c r="AO22" s="47"/>
+      <c r="AP22" s="47"/>
+      <c r="AQ22" s="47"/>
+      <c r="AR22" s="47"/>
+      <c r="AS22" s="47"/>
+      <c r="AT22" s="47"/>
+      <c r="AU22" s="47"/>
+      <c r="AV22" s="47"/>
+      <c r="AW22" s="47"/>
+    </row>
+    <row r="23" spans="2:49">
+      <c r="B23" s="47"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="47"/>
+      <c r="H23" s="47"/>
+      <c r="I23" s="47"/>
+      <c r="J23" s="47"/>
+      <c r="K23" s="47"/>
+      <c r="L23" s="47"/>
+      <c r="M23" s="47"/>
+      <c r="N23" s="47"/>
+      <c r="O23" s="47"/>
+      <c r="P23" s="47"/>
+      <c r="Q23" s="47"/>
+      <c r="R23" s="47"/>
+      <c r="S23" s="47"/>
+      <c r="T23" s="47"/>
+      <c r="U23" s="47"/>
+      <c r="V23" s="47"/>
+      <c r="W23" s="47"/>
+      <c r="X23" s="47"/>
+      <c r="Y23" s="47"/>
+      <c r="Z23" s="47"/>
+      <c r="AA23" s="47"/>
+      <c r="AB23" s="47"/>
+      <c r="AC23" s="47"/>
+      <c r="AD23" s="47"/>
+      <c r="AE23" s="47"/>
+      <c r="AF23" s="47"/>
+      <c r="AG23" s="47"/>
+      <c r="AH23" s="47"/>
+      <c r="AI23" s="47"/>
+      <c r="AJ23" s="47"/>
+      <c r="AK23" s="47"/>
+      <c r="AL23" s="47"/>
+      <c r="AM23" s="47"/>
+      <c r="AN23" s="47"/>
+      <c r="AO23" s="47"/>
+      <c r="AP23" s="47"/>
+      <c r="AQ23" s="47"/>
+      <c r="AR23" s="47"/>
+      <c r="AS23" s="47"/>
+      <c r="AT23" s="47"/>
+      <c r="AU23" s="47"/>
+      <c r="AV23" s="47"/>
+      <c r="AW23" s="47"/>
+    </row>
+    <row r="24" spans="2:49">
+      <c r="B24" s="47"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="47"/>
+      <c r="H24" s="47"/>
+      <c r="I24" s="47"/>
+      <c r="J24" s="47"/>
+      <c r="K24" s="47"/>
+      <c r="L24" s="47"/>
+      <c r="M24" s="47"/>
+      <c r="N24" s="47"/>
+      <c r="O24" s="47"/>
+      <c r="P24" s="47"/>
+      <c r="Q24" s="47"/>
+      <c r="R24" s="47"/>
+      <c r="S24" s="47"/>
+      <c r="T24" s="47"/>
+      <c r="U24" s="47"/>
+      <c r="V24" s="47"/>
+      <c r="W24" s="47"/>
+      <c r="X24" s="47"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="47"/>
+      <c r="AB24" s="47"/>
+      <c r="AC24" s="47"/>
+      <c r="AD24" s="47"/>
+      <c r="AE24" s="47"/>
+      <c r="AF24" s="47"/>
+      <c r="AG24" s="47"/>
+      <c r="AH24" s="47"/>
+      <c r="AI24" s="47"/>
+      <c r="AJ24" s="47"/>
+      <c r="AK24" s="47"/>
+      <c r="AL24" s="47"/>
+      <c r="AM24" s="47"/>
+      <c r="AN24" s="47"/>
+      <c r="AO24" s="47"/>
+      <c r="AP24" s="47"/>
+      <c r="AQ24" s="47"/>
+      <c r="AR24" s="47"/>
+      <c r="AS24" s="47"/>
+      <c r="AT24" s="47"/>
+      <c r="AU24" s="47"/>
+      <c r="AV24" s="47"/>
+      <c r="AW24" s="47"/>
+    </row>
+    <row r="25" spans="2:49">
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="47"/>
+      <c r="G25" s="47"/>
+      <c r="H25" s="47"/>
+      <c r="I25" s="47"/>
+      <c r="J25" s="47"/>
+      <c r="K25" s="47"/>
+      <c r="L25" s="47"/>
+      <c r="M25" s="47"/>
+      <c r="N25" s="47"/>
+      <c r="O25" s="47"/>
+      <c r="P25" s="47"/>
+      <c r="Q25" s="47"/>
+      <c r="R25" s="47"/>
+      <c r="S25" s="47"/>
+      <c r="T25" s="47"/>
+      <c r="U25" s="47"/>
+      <c r="V25" s="47"/>
+      <c r="W25" s="47"/>
+      <c r="X25" s="47"/>
+      <c r="Y25" s="47"/>
+      <c r="Z25" s="47"/>
+      <c r="AA25" s="47"/>
+      <c r="AB25" s="47"/>
+      <c r="AC25" s="47"/>
+      <c r="AD25" s="47"/>
+      <c r="AE25" s="47"/>
+      <c r="AF25" s="47"/>
+      <c r="AG25" s="47"/>
+      <c r="AH25" s="47"/>
+      <c r="AI25" s="47"/>
+      <c r="AJ25" s="47"/>
+      <c r="AK25" s="47"/>
+      <c r="AL25" s="47"/>
+      <c r="AM25" s="47"/>
+      <c r="AN25" s="47"/>
+      <c r="AO25" s="47"/>
+      <c r="AP25" s="47"/>
+      <c r="AQ25" s="47"/>
+      <c r="AR25" s="47"/>
+      <c r="AS25" s="47"/>
+      <c r="AT25" s="47"/>
+      <c r="AU25" s="47"/>
+      <c r="AV25" s="47"/>
+      <c r="AW25" s="47"/>
+    </row>
+    <row r="26" spans="2:49">
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="E26" s="47"/>
+      <c r="F26" s="47"/>
+      <c r="G26" s="47"/>
+      <c r="H26" s="47"/>
+      <c r="I26" s="47"/>
+      <c r="J26" s="47"/>
+      <c r="K26" s="47"/>
+      <c r="L26" s="47"/>
+      <c r="M26" s="47"/>
+      <c r="N26" s="47"/>
+      <c r="O26" s="47"/>
+      <c r="P26" s="47"/>
+      <c r="Q26" s="47"/>
+      <c r="R26" s="47"/>
+      <c r="S26" s="47"/>
+      <c r="T26" s="47"/>
+      <c r="U26" s="47"/>
+      <c r="V26" s="47"/>
+      <c r="W26" s="47"/>
+      <c r="X26" s="47"/>
+      <c r="Y26" s="47"/>
+      <c r="Z26" s="47"/>
+      <c r="AA26" s="47"/>
+      <c r="AB26" s="47"/>
+      <c r="AC26" s="47"/>
+      <c r="AD26" s="47"/>
+      <c r="AE26" s="47"/>
+      <c r="AF26" s="47"/>
+      <c r="AG26" s="47"/>
+      <c r="AH26" s="47"/>
+      <c r="AI26" s="47"/>
+      <c r="AJ26" s="47"/>
+      <c r="AK26" s="47"/>
+      <c r="AL26" s="47"/>
+      <c r="AM26" s="47"/>
+      <c r="AN26" s="47"/>
+      <c r="AO26" s="47"/>
+      <c r="AP26" s="47"/>
+      <c r="AQ26" s="47"/>
+      <c r="AR26" s="47"/>
+      <c r="AS26" s="47"/>
+      <c r="AT26" s="47"/>
+      <c r="AU26" s="47"/>
+      <c r="AV26" s="47"/>
+      <c r="AW26" s="47"/>
+    </row>
+    <row r="27" spans="2:49">
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="E27" s="47"/>
+      <c r="F27" s="47"/>
+      <c r="G27" s="47"/>
+      <c r="H27" s="47"/>
+      <c r="I27" s="47"/>
+      <c r="J27" s="47"/>
+      <c r="K27" s="47"/>
+      <c r="L27" s="47"/>
+      <c r="M27" s="47"/>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="P27" s="47"/>
+      <c r="Q27" s="47"/>
+      <c r="R27" s="47"/>
+      <c r="S27" s="47"/>
+      <c r="T27" s="47"/>
+      <c r="U27" s="47"/>
+      <c r="V27" s="47"/>
+      <c r="W27" s="47"/>
+      <c r="X27" s="47"/>
+      <c r="Y27" s="47"/>
+      <c r="Z27" s="47"/>
+      <c r="AA27" s="47"/>
+      <c r="AB27" s="47"/>
+      <c r="AC27" s="47"/>
+      <c r="AD27" s="47"/>
+      <c r="AE27" s="47"/>
+      <c r="AF27" s="47"/>
+      <c r="AG27" s="47"/>
+      <c r="AH27" s="47"/>
+      <c r="AI27" s="47"/>
+      <c r="AJ27" s="47"/>
+      <c r="AK27" s="47"/>
+      <c r="AL27" s="47"/>
+      <c r="AM27" s="47"/>
+      <c r="AN27" s="47"/>
+      <c r="AO27" s="47"/>
+      <c r="AP27" s="47"/>
+      <c r="AQ27" s="47"/>
+      <c r="AR27" s="47"/>
+      <c r="AS27" s="47"/>
+      <c r="AT27" s="47"/>
+      <c r="AU27" s="47"/>
+      <c r="AV27" s="47"/>
+      <c r="AW27" s="47"/>
+    </row>
+    <row r="28" spans="2:49">
+      <c r="B28" s="47"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="47"/>
+      <c r="E28" s="47"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="47"/>
+      <c r="K28" s="47"/>
+      <c r="L28" s="47"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="47"/>
+      <c r="S28" s="47"/>
+      <c r="T28" s="47"/>
+      <c r="U28" s="47"/>
+      <c r="V28" s="47"/>
+      <c r="W28" s="47"/>
+      <c r="X28" s="47"/>
+      <c r="Y28" s="47"/>
+      <c r="Z28" s="47"/>
+      <c r="AA28" s="47"/>
+      <c r="AB28" s="47"/>
+      <c r="AC28" s="47"/>
+      <c r="AD28" s="47"/>
+      <c r="AE28" s="47"/>
+      <c r="AF28" s="47"/>
+      <c r="AG28" s="47"/>
+      <c r="AH28" s="47"/>
+      <c r="AI28" s="47"/>
+      <c r="AJ28" s="47"/>
+      <c r="AK28" s="47"/>
+      <c r="AL28" s="47"/>
+      <c r="AM28" s="47"/>
+      <c r="AN28" s="47"/>
+      <c r="AO28" s="47"/>
+      <c r="AP28" s="47"/>
+      <c r="AQ28" s="47"/>
+      <c r="AR28" s="47"/>
+      <c r="AS28" s="47"/>
+      <c r="AT28" s="47"/>
+      <c r="AU28" s="47"/>
+      <c r="AV28" s="47"/>
+      <c r="AW28" s="47"/>
+    </row>
+    <row r="29" spans="2:49">
+      <c r="B29" s="47"/>
+      <c r="C29" s="47"/>
+      <c r="D29" s="47"/>
+      <c r="E29" s="47"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="47"/>
+      <c r="I29" s="47"/>
+      <c r="J29" s="47"/>
+      <c r="K29" s="47"/>
+      <c r="L29" s="47"/>
+      <c r="M29" s="47"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="P29" s="47"/>
+      <c r="Q29" s="47"/>
+      <c r="R29" s="47"/>
+      <c r="S29" s="47"/>
+      <c r="T29" s="47"/>
+      <c r="U29" s="47"/>
+      <c r="V29" s="47"/>
+      <c r="W29" s="47"/>
+      <c r="X29" s="47"/>
+      <c r="Y29" s="47"/>
+      <c r="Z29" s="47"/>
+      <c r="AA29" s="47"/>
+      <c r="AB29" s="47"/>
+      <c r="AC29" s="47"/>
+      <c r="AD29" s="47"/>
+      <c r="AE29" s="47"/>
+      <c r="AF29" s="47"/>
+      <c r="AG29" s="47"/>
+      <c r="AH29" s="47"/>
+      <c r="AI29" s="47"/>
+      <c r="AJ29" s="47"/>
+      <c r="AK29" s="47"/>
+      <c r="AL29" s="47"/>
+      <c r="AM29" s="47"/>
+      <c r="AN29" s="47"/>
+      <c r="AO29" s="47"/>
+      <c r="AP29" s="47"/>
+      <c r="AQ29" s="47"/>
+      <c r="AR29" s="47"/>
+      <c r="AS29" s="47"/>
+      <c r="AT29" s="47"/>
+      <c r="AU29" s="47"/>
+      <c r="AV29" s="47"/>
+      <c r="AW29" s="47"/>
+    </row>
+    <row r="30" spans="2:49">
+      <c r="B30" s="47"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="47"/>
+      <c r="E30" s="47"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="47"/>
+      <c r="K30" s="47"/>
+      <c r="L30" s="47"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="47"/>
+      <c r="S30" s="47"/>
+      <c r="T30" s="47"/>
+      <c r="U30" s="47"/>
+      <c r="V30" s="47"/>
+      <c r="W30" s="47"/>
+      <c r="X30" s="47"/>
+      <c r="Y30" s="47"/>
+      <c r="Z30" s="47"/>
+      <c r="AA30" s="47"/>
+      <c r="AB30" s="47"/>
+      <c r="AC30" s="47"/>
+      <c r="AD30" s="47"/>
+      <c r="AE30" s="47"/>
+      <c r="AF30" s="47"/>
+      <c r="AG30" s="47"/>
+      <c r="AH30" s="47"/>
+      <c r="AI30" s="47"/>
+      <c r="AJ30" s="47"/>
+      <c r="AK30" s="47"/>
+      <c r="AL30" s="47"/>
+      <c r="AM30" s="47"/>
+      <c r="AN30" s="47"/>
+      <c r="AO30" s="47"/>
+      <c r="AP30" s="47"/>
+      <c r="AQ30" s="47"/>
+      <c r="AR30" s="47"/>
+      <c r="AS30" s="47"/>
+      <c r="AT30" s="47"/>
+      <c r="AU30" s="47"/>
+      <c r="AV30" s="47"/>
+      <c r="AW30" s="47"/>
+    </row>
+    <row r="31" spans="2:49">
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="E31" s="47"/>
+      <c r="F31" s="47"/>
+      <c r="G31" s="47"/>
+      <c r="H31" s="47"/>
+      <c r="I31" s="47"/>
+      <c r="J31" s="47"/>
+      <c r="K31" s="47"/>
+      <c r="L31" s="47"/>
+      <c r="M31" s="47"/>
+      <c r="N31" s="47"/>
+      <c r="O31" s="47"/>
+      <c r="P31" s="47"/>
+      <c r="Q31" s="47"/>
+      <c r="R31" s="47"/>
+      <c r="S31" s="47"/>
+      <c r="T31" s="47"/>
+      <c r="U31" s="47"/>
+      <c r="V31" s="47"/>
+      <c r="W31" s="47"/>
+      <c r="X31" s="47"/>
+      <c r="Y31" s="47"/>
+      <c r="Z31" s="47"/>
+      <c r="AA31" s="47"/>
+      <c r="AB31" s="47"/>
+      <c r="AC31" s="47"/>
+      <c r="AD31" s="47"/>
+      <c r="AE31" s="47"/>
+      <c r="AF31" s="47"/>
+      <c r="AG31" s="47"/>
+      <c r="AH31" s="47"/>
+      <c r="AI31" s="47"/>
+      <c r="AJ31" s="47"/>
+      <c r="AK31" s="47"/>
+      <c r="AL31" s="47"/>
+      <c r="AM31" s="47"/>
+      <c r="AN31" s="47"/>
+      <c r="AO31" s="47"/>
+      <c r="AP31" s="47"/>
+      <c r="AQ31" s="47"/>
+      <c r="AR31" s="47"/>
+      <c r="AS31" s="47"/>
+      <c r="AT31" s="47"/>
+      <c r="AU31" s="47"/>
+      <c r="AV31" s="47"/>
+      <c r="AW31" s="47"/>
+    </row>
+    <row r="32" spans="2:49">
+      <c r="B32" s="47"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="E32" s="47"/>
+      <c r="F32" s="47"/>
+      <c r="G32" s="47"/>
+      <c r="H32" s="47"/>
+      <c r="I32" s="47"/>
+      <c r="J32" s="47"/>
+      <c r="K32" s="47"/>
+      <c r="L32" s="47"/>
+      <c r="M32" s="47"/>
+      <c r="N32" s="47"/>
+      <c r="O32" s="47"/>
+      <c r="P32" s="47"/>
+      <c r="Q32" s="47"/>
+      <c r="R32" s="47"/>
+      <c r="S32" s="47"/>
+      <c r="T32" s="47"/>
+      <c r="U32" s="47"/>
+      <c r="V32" s="47"/>
+      <c r="W32" s="47"/>
+      <c r="X32" s="47"/>
+      <c r="Y32" s="47"/>
+      <c r="Z32" s="47"/>
+      <c r="AA32" s="47"/>
+      <c r="AB32" s="47"/>
+      <c r="AC32" s="47"/>
+      <c r="AD32" s="47"/>
+      <c r="AE32" s="47"/>
+      <c r="AF32" s="47"/>
+      <c r="AG32" s="47"/>
+      <c r="AH32" s="47"/>
+      <c r="AI32" s="47"/>
+      <c r="AJ32" s="47"/>
+      <c r="AK32" s="47"/>
+      <c r="AL32" s="47"/>
+      <c r="AM32" s="47"/>
+      <c r="AN32" s="47"/>
+      <c r="AO32" s="47"/>
+      <c r="AP32" s="47"/>
+      <c r="AQ32" s="47"/>
+      <c r="AR32" s="47"/>
+      <c r="AS32" s="47"/>
+      <c r="AT32" s="47"/>
+      <c r="AU32" s="47"/>
+      <c r="AV32" s="47"/>
+      <c r="AW32" s="47"/>
+    </row>
+    <row r="33" spans="2:49">
+      <c r="B33" s="47"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="47"/>
+      <c r="G33" s="47"/>
+      <c r="H33" s="47"/>
+      <c r="I33" s="47"/>
+      <c r="J33" s="47"/>
+      <c r="K33" s="47"/>
+      <c r="L33" s="47"/>
+      <c r="M33" s="47"/>
+      <c r="N33" s="47"/>
+      <c r="O33" s="47"/>
+      <c r="P33" s="47"/>
+      <c r="Q33" s="47"/>
+      <c r="R33" s="47"/>
+      <c r="S33" s="47"/>
+      <c r="T33" s="47"/>
+      <c r="U33" s="47"/>
+      <c r="V33" s="47"/>
+      <c r="W33" s="47"/>
+      <c r="X33" s="47"/>
+      <c r="Y33" s="47"/>
+      <c r="Z33" s="47"/>
+      <c r="AA33" s="47"/>
+      <c r="AB33" s="47"/>
+      <c r="AC33" s="47"/>
+      <c r="AD33" s="47"/>
+      <c r="AE33" s="47"/>
+      <c r="AF33" s="47"/>
+      <c r="AG33" s="47"/>
+      <c r="AH33" s="47"/>
+      <c r="AI33" s="47"/>
+      <c r="AJ33" s="47"/>
+      <c r="AK33" s="47"/>
+      <c r="AL33" s="47"/>
+      <c r="AM33" s="47"/>
+      <c r="AN33" s="47"/>
+      <c r="AO33" s="47"/>
+      <c r="AP33" s="47"/>
+      <c r="AQ33" s="47"/>
+      <c r="AR33" s="47"/>
+      <c r="AS33" s="47"/>
+      <c r="AT33" s="47"/>
+      <c r="AU33" s="47"/>
+      <c r="AV33" s="47"/>
+      <c r="AW33" s="47"/>
+    </row>
+    <row r="34" spans="2:49">
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="E34" s="47"/>
+      <c r="F34" s="47"/>
+      <c r="G34" s="47"/>
+      <c r="H34" s="47"/>
+      <c r="I34" s="47"/>
+      <c r="J34" s="47"/>
+      <c r="K34" s="47"/>
+      <c r="L34" s="47"/>
+      <c r="M34" s="47"/>
+      <c r="N34" s="47"/>
+      <c r="O34" s="47"/>
+      <c r="P34" s="47"/>
+      <c r="Q34" s="47"/>
+      <c r="R34" s="47"/>
+      <c r="S34" s="47"/>
+      <c r="T34" s="47"/>
+      <c r="U34" s="47"/>
+      <c r="V34" s="47"/>
+      <c r="W34" s="47"/>
+      <c r="X34" s="47"/>
+      <c r="Y34" s="47"/>
+      <c r="Z34" s="47"/>
+      <c r="AA34" s="47"/>
+      <c r="AB34" s="47"/>
+      <c r="AC34" s="47"/>
+      <c r="AD34" s="47"/>
+      <c r="AE34" s="47"/>
+      <c r="AF34" s="47"/>
+      <c r="AG34" s="47"/>
+      <c r="AH34" s="47"/>
+      <c r="AI34" s="47"/>
+      <c r="AJ34" s="47"/>
+      <c r="AK34" s="47"/>
+      <c r="AL34" s="47"/>
+      <c r="AM34" s="47"/>
+      <c r="AN34" s="47"/>
+      <c r="AO34" s="47"/>
+      <c r="AP34" s="47"/>
+      <c r="AQ34" s="47"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
+      <c r="AT34" s="47"/>
+      <c r="AU34" s="47"/>
+      <c r="AV34" s="47"/>
+      <c r="AW34" s="47"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
+  <mergeCells count="31">
+    <mergeCell ref="B18:AW34"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="B2:B3"/>
@@ -8235,6 +9256,26 @@
     <mergeCell ref="G2:I2"/>
     <mergeCell ref="J2:J3"/>
     <mergeCell ref="K2:K3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -8243,15 +9284,15 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R32" sqref="R32"/>
+      <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -8265,48 +9306,48 @@
     <col min="16" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="40" t="s">
+    <row r="1" spans="1:36" ht="31.5" customHeight="1">
+      <c r="A1" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="41"/>
-      <c r="C1" s="41"/>
-      <c r="D1" s="41"/>
-      <c r="E1" s="41"/>
-      <c r="F1" s="41"/>
-      <c r="G1" s="41"/>
-      <c r="H1" s="41"/>
-      <c r="I1" s="41"/>
-      <c r="J1" s="41"/>
-      <c r="K1" s="41"/>
-      <c r="L1" s="41"/>
-      <c r="M1" s="41"/>
-      <c r="N1" s="41"/>
-      <c r="O1" s="41"/>
-      <c r="P1" s="41"/>
-      <c r="Q1" s="41"/>
-      <c r="R1" s="41"/>
-      <c r="S1" s="41"/>
-      <c r="T1" s="41"/>
-      <c r="U1" s="41"/>
-      <c r="V1" s="41"/>
-      <c r="W1" s="41"/>
-      <c r="X1" s="41"/>
-      <c r="Y1" s="41"/>
-      <c r="Z1" s="41"/>
-      <c r="AA1" s="41"/>
-      <c r="AB1" s="41"/>
-      <c r="AC1" s="41"/>
-      <c r="AD1" s="41"/>
-      <c r="AE1" s="41"/>
-      <c r="AF1" s="41"/>
-      <c r="AG1" s="41"/>
-      <c r="AH1" s="41"/>
-      <c r="AI1" s="41"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
+      <c r="H1" s="38"/>
+      <c r="I1" s="38"/>
+      <c r="J1" s="38"/>
+      <c r="K1" s="38"/>
+      <c r="L1" s="38"/>
+      <c r="M1" s="38"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="38"/>
+      <c r="AB1" s="38"/>
+      <c r="AC1" s="38"/>
+      <c r="AD1" s="38"/>
+      <c r="AE1" s="38"/>
+      <c r="AF1" s="38"/>
+      <c r="AG1" s="38"/>
+      <c r="AH1" s="38"/>
+      <c r="AI1" s="38"/>
       <c r="AJ1" s="42"/>
     </row>
-    <row r="2" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="38" t="s">
+    <row r="2" spans="1:36" ht="31.5" customHeight="1">
+      <c r="A2" s="40" t="s">
         <v>23</v>
       </c>
       <c r="B2" s="45" t="s">
@@ -8324,51 +9365,51 @@
       <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="40" t="s">
+      <c r="G2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="41"/>
+      <c r="H2" s="38"/>
       <c r="I2" s="42"/>
-      <c r="J2" s="37" t="s">
+      <c r="J2" s="39" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="37" t="s">
+      <c r="K2" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="37" t="s">
+      <c r="L2" s="39" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="37" t="s">
+      <c r="M2" s="39" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="37" t="s">
+      <c r="N2" s="39" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="37" t="s">
+      <c r="O2" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="37" t="s">
+      <c r="P2" s="39" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="37" t="s">
+      <c r="Q2" s="39" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="37" t="s">
+      <c r="R2" s="39" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="37" t="s">
+      <c r="S2" s="39" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="37" t="s">
+      <c r="T2" s="39" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="37" t="s">
+      <c r="U2" s="39" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="37" t="s">
+      <c r="V2" s="39" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="37" t="s">
+      <c r="W2" s="39" t="s">
         <v>47</v>
       </c>
       <c r="X2" s="43" t="s">
@@ -8377,16 +9418,16 @@
       <c r="Y2" s="43" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="37" t="s">
+      <c r="Z2" s="39" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="37" t="s">
+      <c r="AA2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="37" t="s">
+      <c r="AB2" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="37" t="s">
+      <c r="AC2" s="39" t="s">
         <v>49</v>
       </c>
       <c r="AD2" s="43" t="s">
@@ -8395,24 +9436,24 @@
       <c r="AE2" s="43" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="37" t="s">
+      <c r="AF2" s="39" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="37" t="s">
+      <c r="AG2" s="39" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="37" t="s">
+      <c r="AH2" s="39" t="s">
         <v>55</v>
       </c>
       <c r="AI2" s="46" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="37" t="s">
+      <c r="AJ2" s="39" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="39"/>
+    <row r="3" spans="1:36" ht="75">
+      <c r="A3" s="41"/>
       <c r="B3" s="45"/>
       <c r="C3" s="45"/>
       <c r="D3" s="45"/>
@@ -8427,35 +9468,35 @@
       <c r="I3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="37"/>
-      <c r="K3" s="37"/>
-      <c r="L3" s="37"/>
-      <c r="M3" s="37"/>
-      <c r="N3" s="37"/>
-      <c r="O3" s="37"/>
-      <c r="P3" s="37"/>
-      <c r="Q3" s="37"/>
-      <c r="R3" s="37"/>
-      <c r="S3" s="37"/>
-      <c r="T3" s="37"/>
-      <c r="U3" s="37"/>
-      <c r="V3" s="37"/>
-      <c r="W3" s="37"/>
+      <c r="J3" s="39"/>
+      <c r="K3" s="39"/>
+      <c r="L3" s="39"/>
+      <c r="M3" s="39"/>
+      <c r="N3" s="39"/>
+      <c r="O3" s="39"/>
+      <c r="P3" s="39"/>
+      <c r="Q3" s="39"/>
+      <c r="R3" s="39"/>
+      <c r="S3" s="39"/>
+      <c r="T3" s="39"/>
+      <c r="U3" s="39"/>
+      <c r="V3" s="39"/>
+      <c r="W3" s="39"/>
       <c r="X3" s="44"/>
       <c r="Y3" s="44"/>
-      <c r="Z3" s="37"/>
-      <c r="AA3" s="37"/>
-      <c r="AB3" s="37"/>
-      <c r="AC3" s="37"/>
+      <c r="Z3" s="39"/>
+      <c r="AA3" s="39"/>
+      <c r="AB3" s="39"/>
+      <c r="AC3" s="39"/>
       <c r="AD3" s="44"/>
       <c r="AE3" s="44"/>
-      <c r="AF3" s="37"/>
-      <c r="AG3" s="37"/>
-      <c r="AH3" s="37"/>
+      <c r="AF3" s="39"/>
+      <c r="AG3" s="39"/>
+      <c r="AH3" s="39"/>
       <c r="AI3" s="46"/>
-      <c r="AJ3" s="37"/>
+      <c r="AJ3" s="39"/>
     </row>
-    <row r="4" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="35.25" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -8536,7 +9577,7 @@
         <v>15909.090909090897</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -8612,7 +9653,7 @@
         <v>68436.363636363647</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="33" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -8688,7 +9729,7 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="31.5" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -8764,7 +9805,7 @@
         <v>-0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -8847,7 +9888,7 @@
         <v>917.81818181817653</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -8927,7 +9968,7 @@
         <v>28440</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -9015,6 +10056,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A2:A3"/>
@@ -9031,25 +10091,6 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AD2:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/!!!ЗП.xlsx
+++ b/!!!ЗП.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="355" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="95">
   <si>
     <t>Плановый цикл производства (шаблон)</t>
   </si>
@@ -537,15 +537,48 @@
   <si>
     <t xml:space="preserve">Расчетная ведомость за период 1-31 декабря </t>
   </si>
+  <si>
+    <t>Bnjuj yfxbcktyj</t>
+  </si>
+  <si>
+    <t>Э  Elth;fyj/</t>
+  </si>
+  <si>
+    <t>Bcg/ kbcn@</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  YLAK</t>
+  </si>
+  <si>
+    <t>Dsgkfxtyj ACC</t>
+  </si>
+  <si>
+    <t>Ghjvt;enjxyfz dsgkfnf</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  Rfhnf</t>
+  </si>
+  <si>
+    <t>@Bnjuj r</t>
+  </si>
+  <si>
+    <t>gjkextyb.@</t>
+  </si>
+  <si>
+    <t>объединяем по фио</t>
+  </si>
+  <si>
+    <t>по уволенным отдельные ведомости, по остальным общая, группируется по фио/организация/табельны, столбец должность не нужен</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="0" formatCode="[$-419]d\ mmm;@"/>
+    <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1285,1532 +1318,1532 @@
     </border>
   </borders>
   <cellStyleXfs count="1497">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="6" fillId="6" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="7" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="8" fillId="4" borderId="11" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="14" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="13" fillId="21" borderId="17" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="15" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="16" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="3" fillId="8" borderId="18" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+  <cellXfs count="61">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -2819,118 +2852,130 @@
     <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="21" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="20% - Акцент1 1" xfId="2"/>
@@ -4516,6 +4561,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4550,6 +4596,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4725,14 +4772,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -4742,54 +4789,54 @@
     <col min="35" max="36" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="28"/>
-      <c r="C3" s="28"/>
-      <c r="D3" s="28"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="28"/>
-      <c r="H3" s="28"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="28"/>
-      <c r="L3" s="28"/>
-      <c r="M3" s="28"/>
-      <c r="N3" s="28"/>
-      <c r="O3" s="28"/>
-      <c r="P3" s="28"/>
-      <c r="Q3" s="28"/>
-      <c r="R3" s="28"/>
-      <c r="S3" s="28"/>
-      <c r="T3" s="28"/>
-      <c r="U3" s="28"/>
-      <c r="V3" s="28"/>
-      <c r="W3" s="28"/>
-      <c r="X3" s="28"/>
-      <c r="Y3" s="28"/>
-      <c r="Z3" s="28"/>
-      <c r="AA3" s="28"/>
-      <c r="AB3" s="28"/>
-      <c r="AC3" s="28"/>
-      <c r="AD3" s="28"/>
-      <c r="AE3" s="28"/>
-      <c r="AF3" s="28"/>
-      <c r="AG3" s="28"/>
-      <c r="AH3" s="28"/>
-      <c r="AI3" s="29"/>
-      <c r="AJ3" s="23" t="s">
+    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="31" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="32"/>
+      <c r="C3" s="32"/>
+      <c r="D3" s="32"/>
+      <c r="E3" s="32"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="32"/>
+      <c r="J3" s="32"/>
+      <c r="K3" s="32"/>
+      <c r="L3" s="32"/>
+      <c r="M3" s="32"/>
+      <c r="N3" s="32"/>
+      <c r="O3" s="32"/>
+      <c r="P3" s="32"/>
+      <c r="Q3" s="32"/>
+      <c r="R3" s="32"/>
+      <c r="S3" s="32"/>
+      <c r="T3" s="32"/>
+      <c r="U3" s="32"/>
+      <c r="V3" s="32"/>
+      <c r="W3" s="32"/>
+      <c r="X3" s="32"/>
+      <c r="Y3" s="32"/>
+      <c r="Z3" s="32"/>
+      <c r="AA3" s="32"/>
+      <c r="AB3" s="32"/>
+      <c r="AC3" s="32"/>
+      <c r="AD3" s="32"/>
+      <c r="AE3" s="32"/>
+      <c r="AF3" s="32"/>
+      <c r="AG3" s="32"/>
+      <c r="AH3" s="32"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="27" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="42" customHeight="1">
-      <c r="A4" s="34" t="s">
+    <row r="4" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="38" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="35"/>
+      <c r="B4" s="39"/>
       <c r="C4" s="15">
         <v>336.12</v>
       </c>
@@ -4889,13 +4936,13 @@
       <c r="AI4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="24"/>
+      <c r="AJ4" s="28"/>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1">
-      <c r="A5" s="30" t="s">
+    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="31"/>
+      <c r="B5" s="35"/>
       <c r="C5" s="2">
         <v>8</v>
       </c>
@@ -5002,11 +5049,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="32" t="s">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="33"/>
+      <c r="B6" s="37"/>
       <c r="C6" s="4">
         <v>11</v>
       </c>
@@ -5113,7 +5160,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" customHeight="1">
+    <row r="7" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5151,56 +5198,56 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1">
-      <c r="A8" s="26" t="s">
+    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="30" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="26"/>
-      <c r="C8" s="26"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="26"/>
-      <c r="J8" s="26"/>
-      <c r="K8" s="26"/>
-      <c r="L8" s="26"/>
-      <c r="M8" s="26"/>
-      <c r="N8" s="26"/>
-      <c r="O8" s="26"/>
-      <c r="P8" s="26"/>
-      <c r="Q8" s="26"/>
-      <c r="R8" s="26"/>
-      <c r="S8" s="26"/>
-      <c r="T8" s="26"/>
-      <c r="U8" s="26"/>
-      <c r="V8" s="26"/>
-      <c r="W8" s="26"/>
-      <c r="X8" s="26"/>
-      <c r="Y8" s="26"/>
-      <c r="Z8" s="26"/>
-      <c r="AA8" s="26"/>
-      <c r="AB8" s="26"/>
-      <c r="AC8" s="26"/>
-      <c r="AD8" s="26"/>
-      <c r="AE8" s="26"/>
-      <c r="AF8" s="26"/>
-      <c r="AG8" s="26"/>
-      <c r="AH8" s="26"/>
-      <c r="AI8" s="25" t="s">
+      <c r="B8" s="30"/>
+      <c r="C8" s="30"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="30"/>
+      <c r="J8" s="30"/>
+      <c r="K8" s="30"/>
+      <c r="L8" s="30"/>
+      <c r="M8" s="30"/>
+      <c r="N8" s="30"/>
+      <c r="O8" s="30"/>
+      <c r="P8" s="30"/>
+      <c r="Q8" s="30"/>
+      <c r="R8" s="30"/>
+      <c r="S8" s="30"/>
+      <c r="T8" s="30"/>
+      <c r="U8" s="30"/>
+      <c r="V8" s="30"/>
+      <c r="W8" s="30"/>
+      <c r="X8" s="30"/>
+      <c r="Y8" s="30"/>
+      <c r="Z8" s="30"/>
+      <c r="AA8" s="30"/>
+      <c r="AB8" s="30"/>
+      <c r="AC8" s="30"/>
+      <c r="AD8" s="30"/>
+      <c r="AE8" s="30"/>
+      <c r="AF8" s="30"/>
+      <c r="AG8" s="30"/>
+      <c r="AH8" s="30"/>
+      <c r="AI8" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="AJ8" s="25" t="s">
+      <c r="AJ8" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="45.75" customHeight="1">
-      <c r="A9" s="36" t="str">
+    <row r="9" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="40" t="str">
         <f>A4</f>
         <v>Дата</v>
       </c>
-      <c r="B9" s="36"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="15">
         <f>C4</f>
         <v>336.12</v>
@@ -5313,11 +5360,11 @@
       <c r="AH9" s="15">
         <v>46022</v>
       </c>
-      <c r="AI9" s="25"/>
-      <c r="AJ9" s="25"/>
+      <c r="AI9" s="29"/>
+      <c r="AJ9" s="29"/>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1">
-      <c r="A10" s="25" t="s">
+    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -5430,8 +5477,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" customHeight="1">
-      <c r="A11" s="25"/>
+    <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="29"/>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5546,8 +5593,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="33" customHeight="1">
-      <c r="A12" s="25" t="s">
+    <row r="12" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -5660,8 +5707,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="30" customHeight="1">
-      <c r="A13" s="25"/>
+    <row r="13" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="29"/>
       <c r="B13" s="2" t="str">
         <f>B11</f>
         <v>Переработка</v>
@@ -5780,8 +5827,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="33" customHeight="1">
-      <c r="A14" s="25" t="s">
+    <row r="14" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5893,8 +5940,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30" customHeight="1">
-      <c r="A15" s="25"/>
+    <row r="15" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="29"/>
       <c r="B15" s="2" t="str">
         <f>B13</f>
         <v>Переработка</v>
@@ -6027,44 +6074,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="22" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="22"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="22"/>
-      <c r="E16" s="22"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
     </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="22" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
+      <c r="B17" s="26"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
     </row>
-    <row r="18" spans="1:5">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="22" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="22"/>
+      <c r="B21" s="26"/>
       <c r="C21" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -6075,7 +6122,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -6091,7 +6138,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6107,7 +6154,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6124,21 +6171,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="22" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="22"/>
+      <c r="B28" s="26"/>
       <c r="C28" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -6149,7 +6196,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6165,7 +6212,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6181,7 +6228,7 @@
         <v>11477.272727272728</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -6198,7 +6245,7 @@
         <v>12840.909090909092</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6228,7 +6275,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6236,7 +6283,7 @@
       <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6250,115 +6297,115 @@
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
     </row>
-    <row r="2" spans="1:25" ht="31.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="42" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="39" t="s">
+      <c r="X2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="42" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="75">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
@@ -6368,24 +6415,24 @@
       <c r="I3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="39"/>
-      <c r="Y3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="42"/>
+      <c r="Y3" s="42"/>
     </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1">
+    <row r="4" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6445,7 +6492,7 @@
         <v>34090.909090909088</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1">
+    <row r="5" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -6505,7 +6552,7 @@
         <v>11363.636363636362</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="33" customHeight="1">
+    <row r="6" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6565,7 +6612,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="31.5" customHeight="1">
+    <row r="7" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6623,7 +6670,7 @@
         <v>16652.17391304348</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1">
+    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6683,7 +6730,7 @@
         <v>43204</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1">
+    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6739,7 +6786,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1">
+    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6801,14 +6848,6 @@
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="P2:P3"/>
@@ -6825,6 +6864,14 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6833,15 +6880,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AI18" sqref="AI18"/>
+      <pane xSplit="9" topLeftCell="AC1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6858,153 +6905,145 @@
     <col min="16" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="47"/>
     </row>
-    <row r="2" spans="1:46" ht="31.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="39" t="s">
-        <v>49</v>
-      </c>
-      <c r="Z2" s="43" t="s">
-        <v>53</v>
-      </c>
-      <c r="AA2" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="AB2" s="39" t="s">
-        <v>54</v>
-      </c>
-      <c r="AC2" s="39" t="s">
-        <v>55</v>
-      </c>
-      <c r="AD2" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="AE2" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="AG2" s="48"/>
-      <c r="AH2" s="49"/>
-      <c r="AI2" s="49"/>
-      <c r="AJ2" s="49"/>
-      <c r="AK2" s="49"/>
-      <c r="AL2" s="49"/>
-      <c r="AM2" s="49"/>
-      <c r="AN2" s="49"/>
-      <c r="AO2" s="49"/>
-      <c r="AP2" s="49"/>
-      <c r="AQ2" s="49"/>
-      <c r="AR2" s="49"/>
-      <c r="AS2" s="49"/>
-      <c r="AT2" s="50"/>
+      <c r="Y2" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="Z2" s="23" t="s">
+        <v>85</v>
+      </c>
+      <c r="AA2" s="22"/>
+      <c r="AB2" s="22"/>
+      <c r="AC2" s="22"/>
+      <c r="AD2" s="25"/>
+      <c r="AE2" s="22"/>
+      <c r="AG2" s="50" t="s">
+        <v>94</v>
+      </c>
+      <c r="AH2" s="51"/>
+      <c r="AI2" s="51"/>
+      <c r="AJ2" s="51"/>
+      <c r="AK2" s="51"/>
+      <c r="AL2" s="51"/>
+      <c r="AM2" s="51"/>
+      <c r="AN2" s="51"/>
+      <c r="AO2" s="51"/>
+      <c r="AP2" s="51"/>
+      <c r="AQ2" s="51"/>
+      <c r="AR2" s="51"/>
+      <c r="AS2" s="51"/>
+      <c r="AT2" s="52"/>
     </row>
-    <row r="3" spans="1:46" ht="75">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
@@ -7014,44 +7053,56 @@
       <c r="I3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="39"/>
-      <c r="AG3" s="51"/>
-      <c r="AH3" s="52"/>
-      <c r="AI3" s="52"/>
-      <c r="AJ3" s="52"/>
-      <c r="AK3" s="52"/>
-      <c r="AL3" s="52"/>
-      <c r="AM3" s="52"/>
-      <c r="AN3" s="52"/>
-      <c r="AO3" s="52"/>
-      <c r="AP3" s="52"/>
-      <c r="AQ3" s="52"/>
-      <c r="AR3" s="52"/>
-      <c r="AS3" s="52"/>
-      <c r="AT3" s="53"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="22" t="s">
+        <v>86</v>
+      </c>
+      <c r="Z3" s="24" t="s">
+        <v>87</v>
+      </c>
+      <c r="AA3" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="AB3" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="AC3" s="22" t="s">
+        <v>90</v>
+      </c>
+      <c r="AD3" s="25" t="s">
+        <v>91</v>
+      </c>
+      <c r="AE3" s="22"/>
+      <c r="AG3" s="53"/>
+      <c r="AH3" s="60"/>
+      <c r="AI3" s="60"/>
+      <c r="AJ3" s="60"/>
+      <c r="AK3" s="60"/>
+      <c r="AL3" s="60"/>
+      <c r="AM3" s="60"/>
+      <c r="AN3" s="60"/>
+      <c r="AO3" s="60"/>
+      <c r="AP3" s="60"/>
+      <c r="AQ3" s="60"/>
+      <c r="AR3" s="60"/>
+      <c r="AS3" s="60"/>
+      <c r="AT3" s="54"/>
     </row>
-    <row r="4" spans="1:46" ht="35.25" customHeight="1">
+    <row r="4" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7106,39 +7157,33 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="12">
-        <f t="shared" ref="Y4:Y10" si="0">SUM(N4:X4)</f>
-        <v>34090.909090909088</v>
+      <c r="Y4" s="12" t="s">
+        <v>92</v>
       </c>
       <c r="Z4" s="12"/>
-      <c r="AA4" s="12">
-        <v>3520</v>
+      <c r="AA4" s="12" t="s">
+        <v>93</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
-      <c r="AD4" s="12">
-        <v>30000</v>
-      </c>
-      <c r="AE4" s="12">
-        <f>Y4-Z4-AA4-AB4-AC4-AD4</f>
-        <v>570.90909090908826</v>
-      </c>
-      <c r="AG4" s="51"/>
-      <c r="AH4" s="52"/>
-      <c r="AI4" s="52"/>
-      <c r="AJ4" s="52"/>
-      <c r="AK4" s="52"/>
-      <c r="AL4" s="52"/>
-      <c r="AM4" s="52"/>
-      <c r="AN4" s="52"/>
-      <c r="AO4" s="52"/>
-      <c r="AP4" s="52"/>
-      <c r="AQ4" s="52"/>
-      <c r="AR4" s="52"/>
-      <c r="AS4" s="52"/>
-      <c r="AT4" s="53"/>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="12"/>
+      <c r="AG4" s="53"/>
+      <c r="AH4" s="60"/>
+      <c r="AI4" s="60"/>
+      <c r="AJ4" s="60"/>
+      <c r="AK4" s="60"/>
+      <c r="AL4" s="60"/>
+      <c r="AM4" s="60"/>
+      <c r="AN4" s="60"/>
+      <c r="AO4" s="60"/>
+      <c r="AP4" s="60"/>
+      <c r="AQ4" s="60"/>
+      <c r="AR4" s="60"/>
+      <c r="AS4" s="60"/>
+      <c r="AT4" s="54"/>
     </row>
-    <row r="5" spans="1:46" ht="35.25" customHeight="1">
+    <row r="5" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -7193,39 +7238,29 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="12">
-        <f t="shared" si="0"/>
-        <v>11363.636363636362</v>
-      </c>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="12"/>
-      <c r="AA5" s="12">
-        <v>3520</v>
-      </c>
+      <c r="AA5" s="12"/>
       <c r="AB5" s="12"/>
       <c r="AC5" s="12"/>
-      <c r="AD5" s="12">
-        <v>30000</v>
-      </c>
-      <c r="AE5" s="12">
-        <f>Y5-Z5-AA5-AB5-AC5-AD5</f>
-        <v>-22156.36363636364</v>
-      </c>
-      <c r="AG5" s="51"/>
-      <c r="AH5" s="52"/>
-      <c r="AI5" s="52"/>
-      <c r="AJ5" s="52"/>
-      <c r="AK5" s="52"/>
-      <c r="AL5" s="52"/>
-      <c r="AM5" s="52"/>
-      <c r="AN5" s="52"/>
-      <c r="AO5" s="52"/>
-      <c r="AP5" s="52"/>
-      <c r="AQ5" s="52"/>
-      <c r="AR5" s="52"/>
-      <c r="AS5" s="52"/>
-      <c r="AT5" s="53"/>
+      <c r="AD5" s="12"/>
+      <c r="AE5" s="12"/>
+      <c r="AG5" s="53"/>
+      <c r="AH5" s="60"/>
+      <c r="AI5" s="60"/>
+      <c r="AJ5" s="60"/>
+      <c r="AK5" s="60"/>
+      <c r="AL5" s="60"/>
+      <c r="AM5" s="60"/>
+      <c r="AN5" s="60"/>
+      <c r="AO5" s="60"/>
+      <c r="AP5" s="60"/>
+      <c r="AQ5" s="60"/>
+      <c r="AR5" s="60"/>
+      <c r="AS5" s="60"/>
+      <c r="AT5" s="54"/>
     </row>
-    <row r="6" spans="1:46" ht="33" customHeight="1">
+    <row r="6" spans="1:46" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -7260,14 +7295,14 @@
         <v>90000</v>
       </c>
       <c r="L6" s="12">
-        <f t="shared" ref="L6:L7" si="1">J6-K6</f>
+        <f t="shared" ref="L6:L7" si="0">J6-K6</f>
         <v>50000</v>
       </c>
       <c r="M6" s="11">
         <v>1</v>
       </c>
       <c r="N6" s="12">
-        <f t="shared" ref="N6:N9" si="2">(K6/176*H6)+(L6*M6/176*H6)</f>
+        <f t="shared" ref="N6:N9" si="1">(K6/176*H6)+(L6*M6/176*H6)</f>
         <v>70000</v>
       </c>
       <c r="O6" s="12"/>
@@ -7281,38 +7316,36 @@
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
       <c r="Y6" s="12">
-        <f t="shared" si="0"/>
-        <v>70000</v>
+        <v>34091</v>
       </c>
       <c r="Z6" s="12"/>
       <c r="AA6" s="12">
-        <v>3000</v>
+        <v>3520</v>
       </c>
       <c r="AB6" s="12"/>
       <c r="AC6" s="12"/>
       <c r="AD6" s="12">
-        <v>67000</v>
+        <v>30000</v>
       </c>
       <c r="AE6" s="12">
-        <f t="shared" ref="AE6:AE10" si="3">Y6-Z6-AA6-AB6-AC6-AD6</f>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="51"/>
-      <c r="AH6" s="52"/>
-      <c r="AI6" s="52"/>
-      <c r="AJ6" s="52"/>
-      <c r="AK6" s="52"/>
-      <c r="AL6" s="52"/>
-      <c r="AM6" s="52"/>
-      <c r="AN6" s="52"/>
-      <c r="AO6" s="52"/>
-      <c r="AP6" s="52"/>
-      <c r="AQ6" s="52"/>
-      <c r="AR6" s="52"/>
-      <c r="AS6" s="52"/>
-      <c r="AT6" s="53"/>
+        <v>571</v>
+      </c>
+      <c r="AG6" s="53"/>
+      <c r="AH6" s="60"/>
+      <c r="AI6" s="60"/>
+      <c r="AJ6" s="60"/>
+      <c r="AK6" s="60"/>
+      <c r="AL6" s="60"/>
+      <c r="AM6" s="60"/>
+      <c r="AN6" s="60"/>
+      <c r="AO6" s="60"/>
+      <c r="AP6" s="60"/>
+      <c r="AQ6" s="60"/>
+      <c r="AR6" s="60"/>
+      <c r="AS6" s="60"/>
+      <c r="AT6" s="54"/>
     </row>
-    <row r="7" spans="1:46" ht="31.5" customHeight="1">
+    <row r="7" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -7345,7 +7378,7 @@
       </c>
       <c r="K7" s="12"/>
       <c r="L7" s="12">
-        <f t="shared" si="1"/>
+        <f t="shared" si="0"/>
         <v>30000</v>
       </c>
       <c r="M7" s="11"/>
@@ -7366,38 +7399,36 @@
       <c r="W7" s="12"/>
       <c r="X7" s="12"/>
       <c r="Y7" s="12">
-        <f t="shared" si="0"/>
-        <v>16652.17391304348</v>
+        <v>11364</v>
       </c>
       <c r="Z7" s="12"/>
       <c r="AA7" s="12">
-        <v>5800</v>
+        <v>3520</v>
       </c>
       <c r="AB7" s="12"/>
       <c r="AC7" s="12"/>
       <c r="AD7" s="12">
-        <v>10852</v>
+        <v>30000</v>
       </c>
       <c r="AE7" s="12">
-        <f t="shared" si="3"/>
-        <v>0.1739130434798426</v>
-      </c>
-      <c r="AG7" s="51"/>
-      <c r="AH7" s="52"/>
-      <c r="AI7" s="52"/>
-      <c r="AJ7" s="52"/>
-      <c r="AK7" s="52"/>
-      <c r="AL7" s="52"/>
-      <c r="AM7" s="52"/>
-      <c r="AN7" s="52"/>
-      <c r="AO7" s="52"/>
-      <c r="AP7" s="52"/>
-      <c r="AQ7" s="52"/>
-      <c r="AR7" s="52"/>
-      <c r="AS7" s="52"/>
-      <c r="AT7" s="53"/>
+        <v>-22156</v>
+      </c>
+      <c r="AG7" s="53"/>
+      <c r="AH7" s="60"/>
+      <c r="AI7" s="60"/>
+      <c r="AJ7" s="60"/>
+      <c r="AK7" s="60"/>
+      <c r="AL7" s="60"/>
+      <c r="AM7" s="60"/>
+      <c r="AN7" s="60"/>
+      <c r="AO7" s="60"/>
+      <c r="AP7" s="60"/>
+      <c r="AQ7" s="60"/>
+      <c r="AR7" s="60"/>
+      <c r="AS7" s="60"/>
+      <c r="AT7" s="54"/>
     </row>
-    <row r="8" spans="1:46" ht="30" customHeight="1">
+    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -7439,7 +7470,7 @@
         <v>0.9</v>
       </c>
       <c r="N8" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>43204</v>
       </c>
       <c r="O8" s="12"/>
@@ -7453,38 +7484,36 @@
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12">
-        <f t="shared" si="0"/>
-        <v>43204</v>
+        <v>70000</v>
       </c>
       <c r="Z8" s="12"/>
       <c r="AA8" s="12">
-        <v>6700</v>
+        <v>3000</v>
       </c>
       <c r="AB8" s="12"/>
       <c r="AC8" s="12"/>
       <c r="AD8" s="12">
-        <v>32000</v>
+        <v>67000</v>
       </c>
       <c r="AE8" s="12">
-        <f t="shared" si="3"/>
-        <v>4504</v>
-      </c>
-      <c r="AG8" s="51"/>
-      <c r="AH8" s="52"/>
-      <c r="AI8" s="52"/>
-      <c r="AJ8" s="52"/>
-      <c r="AK8" s="52"/>
-      <c r="AL8" s="52"/>
-      <c r="AM8" s="52"/>
-      <c r="AN8" s="52"/>
-      <c r="AO8" s="52"/>
-      <c r="AP8" s="52"/>
-      <c r="AQ8" s="52"/>
-      <c r="AR8" s="52"/>
-      <c r="AS8" s="52"/>
-      <c r="AT8" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="AG8" s="53"/>
+      <c r="AH8" s="60"/>
+      <c r="AI8" s="60"/>
+      <c r="AJ8" s="60"/>
+      <c r="AK8" s="60"/>
+      <c r="AL8" s="60"/>
+      <c r="AM8" s="60"/>
+      <c r="AN8" s="60"/>
+      <c r="AO8" s="60"/>
+      <c r="AP8" s="60"/>
+      <c r="AQ8" s="60"/>
+      <c r="AR8" s="60"/>
+      <c r="AS8" s="60"/>
+      <c r="AT8" s="54"/>
     </row>
-    <row r="9" spans="1:46" ht="30" customHeight="1">
+    <row r="9" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -7520,7 +7549,7 @@
       </c>
       <c r="M9" s="11"/>
       <c r="N9" s="12">
-        <f t="shared" si="2"/>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
       <c r="O9" s="12">
@@ -7536,40 +7565,36 @@
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
       <c r="Y9" s="12">
-        <f t="shared" si="0"/>
-        <v>37833</v>
-      </c>
-      <c r="Z9" s="12">
-        <v>2000</v>
-      </c>
+        <v>16652</v>
+      </c>
+      <c r="Z9" s="12"/>
       <c r="AA9" s="12">
-        <v>3900</v>
+        <v>5800</v>
       </c>
       <c r="AB9" s="12"/>
       <c r="AC9" s="12"/>
       <c r="AD9" s="12">
-        <v>27000</v>
+        <v>10852</v>
       </c>
       <c r="AE9" s="12">
-        <f t="shared" si="3"/>
-        <v>4933</v>
-      </c>
-      <c r="AG9" s="51"/>
-      <c r="AH9" s="52"/>
-      <c r="AI9" s="52"/>
-      <c r="AJ9" s="52"/>
-      <c r="AK9" s="52"/>
-      <c r="AL9" s="52"/>
-      <c r="AM9" s="52"/>
-      <c r="AN9" s="52"/>
-      <c r="AO9" s="52"/>
-      <c r="AP9" s="52"/>
-      <c r="AQ9" s="52"/>
-      <c r="AR9" s="52"/>
-      <c r="AS9" s="52"/>
-      <c r="AT9" s="53"/>
+        <v>0</v>
+      </c>
+      <c r="AG9" s="53"/>
+      <c r="AH9" s="60"/>
+      <c r="AI9" s="60"/>
+      <c r="AJ9" s="60"/>
+      <c r="AK9" s="60"/>
+      <c r="AL9" s="60"/>
+      <c r="AM9" s="60"/>
+      <c r="AN9" s="60"/>
+      <c r="AO9" s="60"/>
+      <c r="AP9" s="60"/>
+      <c r="AQ9" s="60"/>
+      <c r="AR9" s="60"/>
+      <c r="AS9" s="60"/>
+      <c r="AT9" s="54"/>
     </row>
-    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1">
+    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -7625,39 +7650,51 @@
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
       <c r="Y10" s="12">
-        <f t="shared" si="0"/>
-        <v>32500</v>
+        <v>43204</v>
       </c>
       <c r="Z10" s="12"/>
       <c r="AA10" s="12">
-        <v>5200</v>
+        <v>6700</v>
       </c>
       <c r="AB10" s="12"/>
       <c r="AC10" s="12"/>
       <c r="AD10" s="12">
-        <v>5000</v>
+        <v>32000</v>
       </c>
       <c r="AE10" s="12">
-        <f t="shared" si="3"/>
-        <v>22300</v>
-      </c>
-      <c r="AG10" s="54"/>
-      <c r="AH10" s="55"/>
-      <c r="AI10" s="55"/>
-      <c r="AJ10" s="55"/>
-      <c r="AK10" s="55"/>
-      <c r="AL10" s="55"/>
-      <c r="AM10" s="55"/>
-      <c r="AN10" s="55"/>
-      <c r="AO10" s="55"/>
-      <c r="AP10" s="55"/>
-      <c r="AQ10" s="55"/>
-      <c r="AR10" s="55"/>
-      <c r="AS10" s="55"/>
-      <c r="AT10" s="56"/>
+        <v>4504</v>
+      </c>
+      <c r="AG10" s="55"/>
+      <c r="AH10" s="56"/>
+      <c r="AI10" s="56"/>
+      <c r="AJ10" s="56"/>
+      <c r="AK10" s="56"/>
+      <c r="AL10" s="56"/>
+      <c r="AM10" s="56"/>
+      <c r="AN10" s="56"/>
+      <c r="AO10" s="56"/>
+      <c r="AP10" s="56"/>
+      <c r="AQ10" s="56"/>
+      <c r="AR10" s="56"/>
+      <c r="AS10" s="56"/>
+      <c r="AT10" s="57"/>
     </row>
   </sheetData>
-  <mergeCells count="31">
+  <mergeCells count="24">
+    <mergeCell ref="A1:AE1"/>
+    <mergeCell ref="N2:N3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="AG2:AT10"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
@@ -7668,27 +7705,6 @@
     <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="A1:AE1"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7697,7 +7713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7705,7 +7721,7 @@
       <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -7721,139 +7737,139 @@
     <col min="16" max="30" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="47"/>
     </row>
-    <row r="2" spans="1:31" ht="31.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="43" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="48" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="43" t="s">
+      <c r="K2" s="48" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="43" t="s">
+      <c r="L2" s="48" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="43" t="s">
+      <c r="M2" s="48" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="43" t="s">
+      <c r="N2" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="43" t="s">
+      <c r="O2" s="48" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="43" t="s">
+      <c r="P2" s="48" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="43" t="s">
+      <c r="Q2" s="48" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="43" t="s">
+      <c r="R2" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="43" t="s">
+      <c r="S2" s="48" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="43" t="s">
+      <c r="T2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="43" t="s">
+      <c r="U2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="43" t="s">
+      <c r="V2" s="48" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="43" t="s">
+      <c r="W2" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="48" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="43" t="s">
+      <c r="Z2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="46" t="s">
+      <c r="AD2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="39" t="s">
+      <c r="AE2" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="75">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
@@ -7863,30 +7879,30 @@
       <c r="I3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="44"/>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="39"/>
-      <c r="Z3" s="44"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="46"/>
-      <c r="AE3" s="39"/>
+      <c r="J3" s="49"/>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
+      <c r="M3" s="49"/>
+      <c r="N3" s="49"/>
+      <c r="O3" s="49"/>
+      <c r="P3" s="49"/>
+      <c r="Q3" s="49"/>
+      <c r="R3" s="49"/>
+      <c r="S3" s="49"/>
+      <c r="T3" s="49"/>
+      <c r="U3" s="49"/>
+      <c r="V3" s="49"/>
+      <c r="W3" s="49"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="42"/>
+      <c r="Z3" s="49"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="58"/>
+      <c r="AE3" s="42"/>
     </row>
-    <row r="4" spans="1:31" ht="35.25" customHeight="1">
+    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7959,7 +7975,7 @@
         <v>570.90909090908826</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="35.25" customHeight="1">
+    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -8032,7 +8048,7 @@
         <v>2843.6363636363621</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="33" customHeight="1">
+    <row r="6" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -8105,7 +8121,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="31.5" customHeight="1">
+    <row r="7" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -8176,7 +8192,7 @@
         <v>0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="30" customHeight="1">
+    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -8249,7 +8265,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="30" customHeight="1">
+    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -8320,7 +8336,7 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" customHeight="1">
+    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -8393,858 +8409,873 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="18" spans="2:49">
-      <c r="B18" s="47"/>
-      <c r="C18" s="47"/>
-      <c r="D18" s="47"/>
-      <c r="E18" s="47"/>
-      <c r="F18" s="47"/>
-      <c r="G18" s="47"/>
-      <c r="H18" s="47"/>
-      <c r="I18" s="47"/>
-      <c r="J18" s="47"/>
-      <c r="K18" s="47"/>
-      <c r="L18" s="47"/>
-      <c r="M18" s="47"/>
-      <c r="N18" s="47"/>
-      <c r="O18" s="47"/>
-      <c r="P18" s="47"/>
-      <c r="Q18" s="47"/>
-      <c r="R18" s="47"/>
-      <c r="S18" s="47"/>
-      <c r="T18" s="47"/>
-      <c r="U18" s="47"/>
-      <c r="V18" s="47"/>
-      <c r="W18" s="47"/>
-      <c r="X18" s="47"/>
-      <c r="Y18" s="47"/>
-      <c r="Z18" s="47"/>
-      <c r="AA18" s="47"/>
-      <c r="AB18" s="47"/>
-      <c r="AC18" s="47"/>
-      <c r="AD18" s="47"/>
-      <c r="AE18" s="47"/>
-      <c r="AF18" s="47"/>
-      <c r="AG18" s="47"/>
-      <c r="AH18" s="47"/>
-      <c r="AI18" s="47"/>
-      <c r="AJ18" s="47"/>
-      <c r="AK18" s="47"/>
-      <c r="AL18" s="47"/>
-      <c r="AM18" s="47"/>
-      <c r="AN18" s="47"/>
-      <c r="AO18" s="47"/>
-      <c r="AP18" s="47"/>
-      <c r="AQ18" s="47"/>
-      <c r="AR18" s="47"/>
-      <c r="AS18" s="47"/>
-      <c r="AT18" s="47"/>
-      <c r="AU18" s="47"/>
-      <c r="AV18" s="47"/>
-      <c r="AW18" s="47"/>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B18" s="59"/>
+      <c r="C18" s="59"/>
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+      <c r="K18" s="59"/>
+      <c r="L18" s="59"/>
+      <c r="M18" s="59"/>
+      <c r="N18" s="59"/>
+      <c r="O18" s="59"/>
+      <c r="P18" s="59"/>
+      <c r="Q18" s="59"/>
+      <c r="R18" s="59"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="59"/>
+      <c r="U18" s="59"/>
+      <c r="V18" s="59"/>
+      <c r="W18" s="59"/>
+      <c r="X18" s="59"/>
+      <c r="Y18" s="59"/>
+      <c r="Z18" s="59"/>
+      <c r="AA18" s="59"/>
+      <c r="AB18" s="59"/>
+      <c r="AC18" s="59"/>
+      <c r="AD18" s="59"/>
+      <c r="AE18" s="59"/>
+      <c r="AF18" s="59"/>
+      <c r="AG18" s="59"/>
+      <c r="AH18" s="59"/>
+      <c r="AI18" s="59"/>
+      <c r="AJ18" s="59"/>
+      <c r="AK18" s="59"/>
+      <c r="AL18" s="59"/>
+      <c r="AM18" s="59"/>
+      <c r="AN18" s="59"/>
+      <c r="AO18" s="59"/>
+      <c r="AP18" s="59"/>
+      <c r="AQ18" s="59"/>
+      <c r="AR18" s="59"/>
+      <c r="AS18" s="59"/>
+      <c r="AT18" s="59"/>
+      <c r="AU18" s="59"/>
+      <c r="AV18" s="59"/>
+      <c r="AW18" s="59"/>
     </row>
-    <row r="19" spans="2:49">
-      <c r="B19" s="47"/>
-      <c r="C19" s="47"/>
-      <c r="D19" s="47"/>
-      <c r="E19" s="47"/>
-      <c r="F19" s="47"/>
-      <c r="G19" s="47"/>
-      <c r="H19" s="47"/>
-      <c r="I19" s="47"/>
-      <c r="J19" s="47"/>
-      <c r="K19" s="47"/>
-      <c r="L19" s="47"/>
-      <c r="M19" s="47"/>
-      <c r="N19" s="47"/>
-      <c r="O19" s="47"/>
-      <c r="P19" s="47"/>
-      <c r="Q19" s="47"/>
-      <c r="R19" s="47"/>
-      <c r="S19" s="47"/>
-      <c r="T19" s="47"/>
-      <c r="U19" s="47"/>
-      <c r="V19" s="47"/>
-      <c r="W19" s="47"/>
-      <c r="X19" s="47"/>
-      <c r="Y19" s="47"/>
-      <c r="Z19" s="47"/>
-      <c r="AA19" s="47"/>
-      <c r="AB19" s="47"/>
-      <c r="AC19" s="47"/>
-      <c r="AD19" s="47"/>
-      <c r="AE19" s="47"/>
-      <c r="AF19" s="47"/>
-      <c r="AG19" s="47"/>
-      <c r="AH19" s="47"/>
-      <c r="AI19" s="47"/>
-      <c r="AJ19" s="47"/>
-      <c r="AK19" s="47"/>
-      <c r="AL19" s="47"/>
-      <c r="AM19" s="47"/>
-      <c r="AN19" s="47"/>
-      <c r="AO19" s="47"/>
-      <c r="AP19" s="47"/>
-      <c r="AQ19" s="47"/>
-      <c r="AR19" s="47"/>
-      <c r="AS19" s="47"/>
-      <c r="AT19" s="47"/>
-      <c r="AU19" s="47"/>
-      <c r="AV19" s="47"/>
-      <c r="AW19" s="47"/>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B19" s="59"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
+      <c r="P19" s="59"/>
+      <c r="Q19" s="59"/>
+      <c r="R19" s="59"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="59"/>
+      <c r="U19" s="59"/>
+      <c r="V19" s="59"/>
+      <c r="W19" s="59"/>
+      <c r="X19" s="59"/>
+      <c r="Y19" s="59"/>
+      <c r="Z19" s="59"/>
+      <c r="AA19" s="59"/>
+      <c r="AB19" s="59"/>
+      <c r="AC19" s="59"/>
+      <c r="AD19" s="59"/>
+      <c r="AE19" s="59"/>
+      <c r="AF19" s="59"/>
+      <c r="AG19" s="59"/>
+      <c r="AH19" s="59"/>
+      <c r="AI19" s="59"/>
+      <c r="AJ19" s="59"/>
+      <c r="AK19" s="59"/>
+      <c r="AL19" s="59"/>
+      <c r="AM19" s="59"/>
+      <c r="AN19" s="59"/>
+      <c r="AO19" s="59"/>
+      <c r="AP19" s="59"/>
+      <c r="AQ19" s="59"/>
+      <c r="AR19" s="59"/>
+      <c r="AS19" s="59"/>
+      <c r="AT19" s="59"/>
+      <c r="AU19" s="59"/>
+      <c r="AV19" s="59"/>
+      <c r="AW19" s="59"/>
     </row>
-    <row r="20" spans="2:49">
-      <c r="B20" s="47"/>
-      <c r="C20" s="47"/>
-      <c r="D20" s="47"/>
-      <c r="E20" s="47"/>
-      <c r="F20" s="47"/>
-      <c r="G20" s="47"/>
-      <c r="H20" s="47"/>
-      <c r="I20" s="47"/>
-      <c r="J20" s="47"/>
-      <c r="K20" s="47"/>
-      <c r="L20" s="47"/>
-      <c r="M20" s="47"/>
-      <c r="N20" s="47"/>
-      <c r="O20" s="47"/>
-      <c r="P20" s="47"/>
-      <c r="Q20" s="47"/>
-      <c r="R20" s="47"/>
-      <c r="S20" s="47"/>
-      <c r="T20" s="47"/>
-      <c r="U20" s="47"/>
-      <c r="V20" s="47"/>
-      <c r="W20" s="47"/>
-      <c r="X20" s="47"/>
-      <c r="Y20" s="47"/>
-      <c r="Z20" s="47"/>
-      <c r="AA20" s="47"/>
-      <c r="AB20" s="47"/>
-      <c r="AC20" s="47"/>
-      <c r="AD20" s="47"/>
-      <c r="AE20" s="47"/>
-      <c r="AF20" s="47"/>
-      <c r="AG20" s="47"/>
-      <c r="AH20" s="47"/>
-      <c r="AI20" s="47"/>
-      <c r="AJ20" s="47"/>
-      <c r="AK20" s="47"/>
-      <c r="AL20" s="47"/>
-      <c r="AM20" s="47"/>
-      <c r="AN20" s="47"/>
-      <c r="AO20" s="47"/>
-      <c r="AP20" s="47"/>
-      <c r="AQ20" s="47"/>
-      <c r="AR20" s="47"/>
-      <c r="AS20" s="47"/>
-      <c r="AT20" s="47"/>
-      <c r="AU20" s="47"/>
-      <c r="AV20" s="47"/>
-      <c r="AW20" s="47"/>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B20" s="59"/>
+      <c r="C20" s="59"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
+      <c r="K20" s="59"/>
+      <c r="L20" s="59"/>
+      <c r="M20" s="59"/>
+      <c r="N20" s="59"/>
+      <c r="O20" s="59"/>
+      <c r="P20" s="59"/>
+      <c r="Q20" s="59"/>
+      <c r="R20" s="59"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="59"/>
+      <c r="U20" s="59"/>
+      <c r="V20" s="59"/>
+      <c r="W20" s="59"/>
+      <c r="X20" s="59"/>
+      <c r="Y20" s="59"/>
+      <c r="Z20" s="59"/>
+      <c r="AA20" s="59"/>
+      <c r="AB20" s="59"/>
+      <c r="AC20" s="59"/>
+      <c r="AD20" s="59"/>
+      <c r="AE20" s="59"/>
+      <c r="AF20" s="59"/>
+      <c r="AG20" s="59"/>
+      <c r="AH20" s="59"/>
+      <c r="AI20" s="59"/>
+      <c r="AJ20" s="59"/>
+      <c r="AK20" s="59"/>
+      <c r="AL20" s="59"/>
+      <c r="AM20" s="59"/>
+      <c r="AN20" s="59"/>
+      <c r="AO20" s="59"/>
+      <c r="AP20" s="59"/>
+      <c r="AQ20" s="59"/>
+      <c r="AR20" s="59"/>
+      <c r="AS20" s="59"/>
+      <c r="AT20" s="59"/>
+      <c r="AU20" s="59"/>
+      <c r="AV20" s="59"/>
+      <c r="AW20" s="59"/>
     </row>
-    <row r="21" spans="2:49">
-      <c r="B21" s="47"/>
-      <c r="C21" s="47"/>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="47"/>
-      <c r="G21" s="47"/>
-      <c r="H21" s="47"/>
-      <c r="I21" s="47"/>
-      <c r="J21" s="47"/>
-      <c r="K21" s="47"/>
-      <c r="L21" s="47"/>
-      <c r="M21" s="47"/>
-      <c r="N21" s="47"/>
-      <c r="O21" s="47"/>
-      <c r="P21" s="47"/>
-      <c r="Q21" s="47"/>
-      <c r="R21" s="47"/>
-      <c r="S21" s="47"/>
-      <c r="T21" s="47"/>
-      <c r="U21" s="47"/>
-      <c r="V21" s="47"/>
-      <c r="W21" s="47"/>
-      <c r="X21" s="47"/>
-      <c r="Y21" s="47"/>
-      <c r="Z21" s="47"/>
-      <c r="AA21" s="47"/>
-      <c r="AB21" s="47"/>
-      <c r="AC21" s="47"/>
-      <c r="AD21" s="47"/>
-      <c r="AE21" s="47"/>
-      <c r="AF21" s="47"/>
-      <c r="AG21" s="47"/>
-      <c r="AH21" s="47"/>
-      <c r="AI21" s="47"/>
-      <c r="AJ21" s="47"/>
-      <c r="AK21" s="47"/>
-      <c r="AL21" s="47"/>
-      <c r="AM21" s="47"/>
-      <c r="AN21" s="47"/>
-      <c r="AO21" s="47"/>
-      <c r="AP21" s="47"/>
-      <c r="AQ21" s="47"/>
-      <c r="AR21" s="47"/>
-      <c r="AS21" s="47"/>
-      <c r="AT21" s="47"/>
-      <c r="AU21" s="47"/>
-      <c r="AV21" s="47"/>
-      <c r="AW21" s="47"/>
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B21" s="59"/>
+      <c r="C21" s="59"/>
+      <c r="D21" s="59"/>
+      <c r="E21" s="59"/>
+      <c r="F21" s="59"/>
+      <c r="G21" s="59"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="59"/>
+      <c r="J21" s="59"/>
+      <c r="K21" s="59"/>
+      <c r="L21" s="59"/>
+      <c r="M21" s="59"/>
+      <c r="N21" s="59"/>
+      <c r="O21" s="59"/>
+      <c r="P21" s="59"/>
+      <c r="Q21" s="59"/>
+      <c r="R21" s="59"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="59"/>
+      <c r="U21" s="59"/>
+      <c r="V21" s="59"/>
+      <c r="W21" s="59"/>
+      <c r="X21" s="59"/>
+      <c r="Y21" s="59"/>
+      <c r="Z21" s="59"/>
+      <c r="AA21" s="59"/>
+      <c r="AB21" s="59"/>
+      <c r="AC21" s="59"/>
+      <c r="AD21" s="59"/>
+      <c r="AE21" s="59"/>
+      <c r="AF21" s="59"/>
+      <c r="AG21" s="59"/>
+      <c r="AH21" s="59"/>
+      <c r="AI21" s="59"/>
+      <c r="AJ21" s="59"/>
+      <c r="AK21" s="59"/>
+      <c r="AL21" s="59"/>
+      <c r="AM21" s="59"/>
+      <c r="AN21" s="59"/>
+      <c r="AO21" s="59"/>
+      <c r="AP21" s="59"/>
+      <c r="AQ21" s="59"/>
+      <c r="AR21" s="59"/>
+      <c r="AS21" s="59"/>
+      <c r="AT21" s="59"/>
+      <c r="AU21" s="59"/>
+      <c r="AV21" s="59"/>
+      <c r="AW21" s="59"/>
     </row>
-    <row r="22" spans="2:49">
-      <c r="B22" s="47"/>
-      <c r="C22" s="47"/>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="47"/>
-      <c r="G22" s="47"/>
-      <c r="H22" s="47"/>
-      <c r="I22" s="47"/>
-      <c r="J22" s="47"/>
-      <c r="K22" s="47"/>
-      <c r="L22" s="47"/>
-      <c r="M22" s="47"/>
-      <c r="N22" s="47"/>
-      <c r="O22" s="47"/>
-      <c r="P22" s="47"/>
-      <c r="Q22" s="47"/>
-      <c r="R22" s="47"/>
-      <c r="S22" s="47"/>
-      <c r="T22" s="47"/>
-      <c r="U22" s="47"/>
-      <c r="V22" s="47"/>
-      <c r="W22" s="47"/>
-      <c r="X22" s="47"/>
-      <c r="Y22" s="47"/>
-      <c r="Z22" s="47"/>
-      <c r="AA22" s="47"/>
-      <c r="AB22" s="47"/>
-      <c r="AC22" s="47"/>
-      <c r="AD22" s="47"/>
-      <c r="AE22" s="47"/>
-      <c r="AF22" s="47"/>
-      <c r="AG22" s="47"/>
-      <c r="AH22" s="47"/>
-      <c r="AI22" s="47"/>
-      <c r="AJ22" s="47"/>
-      <c r="AK22" s="47"/>
-      <c r="AL22" s="47"/>
-      <c r="AM22" s="47"/>
-      <c r="AN22" s="47"/>
-      <c r="AO22" s="47"/>
-      <c r="AP22" s="47"/>
-      <c r="AQ22" s="47"/>
-      <c r="AR22" s="47"/>
-      <c r="AS22" s="47"/>
-      <c r="AT22" s="47"/>
-      <c r="AU22" s="47"/>
-      <c r="AV22" s="47"/>
-      <c r="AW22" s="47"/>
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B22" s="59"/>
+      <c r="C22" s="59"/>
+      <c r="D22" s="59"/>
+      <c r="E22" s="59"/>
+      <c r="F22" s="59"/>
+      <c r="G22" s="59"/>
+      <c r="H22" s="59"/>
+      <c r="I22" s="59"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
+      <c r="P22" s="59"/>
+      <c r="Q22" s="59"/>
+      <c r="R22" s="59"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="59"/>
+      <c r="U22" s="59"/>
+      <c r="V22" s="59"/>
+      <c r="W22" s="59"/>
+      <c r="X22" s="59"/>
+      <c r="Y22" s="59"/>
+      <c r="Z22" s="59"/>
+      <c r="AA22" s="59"/>
+      <c r="AB22" s="59"/>
+      <c r="AC22" s="59"/>
+      <c r="AD22" s="59"/>
+      <c r="AE22" s="59"/>
+      <c r="AF22" s="59"/>
+      <c r="AG22" s="59"/>
+      <c r="AH22" s="59"/>
+      <c r="AI22" s="59"/>
+      <c r="AJ22" s="59"/>
+      <c r="AK22" s="59"/>
+      <c r="AL22" s="59"/>
+      <c r="AM22" s="59"/>
+      <c r="AN22" s="59"/>
+      <c r="AO22" s="59"/>
+      <c r="AP22" s="59"/>
+      <c r="AQ22" s="59"/>
+      <c r="AR22" s="59"/>
+      <c r="AS22" s="59"/>
+      <c r="AT22" s="59"/>
+      <c r="AU22" s="59"/>
+      <c r="AV22" s="59"/>
+      <c r="AW22" s="59"/>
     </row>
-    <row r="23" spans="2:49">
-      <c r="B23" s="47"/>
-      <c r="C23" s="47"/>
-      <c r="D23" s="47"/>
-      <c r="E23" s="47"/>
-      <c r="F23" s="47"/>
-      <c r="G23" s="47"/>
-      <c r="H23" s="47"/>
-      <c r="I23" s="47"/>
-      <c r="J23" s="47"/>
-      <c r="K23" s="47"/>
-      <c r="L23" s="47"/>
-      <c r="M23" s="47"/>
-      <c r="N23" s="47"/>
-      <c r="O23" s="47"/>
-      <c r="P23" s="47"/>
-      <c r="Q23" s="47"/>
-      <c r="R23" s="47"/>
-      <c r="S23" s="47"/>
-      <c r="T23" s="47"/>
-      <c r="U23" s="47"/>
-      <c r="V23" s="47"/>
-      <c r="W23" s="47"/>
-      <c r="X23" s="47"/>
-      <c r="Y23" s="47"/>
-      <c r="Z23" s="47"/>
-      <c r="AA23" s="47"/>
-      <c r="AB23" s="47"/>
-      <c r="AC23" s="47"/>
-      <c r="AD23" s="47"/>
-      <c r="AE23" s="47"/>
-      <c r="AF23" s="47"/>
-      <c r="AG23" s="47"/>
-      <c r="AH23" s="47"/>
-      <c r="AI23" s="47"/>
-      <c r="AJ23" s="47"/>
-      <c r="AK23" s="47"/>
-      <c r="AL23" s="47"/>
-      <c r="AM23" s="47"/>
-      <c r="AN23" s="47"/>
-      <c r="AO23" s="47"/>
-      <c r="AP23" s="47"/>
-      <c r="AQ23" s="47"/>
-      <c r="AR23" s="47"/>
-      <c r="AS23" s="47"/>
-      <c r="AT23" s="47"/>
-      <c r="AU23" s="47"/>
-      <c r="AV23" s="47"/>
-      <c r="AW23" s="47"/>
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B23" s="59"/>
+      <c r="C23" s="59"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
+      <c r="K23" s="59"/>
+      <c r="L23" s="59"/>
+      <c r="M23" s="59"/>
+      <c r="N23" s="59"/>
+      <c r="O23" s="59"/>
+      <c r="P23" s="59"/>
+      <c r="Q23" s="59"/>
+      <c r="R23" s="59"/>
+      <c r="S23" s="59"/>
+      <c r="T23" s="59"/>
+      <c r="U23" s="59"/>
+      <c r="V23" s="59"/>
+      <c r="W23" s="59"/>
+      <c r="X23" s="59"/>
+      <c r="Y23" s="59"/>
+      <c r="Z23" s="59"/>
+      <c r="AA23" s="59"/>
+      <c r="AB23" s="59"/>
+      <c r="AC23" s="59"/>
+      <c r="AD23" s="59"/>
+      <c r="AE23" s="59"/>
+      <c r="AF23" s="59"/>
+      <c r="AG23" s="59"/>
+      <c r="AH23" s="59"/>
+      <c r="AI23" s="59"/>
+      <c r="AJ23" s="59"/>
+      <c r="AK23" s="59"/>
+      <c r="AL23" s="59"/>
+      <c r="AM23" s="59"/>
+      <c r="AN23" s="59"/>
+      <c r="AO23" s="59"/>
+      <c r="AP23" s="59"/>
+      <c r="AQ23" s="59"/>
+      <c r="AR23" s="59"/>
+      <c r="AS23" s="59"/>
+      <c r="AT23" s="59"/>
+      <c r="AU23" s="59"/>
+      <c r="AV23" s="59"/>
+      <c r="AW23" s="59"/>
     </row>
-    <row r="24" spans="2:49">
-      <c r="B24" s="47"/>
-      <c r="C24" s="47"/>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="47"/>
-      <c r="G24" s="47"/>
-      <c r="H24" s="47"/>
-      <c r="I24" s="47"/>
-      <c r="J24" s="47"/>
-      <c r="K24" s="47"/>
-      <c r="L24" s="47"/>
-      <c r="M24" s="47"/>
-      <c r="N24" s="47"/>
-      <c r="O24" s="47"/>
-      <c r="P24" s="47"/>
-      <c r="Q24" s="47"/>
-      <c r="R24" s="47"/>
-      <c r="S24" s="47"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="47"/>
-      <c r="V24" s="47"/>
-      <c r="W24" s="47"/>
-      <c r="X24" s="47"/>
-      <c r="Y24" s="47"/>
-      <c r="Z24" s="47"/>
-      <c r="AA24" s="47"/>
-      <c r="AB24" s="47"/>
-      <c r="AC24" s="47"/>
-      <c r="AD24" s="47"/>
-      <c r="AE24" s="47"/>
-      <c r="AF24" s="47"/>
-      <c r="AG24" s="47"/>
-      <c r="AH24" s="47"/>
-      <c r="AI24" s="47"/>
-      <c r="AJ24" s="47"/>
-      <c r="AK24" s="47"/>
-      <c r="AL24" s="47"/>
-      <c r="AM24" s="47"/>
-      <c r="AN24" s="47"/>
-      <c r="AO24" s="47"/>
-      <c r="AP24" s="47"/>
-      <c r="AQ24" s="47"/>
-      <c r="AR24" s="47"/>
-      <c r="AS24" s="47"/>
-      <c r="AT24" s="47"/>
-      <c r="AU24" s="47"/>
-      <c r="AV24" s="47"/>
-      <c r="AW24" s="47"/>
+    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B24" s="59"/>
+      <c r="C24" s="59"/>
+      <c r="D24" s="59"/>
+      <c r="E24" s="59"/>
+      <c r="F24" s="59"/>
+      <c r="G24" s="59"/>
+      <c r="H24" s="59"/>
+      <c r="I24" s="59"/>
+      <c r="J24" s="59"/>
+      <c r="K24" s="59"/>
+      <c r="L24" s="59"/>
+      <c r="M24" s="59"/>
+      <c r="N24" s="59"/>
+      <c r="O24" s="59"/>
+      <c r="P24" s="59"/>
+      <c r="Q24" s="59"/>
+      <c r="R24" s="59"/>
+      <c r="S24" s="59"/>
+      <c r="T24" s="59"/>
+      <c r="U24" s="59"/>
+      <c r="V24" s="59"/>
+      <c r="W24" s="59"/>
+      <c r="X24" s="59"/>
+      <c r="Y24" s="59"/>
+      <c r="Z24" s="59"/>
+      <c r="AA24" s="59"/>
+      <c r="AB24" s="59"/>
+      <c r="AC24" s="59"/>
+      <c r="AD24" s="59"/>
+      <c r="AE24" s="59"/>
+      <c r="AF24" s="59"/>
+      <c r="AG24" s="59"/>
+      <c r="AH24" s="59"/>
+      <c r="AI24" s="59"/>
+      <c r="AJ24" s="59"/>
+      <c r="AK24" s="59"/>
+      <c r="AL24" s="59"/>
+      <c r="AM24" s="59"/>
+      <c r="AN24" s="59"/>
+      <c r="AO24" s="59"/>
+      <c r="AP24" s="59"/>
+      <c r="AQ24" s="59"/>
+      <c r="AR24" s="59"/>
+      <c r="AS24" s="59"/>
+      <c r="AT24" s="59"/>
+      <c r="AU24" s="59"/>
+      <c r="AV24" s="59"/>
+      <c r="AW24" s="59"/>
     </row>
-    <row r="25" spans="2:49">
-      <c r="B25" s="47"/>
-      <c r="C25" s="47"/>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="47"/>
-      <c r="G25" s="47"/>
-      <c r="H25" s="47"/>
-      <c r="I25" s="47"/>
-      <c r="J25" s="47"/>
-      <c r="K25" s="47"/>
-      <c r="L25" s="47"/>
-      <c r="M25" s="47"/>
-      <c r="N25" s="47"/>
-      <c r="O25" s="47"/>
-      <c r="P25" s="47"/>
-      <c r="Q25" s="47"/>
-      <c r="R25" s="47"/>
-      <c r="S25" s="47"/>
-      <c r="T25" s="47"/>
-      <c r="U25" s="47"/>
-      <c r="V25" s="47"/>
-      <c r="W25" s="47"/>
-      <c r="X25" s="47"/>
-      <c r="Y25" s="47"/>
-      <c r="Z25" s="47"/>
-      <c r="AA25" s="47"/>
-      <c r="AB25" s="47"/>
-      <c r="AC25" s="47"/>
-      <c r="AD25" s="47"/>
-      <c r="AE25" s="47"/>
-      <c r="AF25" s="47"/>
-      <c r="AG25" s="47"/>
-      <c r="AH25" s="47"/>
-      <c r="AI25" s="47"/>
-      <c r="AJ25" s="47"/>
-      <c r="AK25" s="47"/>
-      <c r="AL25" s="47"/>
-      <c r="AM25" s="47"/>
-      <c r="AN25" s="47"/>
-      <c r="AO25" s="47"/>
-      <c r="AP25" s="47"/>
-      <c r="AQ25" s="47"/>
-      <c r="AR25" s="47"/>
-      <c r="AS25" s="47"/>
-      <c r="AT25" s="47"/>
-      <c r="AU25" s="47"/>
-      <c r="AV25" s="47"/>
-      <c r="AW25" s="47"/>
+    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B25" s="59"/>
+      <c r="C25" s="59"/>
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+      <c r="K25" s="59"/>
+      <c r="L25" s="59"/>
+      <c r="M25" s="59"/>
+      <c r="N25" s="59"/>
+      <c r="O25" s="59"/>
+      <c r="P25" s="59"/>
+      <c r="Q25" s="59"/>
+      <c r="R25" s="59"/>
+      <c r="S25" s="59"/>
+      <c r="T25" s="59"/>
+      <c r="U25" s="59"/>
+      <c r="V25" s="59"/>
+      <c r="W25" s="59"/>
+      <c r="X25" s="59"/>
+      <c r="Y25" s="59"/>
+      <c r="Z25" s="59"/>
+      <c r="AA25" s="59"/>
+      <c r="AB25" s="59"/>
+      <c r="AC25" s="59"/>
+      <c r="AD25" s="59"/>
+      <c r="AE25" s="59"/>
+      <c r="AF25" s="59"/>
+      <c r="AG25" s="59"/>
+      <c r="AH25" s="59"/>
+      <c r="AI25" s="59"/>
+      <c r="AJ25" s="59"/>
+      <c r="AK25" s="59"/>
+      <c r="AL25" s="59"/>
+      <c r="AM25" s="59"/>
+      <c r="AN25" s="59"/>
+      <c r="AO25" s="59"/>
+      <c r="AP25" s="59"/>
+      <c r="AQ25" s="59"/>
+      <c r="AR25" s="59"/>
+      <c r="AS25" s="59"/>
+      <c r="AT25" s="59"/>
+      <c r="AU25" s="59"/>
+      <c r="AV25" s="59"/>
+      <c r="AW25" s="59"/>
     </row>
-    <row r="26" spans="2:49">
-      <c r="B26" s="47"/>
-      <c r="C26" s="47"/>
-      <c r="D26" s="47"/>
-      <c r="E26" s="47"/>
-      <c r="F26" s="47"/>
-      <c r="G26" s="47"/>
-      <c r="H26" s="47"/>
-      <c r="I26" s="47"/>
-      <c r="J26" s="47"/>
-      <c r="K26" s="47"/>
-      <c r="L26" s="47"/>
-      <c r="M26" s="47"/>
-      <c r="N26" s="47"/>
-      <c r="O26" s="47"/>
-      <c r="P26" s="47"/>
-      <c r="Q26" s="47"/>
-      <c r="R26" s="47"/>
-      <c r="S26" s="47"/>
-      <c r="T26" s="47"/>
-      <c r="U26" s="47"/>
-      <c r="V26" s="47"/>
-      <c r="W26" s="47"/>
-      <c r="X26" s="47"/>
-      <c r="Y26" s="47"/>
-      <c r="Z26" s="47"/>
-      <c r="AA26" s="47"/>
-      <c r="AB26" s="47"/>
-      <c r="AC26" s="47"/>
-      <c r="AD26" s="47"/>
-      <c r="AE26" s="47"/>
-      <c r="AF26" s="47"/>
-      <c r="AG26" s="47"/>
-      <c r="AH26" s="47"/>
-      <c r="AI26" s="47"/>
-      <c r="AJ26" s="47"/>
-      <c r="AK26" s="47"/>
-      <c r="AL26" s="47"/>
-      <c r="AM26" s="47"/>
-      <c r="AN26" s="47"/>
-      <c r="AO26" s="47"/>
-      <c r="AP26" s="47"/>
-      <c r="AQ26" s="47"/>
-      <c r="AR26" s="47"/>
-      <c r="AS26" s="47"/>
-      <c r="AT26" s="47"/>
-      <c r="AU26" s="47"/>
-      <c r="AV26" s="47"/>
-      <c r="AW26" s="47"/>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B26" s="59"/>
+      <c r="C26" s="59"/>
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+      <c r="K26" s="59"/>
+      <c r="L26" s="59"/>
+      <c r="M26" s="59"/>
+      <c r="N26" s="59"/>
+      <c r="O26" s="59"/>
+      <c r="P26" s="59"/>
+      <c r="Q26" s="59"/>
+      <c r="R26" s="59"/>
+      <c r="S26" s="59"/>
+      <c r="T26" s="59"/>
+      <c r="U26" s="59"/>
+      <c r="V26" s="59"/>
+      <c r="W26" s="59"/>
+      <c r="X26" s="59"/>
+      <c r="Y26" s="59"/>
+      <c r="Z26" s="59"/>
+      <c r="AA26" s="59"/>
+      <c r="AB26" s="59"/>
+      <c r="AC26" s="59"/>
+      <c r="AD26" s="59"/>
+      <c r="AE26" s="59"/>
+      <c r="AF26" s="59"/>
+      <c r="AG26" s="59"/>
+      <c r="AH26" s="59"/>
+      <c r="AI26" s="59"/>
+      <c r="AJ26" s="59"/>
+      <c r="AK26" s="59"/>
+      <c r="AL26" s="59"/>
+      <c r="AM26" s="59"/>
+      <c r="AN26" s="59"/>
+      <c r="AO26" s="59"/>
+      <c r="AP26" s="59"/>
+      <c r="AQ26" s="59"/>
+      <c r="AR26" s="59"/>
+      <c r="AS26" s="59"/>
+      <c r="AT26" s="59"/>
+      <c r="AU26" s="59"/>
+      <c r="AV26" s="59"/>
+      <c r="AW26" s="59"/>
     </row>
-    <row r="27" spans="2:49">
-      <c r="B27" s="47"/>
-      <c r="C27" s="47"/>
-      <c r="D27" s="47"/>
-      <c r="E27" s="47"/>
-      <c r="F27" s="47"/>
-      <c r="G27" s="47"/>
-      <c r="H27" s="47"/>
-      <c r="I27" s="47"/>
-      <c r="J27" s="47"/>
-      <c r="K27" s="47"/>
-      <c r="L27" s="47"/>
-      <c r="M27" s="47"/>
-      <c r="N27" s="47"/>
-      <c r="O27" s="47"/>
-      <c r="P27" s="47"/>
-      <c r="Q27" s="47"/>
-      <c r="R27" s="47"/>
-      <c r="S27" s="47"/>
-      <c r="T27" s="47"/>
-      <c r="U27" s="47"/>
-      <c r="V27" s="47"/>
-      <c r="W27" s="47"/>
-      <c r="X27" s="47"/>
-      <c r="Y27" s="47"/>
-      <c r="Z27" s="47"/>
-      <c r="AA27" s="47"/>
-      <c r="AB27" s="47"/>
-      <c r="AC27" s="47"/>
-      <c r="AD27" s="47"/>
-      <c r="AE27" s="47"/>
-      <c r="AF27" s="47"/>
-      <c r="AG27" s="47"/>
-      <c r="AH27" s="47"/>
-      <c r="AI27" s="47"/>
-      <c r="AJ27" s="47"/>
-      <c r="AK27" s="47"/>
-      <c r="AL27" s="47"/>
-      <c r="AM27" s="47"/>
-      <c r="AN27" s="47"/>
-      <c r="AO27" s="47"/>
-      <c r="AP27" s="47"/>
-      <c r="AQ27" s="47"/>
-      <c r="AR27" s="47"/>
-      <c r="AS27" s="47"/>
-      <c r="AT27" s="47"/>
-      <c r="AU27" s="47"/>
-      <c r="AV27" s="47"/>
-      <c r="AW27" s="47"/>
+    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B27" s="59"/>
+      <c r="C27" s="59"/>
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+      <c r="K27" s="59"/>
+      <c r="L27" s="59"/>
+      <c r="M27" s="59"/>
+      <c r="N27" s="59"/>
+      <c r="O27" s="59"/>
+      <c r="P27" s="59"/>
+      <c r="Q27" s="59"/>
+      <c r="R27" s="59"/>
+      <c r="S27" s="59"/>
+      <c r="T27" s="59"/>
+      <c r="U27" s="59"/>
+      <c r="V27" s="59"/>
+      <c r="W27" s="59"/>
+      <c r="X27" s="59"/>
+      <c r="Y27" s="59"/>
+      <c r="Z27" s="59"/>
+      <c r="AA27" s="59"/>
+      <c r="AB27" s="59"/>
+      <c r="AC27" s="59"/>
+      <c r="AD27" s="59"/>
+      <c r="AE27" s="59"/>
+      <c r="AF27" s="59"/>
+      <c r="AG27" s="59"/>
+      <c r="AH27" s="59"/>
+      <c r="AI27" s="59"/>
+      <c r="AJ27" s="59"/>
+      <c r="AK27" s="59"/>
+      <c r="AL27" s="59"/>
+      <c r="AM27" s="59"/>
+      <c r="AN27" s="59"/>
+      <c r="AO27" s="59"/>
+      <c r="AP27" s="59"/>
+      <c r="AQ27" s="59"/>
+      <c r="AR27" s="59"/>
+      <c r="AS27" s="59"/>
+      <c r="AT27" s="59"/>
+      <c r="AU27" s="59"/>
+      <c r="AV27" s="59"/>
+      <c r="AW27" s="59"/>
     </row>
-    <row r="28" spans="2:49">
-      <c r="B28" s="47"/>
-      <c r="C28" s="47"/>
-      <c r="D28" s="47"/>
-      <c r="E28" s="47"/>
-      <c r="F28" s="47"/>
-      <c r="G28" s="47"/>
-      <c r="H28" s="47"/>
-      <c r="I28" s="47"/>
-      <c r="J28" s="47"/>
-      <c r="K28" s="47"/>
-      <c r="L28" s="47"/>
-      <c r="M28" s="47"/>
-      <c r="N28" s="47"/>
-      <c r="O28" s="47"/>
-      <c r="P28" s="47"/>
-      <c r="Q28" s="47"/>
-      <c r="R28" s="47"/>
-      <c r="S28" s="47"/>
-      <c r="T28" s="47"/>
-      <c r="U28" s="47"/>
-      <c r="V28" s="47"/>
-      <c r="W28" s="47"/>
-      <c r="X28" s="47"/>
-      <c r="Y28" s="47"/>
-      <c r="Z28" s="47"/>
-      <c r="AA28" s="47"/>
-      <c r="AB28" s="47"/>
-      <c r="AC28" s="47"/>
-      <c r="AD28" s="47"/>
-      <c r="AE28" s="47"/>
-      <c r="AF28" s="47"/>
-      <c r="AG28" s="47"/>
-      <c r="AH28" s="47"/>
-      <c r="AI28" s="47"/>
-      <c r="AJ28" s="47"/>
-      <c r="AK28" s="47"/>
-      <c r="AL28" s="47"/>
-      <c r="AM28" s="47"/>
-      <c r="AN28" s="47"/>
-      <c r="AO28" s="47"/>
-      <c r="AP28" s="47"/>
-      <c r="AQ28" s="47"/>
-      <c r="AR28" s="47"/>
-      <c r="AS28" s="47"/>
-      <c r="AT28" s="47"/>
-      <c r="AU28" s="47"/>
-      <c r="AV28" s="47"/>
-      <c r="AW28" s="47"/>
+    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B28" s="59"/>
+      <c r="C28" s="59"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
+      <c r="K28" s="59"/>
+      <c r="L28" s="59"/>
+      <c r="M28" s="59"/>
+      <c r="N28" s="59"/>
+      <c r="O28" s="59"/>
+      <c r="P28" s="59"/>
+      <c r="Q28" s="59"/>
+      <c r="R28" s="59"/>
+      <c r="S28" s="59"/>
+      <c r="T28" s="59"/>
+      <c r="U28" s="59"/>
+      <c r="V28" s="59"/>
+      <c r="W28" s="59"/>
+      <c r="X28" s="59"/>
+      <c r="Y28" s="59"/>
+      <c r="Z28" s="59"/>
+      <c r="AA28" s="59"/>
+      <c r="AB28" s="59"/>
+      <c r="AC28" s="59"/>
+      <c r="AD28" s="59"/>
+      <c r="AE28" s="59"/>
+      <c r="AF28" s="59"/>
+      <c r="AG28" s="59"/>
+      <c r="AH28" s="59"/>
+      <c r="AI28" s="59"/>
+      <c r="AJ28" s="59"/>
+      <c r="AK28" s="59"/>
+      <c r="AL28" s="59"/>
+      <c r="AM28" s="59"/>
+      <c r="AN28" s="59"/>
+      <c r="AO28" s="59"/>
+      <c r="AP28" s="59"/>
+      <c r="AQ28" s="59"/>
+      <c r="AR28" s="59"/>
+      <c r="AS28" s="59"/>
+      <c r="AT28" s="59"/>
+      <c r="AU28" s="59"/>
+      <c r="AV28" s="59"/>
+      <c r="AW28" s="59"/>
     </row>
-    <row r="29" spans="2:49">
-      <c r="B29" s="47"/>
-      <c r="C29" s="47"/>
-      <c r="D29" s="47"/>
-      <c r="E29" s="47"/>
-      <c r="F29" s="47"/>
-      <c r="G29" s="47"/>
-      <c r="H29" s="47"/>
-      <c r="I29" s="47"/>
-      <c r="J29" s="47"/>
-      <c r="K29" s="47"/>
-      <c r="L29" s="47"/>
-      <c r="M29" s="47"/>
-      <c r="N29" s="47"/>
-      <c r="O29" s="47"/>
-      <c r="P29" s="47"/>
-      <c r="Q29" s="47"/>
-      <c r="R29" s="47"/>
-      <c r="S29" s="47"/>
-      <c r="T29" s="47"/>
-      <c r="U29" s="47"/>
-      <c r="V29" s="47"/>
-      <c r="W29" s="47"/>
-      <c r="X29" s="47"/>
-      <c r="Y29" s="47"/>
-      <c r="Z29" s="47"/>
-      <c r="AA29" s="47"/>
-      <c r="AB29" s="47"/>
-      <c r="AC29" s="47"/>
-      <c r="AD29" s="47"/>
-      <c r="AE29" s="47"/>
-      <c r="AF29" s="47"/>
-      <c r="AG29" s="47"/>
-      <c r="AH29" s="47"/>
-      <c r="AI29" s="47"/>
-      <c r="AJ29" s="47"/>
-      <c r="AK29" s="47"/>
-      <c r="AL29" s="47"/>
-      <c r="AM29" s="47"/>
-      <c r="AN29" s="47"/>
-      <c r="AO29" s="47"/>
-      <c r="AP29" s="47"/>
-      <c r="AQ29" s="47"/>
-      <c r="AR29" s="47"/>
-      <c r="AS29" s="47"/>
-      <c r="AT29" s="47"/>
-      <c r="AU29" s="47"/>
-      <c r="AV29" s="47"/>
-      <c r="AW29" s="47"/>
+    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B29" s="59"/>
+      <c r="C29" s="59"/>
+      <c r="D29" s="59"/>
+      <c r="E29" s="59"/>
+      <c r="F29" s="59"/>
+      <c r="G29" s="59"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
+      <c r="J29" s="59"/>
+      <c r="K29" s="59"/>
+      <c r="L29" s="59"/>
+      <c r="M29" s="59"/>
+      <c r="N29" s="59"/>
+      <c r="O29" s="59"/>
+      <c r="P29" s="59"/>
+      <c r="Q29" s="59"/>
+      <c r="R29" s="59"/>
+      <c r="S29" s="59"/>
+      <c r="T29" s="59"/>
+      <c r="U29" s="59"/>
+      <c r="V29" s="59"/>
+      <c r="W29" s="59"/>
+      <c r="X29" s="59"/>
+      <c r="Y29" s="59"/>
+      <c r="Z29" s="59"/>
+      <c r="AA29" s="59"/>
+      <c r="AB29" s="59"/>
+      <c r="AC29" s="59"/>
+      <c r="AD29" s="59"/>
+      <c r="AE29" s="59"/>
+      <c r="AF29" s="59"/>
+      <c r="AG29" s="59"/>
+      <c r="AH29" s="59"/>
+      <c r="AI29" s="59"/>
+      <c r="AJ29" s="59"/>
+      <c r="AK29" s="59"/>
+      <c r="AL29" s="59"/>
+      <c r="AM29" s="59"/>
+      <c r="AN29" s="59"/>
+      <c r="AO29" s="59"/>
+      <c r="AP29" s="59"/>
+      <c r="AQ29" s="59"/>
+      <c r="AR29" s="59"/>
+      <c r="AS29" s="59"/>
+      <c r="AT29" s="59"/>
+      <c r="AU29" s="59"/>
+      <c r="AV29" s="59"/>
+      <c r="AW29" s="59"/>
     </row>
-    <row r="30" spans="2:49">
-      <c r="B30" s="47"/>
-      <c r="C30" s="47"/>
-      <c r="D30" s="47"/>
-      <c r="E30" s="47"/>
-      <c r="F30" s="47"/>
-      <c r="G30" s="47"/>
-      <c r="H30" s="47"/>
-      <c r="I30" s="47"/>
-      <c r="J30" s="47"/>
-      <c r="K30" s="47"/>
-      <c r="L30" s="47"/>
-      <c r="M30" s="47"/>
-      <c r="N30" s="47"/>
-      <c r="O30" s="47"/>
-      <c r="P30" s="47"/>
-      <c r="Q30" s="47"/>
-      <c r="R30" s="47"/>
-      <c r="S30" s="47"/>
-      <c r="T30" s="47"/>
-      <c r="U30" s="47"/>
-      <c r="V30" s="47"/>
-      <c r="W30" s="47"/>
-      <c r="X30" s="47"/>
-      <c r="Y30" s="47"/>
-      <c r="Z30" s="47"/>
-      <c r="AA30" s="47"/>
-      <c r="AB30" s="47"/>
-      <c r="AC30" s="47"/>
-      <c r="AD30" s="47"/>
-      <c r="AE30" s="47"/>
-      <c r="AF30" s="47"/>
-      <c r="AG30" s="47"/>
-      <c r="AH30" s="47"/>
-      <c r="AI30" s="47"/>
-      <c r="AJ30" s="47"/>
-      <c r="AK30" s="47"/>
-      <c r="AL30" s="47"/>
-      <c r="AM30" s="47"/>
-      <c r="AN30" s="47"/>
-      <c r="AO30" s="47"/>
-      <c r="AP30" s="47"/>
-      <c r="AQ30" s="47"/>
-      <c r="AR30" s="47"/>
-      <c r="AS30" s="47"/>
-      <c r="AT30" s="47"/>
-      <c r="AU30" s="47"/>
-      <c r="AV30" s="47"/>
-      <c r="AW30" s="47"/>
+    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B30" s="59"/>
+      <c r="C30" s="59"/>
+      <c r="D30" s="59"/>
+      <c r="E30" s="59"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="59"/>
+      <c r="H30" s="59"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="59"/>
+      <c r="K30" s="59"/>
+      <c r="L30" s="59"/>
+      <c r="M30" s="59"/>
+      <c r="N30" s="59"/>
+      <c r="O30" s="59"/>
+      <c r="P30" s="59"/>
+      <c r="Q30" s="59"/>
+      <c r="R30" s="59"/>
+      <c r="S30" s="59"/>
+      <c r="T30" s="59"/>
+      <c r="U30" s="59"/>
+      <c r="V30" s="59"/>
+      <c r="W30" s="59"/>
+      <c r="X30" s="59"/>
+      <c r="Y30" s="59"/>
+      <c r="Z30" s="59"/>
+      <c r="AA30" s="59"/>
+      <c r="AB30" s="59"/>
+      <c r="AC30" s="59"/>
+      <c r="AD30" s="59"/>
+      <c r="AE30" s="59"/>
+      <c r="AF30" s="59"/>
+      <c r="AG30" s="59"/>
+      <c r="AH30" s="59"/>
+      <c r="AI30" s="59"/>
+      <c r="AJ30" s="59"/>
+      <c r="AK30" s="59"/>
+      <c r="AL30" s="59"/>
+      <c r="AM30" s="59"/>
+      <c r="AN30" s="59"/>
+      <c r="AO30" s="59"/>
+      <c r="AP30" s="59"/>
+      <c r="AQ30" s="59"/>
+      <c r="AR30" s="59"/>
+      <c r="AS30" s="59"/>
+      <c r="AT30" s="59"/>
+      <c r="AU30" s="59"/>
+      <c r="AV30" s="59"/>
+      <c r="AW30" s="59"/>
     </row>
-    <row r="31" spans="2:49">
-      <c r="B31" s="47"/>
-      <c r="C31" s="47"/>
-      <c r="D31" s="47"/>
-      <c r="E31" s="47"/>
-      <c r="F31" s="47"/>
-      <c r="G31" s="47"/>
-      <c r="H31" s="47"/>
-      <c r="I31" s="47"/>
-      <c r="J31" s="47"/>
-      <c r="K31" s="47"/>
-      <c r="L31" s="47"/>
-      <c r="M31" s="47"/>
-      <c r="N31" s="47"/>
-      <c r="O31" s="47"/>
-      <c r="P31" s="47"/>
-      <c r="Q31" s="47"/>
-      <c r="R31" s="47"/>
-      <c r="S31" s="47"/>
-      <c r="T31" s="47"/>
-      <c r="U31" s="47"/>
-      <c r="V31" s="47"/>
-      <c r="W31" s="47"/>
-      <c r="X31" s="47"/>
-      <c r="Y31" s="47"/>
-      <c r="Z31" s="47"/>
-      <c r="AA31" s="47"/>
-      <c r="AB31" s="47"/>
-      <c r="AC31" s="47"/>
-      <c r="AD31" s="47"/>
-      <c r="AE31" s="47"/>
-      <c r="AF31" s="47"/>
-      <c r="AG31" s="47"/>
-      <c r="AH31" s="47"/>
-      <c r="AI31" s="47"/>
-      <c r="AJ31" s="47"/>
-      <c r="AK31" s="47"/>
-      <c r="AL31" s="47"/>
-      <c r="AM31" s="47"/>
-      <c r="AN31" s="47"/>
-      <c r="AO31" s="47"/>
-      <c r="AP31" s="47"/>
-      <c r="AQ31" s="47"/>
-      <c r="AR31" s="47"/>
-      <c r="AS31" s="47"/>
-      <c r="AT31" s="47"/>
-      <c r="AU31" s="47"/>
-      <c r="AV31" s="47"/>
-      <c r="AW31" s="47"/>
+    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B31" s="59"/>
+      <c r="C31" s="59"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="59"/>
+      <c r="K31" s="59"/>
+      <c r="L31" s="59"/>
+      <c r="M31" s="59"/>
+      <c r="N31" s="59"/>
+      <c r="O31" s="59"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+      <c r="S31" s="59"/>
+      <c r="T31" s="59"/>
+      <c r="U31" s="59"/>
+      <c r="V31" s="59"/>
+      <c r="W31" s="59"/>
+      <c r="X31" s="59"/>
+      <c r="Y31" s="59"/>
+      <c r="Z31" s="59"/>
+      <c r="AA31" s="59"/>
+      <c r="AB31" s="59"/>
+      <c r="AC31" s="59"/>
+      <c r="AD31" s="59"/>
+      <c r="AE31" s="59"/>
+      <c r="AF31" s="59"/>
+      <c r="AG31" s="59"/>
+      <c r="AH31" s="59"/>
+      <c r="AI31" s="59"/>
+      <c r="AJ31" s="59"/>
+      <c r="AK31" s="59"/>
+      <c r="AL31" s="59"/>
+      <c r="AM31" s="59"/>
+      <c r="AN31" s="59"/>
+      <c r="AO31" s="59"/>
+      <c r="AP31" s="59"/>
+      <c r="AQ31" s="59"/>
+      <c r="AR31" s="59"/>
+      <c r="AS31" s="59"/>
+      <c r="AT31" s="59"/>
+      <c r="AU31" s="59"/>
+      <c r="AV31" s="59"/>
+      <c r="AW31" s="59"/>
     </row>
-    <row r="32" spans="2:49">
-      <c r="B32" s="47"/>
-      <c r="C32" s="47"/>
-      <c r="D32" s="47"/>
-      <c r="E32" s="47"/>
-      <c r="F32" s="47"/>
-      <c r="G32" s="47"/>
-      <c r="H32" s="47"/>
-      <c r="I32" s="47"/>
-      <c r="J32" s="47"/>
-      <c r="K32" s="47"/>
-      <c r="L32" s="47"/>
-      <c r="M32" s="47"/>
-      <c r="N32" s="47"/>
-      <c r="O32" s="47"/>
-      <c r="P32" s="47"/>
-      <c r="Q32" s="47"/>
-      <c r="R32" s="47"/>
-      <c r="S32" s="47"/>
-      <c r="T32" s="47"/>
-      <c r="U32" s="47"/>
-      <c r="V32" s="47"/>
-      <c r="W32" s="47"/>
-      <c r="X32" s="47"/>
-      <c r="Y32" s="47"/>
-      <c r="Z32" s="47"/>
-      <c r="AA32" s="47"/>
-      <c r="AB32" s="47"/>
-      <c r="AC32" s="47"/>
-      <c r="AD32" s="47"/>
-      <c r="AE32" s="47"/>
-      <c r="AF32" s="47"/>
-      <c r="AG32" s="47"/>
-      <c r="AH32" s="47"/>
-      <c r="AI32" s="47"/>
-      <c r="AJ32" s="47"/>
-      <c r="AK32" s="47"/>
-      <c r="AL32" s="47"/>
-      <c r="AM32" s="47"/>
-      <c r="AN32" s="47"/>
-      <c r="AO32" s="47"/>
-      <c r="AP32" s="47"/>
-      <c r="AQ32" s="47"/>
-      <c r="AR32" s="47"/>
-      <c r="AS32" s="47"/>
-      <c r="AT32" s="47"/>
-      <c r="AU32" s="47"/>
-      <c r="AV32" s="47"/>
-      <c r="AW32" s="47"/>
+    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B32" s="59"/>
+      <c r="C32" s="59"/>
+      <c r="D32" s="59"/>
+      <c r="E32" s="59"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="59"/>
+      <c r="K32" s="59"/>
+      <c r="L32" s="59"/>
+      <c r="M32" s="59"/>
+      <c r="N32" s="59"/>
+      <c r="O32" s="59"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+      <c r="S32" s="59"/>
+      <c r="T32" s="59"/>
+      <c r="U32" s="59"/>
+      <c r="V32" s="59"/>
+      <c r="W32" s="59"/>
+      <c r="X32" s="59"/>
+      <c r="Y32" s="59"/>
+      <c r="Z32" s="59"/>
+      <c r="AA32" s="59"/>
+      <c r="AB32" s="59"/>
+      <c r="AC32" s="59"/>
+      <c r="AD32" s="59"/>
+      <c r="AE32" s="59"/>
+      <c r="AF32" s="59"/>
+      <c r="AG32" s="59"/>
+      <c r="AH32" s="59"/>
+      <c r="AI32" s="59"/>
+      <c r="AJ32" s="59"/>
+      <c r="AK32" s="59"/>
+      <c r="AL32" s="59"/>
+      <c r="AM32" s="59"/>
+      <c r="AN32" s="59"/>
+      <c r="AO32" s="59"/>
+      <c r="AP32" s="59"/>
+      <c r="AQ32" s="59"/>
+      <c r="AR32" s="59"/>
+      <c r="AS32" s="59"/>
+      <c r="AT32" s="59"/>
+      <c r="AU32" s="59"/>
+      <c r="AV32" s="59"/>
+      <c r="AW32" s="59"/>
     </row>
-    <row r="33" spans="2:49">
-      <c r="B33" s="47"/>
-      <c r="C33" s="47"/>
-      <c r="D33" s="47"/>
-      <c r="E33" s="47"/>
-      <c r="F33" s="47"/>
-      <c r="G33" s="47"/>
-      <c r="H33" s="47"/>
-      <c r="I33" s="47"/>
-      <c r="J33" s="47"/>
-      <c r="K33" s="47"/>
-      <c r="L33" s="47"/>
-      <c r="M33" s="47"/>
-      <c r="N33" s="47"/>
-      <c r="O33" s="47"/>
-      <c r="P33" s="47"/>
-      <c r="Q33" s="47"/>
-      <c r="R33" s="47"/>
-      <c r="S33" s="47"/>
-      <c r="T33" s="47"/>
-      <c r="U33" s="47"/>
-      <c r="V33" s="47"/>
-      <c r="W33" s="47"/>
-      <c r="X33" s="47"/>
-      <c r="Y33" s="47"/>
-      <c r="Z33" s="47"/>
-      <c r="AA33" s="47"/>
-      <c r="AB33" s="47"/>
-      <c r="AC33" s="47"/>
-      <c r="AD33" s="47"/>
-      <c r="AE33" s="47"/>
-      <c r="AF33" s="47"/>
-      <c r="AG33" s="47"/>
-      <c r="AH33" s="47"/>
-      <c r="AI33" s="47"/>
-      <c r="AJ33" s="47"/>
-      <c r="AK33" s="47"/>
-      <c r="AL33" s="47"/>
-      <c r="AM33" s="47"/>
-      <c r="AN33" s="47"/>
-      <c r="AO33" s="47"/>
-      <c r="AP33" s="47"/>
-      <c r="AQ33" s="47"/>
-      <c r="AR33" s="47"/>
-      <c r="AS33" s="47"/>
-      <c r="AT33" s="47"/>
-      <c r="AU33" s="47"/>
-      <c r="AV33" s="47"/>
-      <c r="AW33" s="47"/>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B33" s="59"/>
+      <c r="C33" s="59"/>
+      <c r="D33" s="59"/>
+      <c r="E33" s="59"/>
+      <c r="F33" s="59"/>
+      <c r="G33" s="59"/>
+      <c r="H33" s="59"/>
+      <c r="I33" s="59"/>
+      <c r="J33" s="59"/>
+      <c r="K33" s="59"/>
+      <c r="L33" s="59"/>
+      <c r="M33" s="59"/>
+      <c r="N33" s="59"/>
+      <c r="O33" s="59"/>
+      <c r="P33" s="59"/>
+      <c r="Q33" s="59"/>
+      <c r="R33" s="59"/>
+      <c r="S33" s="59"/>
+      <c r="T33" s="59"/>
+      <c r="U33" s="59"/>
+      <c r="V33" s="59"/>
+      <c r="W33" s="59"/>
+      <c r="X33" s="59"/>
+      <c r="Y33" s="59"/>
+      <c r="Z33" s="59"/>
+      <c r="AA33" s="59"/>
+      <c r="AB33" s="59"/>
+      <c r="AC33" s="59"/>
+      <c r="AD33" s="59"/>
+      <c r="AE33" s="59"/>
+      <c r="AF33" s="59"/>
+      <c r="AG33" s="59"/>
+      <c r="AH33" s="59"/>
+      <c r="AI33" s="59"/>
+      <c r="AJ33" s="59"/>
+      <c r="AK33" s="59"/>
+      <c r="AL33" s="59"/>
+      <c r="AM33" s="59"/>
+      <c r="AN33" s="59"/>
+      <c r="AO33" s="59"/>
+      <c r="AP33" s="59"/>
+      <c r="AQ33" s="59"/>
+      <c r="AR33" s="59"/>
+      <c r="AS33" s="59"/>
+      <c r="AT33" s="59"/>
+      <c r="AU33" s="59"/>
+      <c r="AV33" s="59"/>
+      <c r="AW33" s="59"/>
     </row>
-    <row r="34" spans="2:49">
-      <c r="B34" s="47"/>
-      <c r="C34" s="47"/>
-      <c r="D34" s="47"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="47"/>
-      <c r="G34" s="47"/>
-      <c r="H34" s="47"/>
-      <c r="I34" s="47"/>
-      <c r="J34" s="47"/>
-      <c r="K34" s="47"/>
-      <c r="L34" s="47"/>
-      <c r="M34" s="47"/>
-      <c r="N34" s="47"/>
-      <c r="O34" s="47"/>
-      <c r="P34" s="47"/>
-      <c r="Q34" s="47"/>
-      <c r="R34" s="47"/>
-      <c r="S34" s="47"/>
-      <c r="T34" s="47"/>
-      <c r="U34" s="47"/>
-      <c r="V34" s="47"/>
-      <c r="W34" s="47"/>
-      <c r="X34" s="47"/>
-      <c r="Y34" s="47"/>
-      <c r="Z34" s="47"/>
-      <c r="AA34" s="47"/>
-      <c r="AB34" s="47"/>
-      <c r="AC34" s="47"/>
-      <c r="AD34" s="47"/>
-      <c r="AE34" s="47"/>
-      <c r="AF34" s="47"/>
-      <c r="AG34" s="47"/>
-      <c r="AH34" s="47"/>
-      <c r="AI34" s="47"/>
-      <c r="AJ34" s="47"/>
-      <c r="AK34" s="47"/>
-      <c r="AL34" s="47"/>
-      <c r="AM34" s="47"/>
-      <c r="AN34" s="47"/>
-      <c r="AO34" s="47"/>
-      <c r="AP34" s="47"/>
-      <c r="AQ34" s="47"/>
-      <c r="AR34" s="47"/>
-      <c r="AS34" s="47"/>
-      <c r="AT34" s="47"/>
-      <c r="AU34" s="47"/>
-      <c r="AV34" s="47"/>
-      <c r="AW34" s="47"/>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B34" s="59"/>
+      <c r="C34" s="59"/>
+      <c r="D34" s="59"/>
+      <c r="E34" s="59"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="59"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="59"/>
+      <c r="M34" s="59"/>
+      <c r="N34" s="59"/>
+      <c r="O34" s="59"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+      <c r="S34" s="59"/>
+      <c r="T34" s="59"/>
+      <c r="U34" s="59"/>
+      <c r="V34" s="59"/>
+      <c r="W34" s="59"/>
+      <c r="X34" s="59"/>
+      <c r="Y34" s="59"/>
+      <c r="Z34" s="59"/>
+      <c r="AA34" s="59"/>
+      <c r="AB34" s="59"/>
+      <c r="AC34" s="59"/>
+      <c r="AD34" s="59"/>
+      <c r="AE34" s="59"/>
+      <c r="AF34" s="59"/>
+      <c r="AG34" s="59"/>
+      <c r="AH34" s="59"/>
+      <c r="AI34" s="59"/>
+      <c r="AJ34" s="59"/>
+      <c r="AK34" s="59"/>
+      <c r="AL34" s="59"/>
+      <c r="AM34" s="59"/>
+      <c r="AN34" s="59"/>
+      <c r="AO34" s="59"/>
+      <c r="AP34" s="59"/>
+      <c r="AQ34" s="59"/>
+      <c r="AR34" s="59"/>
+      <c r="AS34" s="59"/>
+      <c r="AT34" s="59"/>
+      <c r="AU34" s="59"/>
+      <c r="AV34" s="59"/>
+      <c r="AW34" s="59"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="B18:AW34"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
@@ -9261,21 +9292,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9284,7 +9300,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9292,7 +9308,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -9306,159 +9322,159 @@
     <col min="16" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" customHeight="1">
-      <c r="A1" s="37" t="s">
+    <row r="1" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="43" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
-      <c r="H1" s="38"/>
-      <c r="I1" s="38"/>
-      <c r="J1" s="38"/>
-      <c r="K1" s="38"/>
-      <c r="L1" s="38"/>
-      <c r="M1" s="38"/>
-      <c r="N1" s="38"/>
-      <c r="O1" s="38"/>
-      <c r="P1" s="38"/>
-      <c r="Q1" s="38"/>
-      <c r="R1" s="38"/>
-      <c r="S1" s="38"/>
-      <c r="T1" s="38"/>
-      <c r="U1" s="38"/>
-      <c r="V1" s="38"/>
-      <c r="W1" s="38"/>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="38"/>
-      <c r="AB1" s="38"/>
-      <c r="AC1" s="38"/>
-      <c r="AD1" s="38"/>
-      <c r="AE1" s="38"/>
-      <c r="AF1" s="38"/>
-      <c r="AG1" s="38"/>
-      <c r="AH1" s="38"/>
-      <c r="AI1" s="38"/>
-      <c r="AJ1" s="42"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="44"/>
+      <c r="H1" s="44"/>
+      <c r="I1" s="44"/>
+      <c r="J1" s="44"/>
+      <c r="K1" s="44"/>
+      <c r="L1" s="44"/>
+      <c r="M1" s="44"/>
+      <c r="N1" s="44"/>
+      <c r="O1" s="44"/>
+      <c r="P1" s="44"/>
+      <c r="Q1" s="44"/>
+      <c r="R1" s="44"/>
+      <c r="S1" s="44"/>
+      <c r="T1" s="44"/>
+      <c r="U1" s="44"/>
+      <c r="V1" s="44"/>
+      <c r="W1" s="44"/>
+      <c r="X1" s="44"/>
+      <c r="Y1" s="44"/>
+      <c r="Z1" s="44"/>
+      <c r="AA1" s="44"/>
+      <c r="AB1" s="44"/>
+      <c r="AC1" s="44"/>
+      <c r="AD1" s="44"/>
+      <c r="AE1" s="44"/>
+      <c r="AF1" s="44"/>
+      <c r="AG1" s="44"/>
+      <c r="AH1" s="44"/>
+      <c r="AI1" s="44"/>
+      <c r="AJ1" s="47"/>
     </row>
-    <row r="2" spans="1:36" ht="31.5" customHeight="1">
-      <c r="A2" s="40" t="s">
+    <row r="2" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="45" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="45" t="s">
+      <c r="B2" s="41" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="45" t="s">
+      <c r="C2" s="41" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="45" t="s">
+      <c r="D2" s="41" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="45" t="s">
+      <c r="E2" s="41" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="45" t="s">
+      <c r="F2" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="37" t="s">
+      <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="38"/>
-      <c r="I2" s="42"/>
-      <c r="J2" s="39" t="s">
+      <c r="H2" s="44"/>
+      <c r="I2" s="47"/>
+      <c r="J2" s="42" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="39" t="s">
+      <c r="K2" s="42" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="39" t="s">
+      <c r="L2" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="39" t="s">
+      <c r="M2" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="39" t="s">
+      <c r="N2" s="42" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="39" t="s">
+      <c r="O2" s="42" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="39" t="s">
+      <c r="P2" s="42" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="39" t="s">
+      <c r="Q2" s="42" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="42" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="39" t="s">
+      <c r="S2" s="42" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="39" t="s">
+      <c r="T2" s="42" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="39" t="s">
+      <c r="U2" s="42" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="39" t="s">
+      <c r="V2" s="42" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="39" t="s">
+      <c r="W2" s="42" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="43" t="s">
+      <c r="X2" s="48" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="43" t="s">
+      <c r="Y2" s="48" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="42" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="39" t="s">
+      <c r="AA2" s="42" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="39" t="s">
+      <c r="AB2" s="42" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="39" t="s">
+      <c r="AC2" s="42" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="43" t="s">
+      <c r="AD2" s="48" t="s">
         <v>79</v>
       </c>
-      <c r="AE2" s="43" t="s">
+      <c r="AE2" s="48" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="39" t="s">
+      <c r="AF2" s="42" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="39" t="s">
+      <c r="AG2" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="39" t="s">
+      <c r="AH2" s="42" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="46" t="s">
+      <c r="AI2" s="58" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="39" t="s">
+      <c r="AJ2" s="42" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="75">
-      <c r="A3" s="41"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
-      <c r="E3" s="45"/>
-      <c r="F3" s="45"/>
+    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="46"/>
+      <c r="B3" s="41"/>
+      <c r="C3" s="41"/>
+      <c r="D3" s="41"/>
+      <c r="E3" s="41"/>
+      <c r="F3" s="41"/>
       <c r="G3" s="16" t="s">
         <v>36</v>
       </c>
@@ -9468,35 +9484,35 @@
       <c r="I3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="39"/>
-      <c r="K3" s="39"/>
-      <c r="L3" s="39"/>
-      <c r="M3" s="39"/>
-      <c r="N3" s="39"/>
-      <c r="O3" s="39"/>
-      <c r="P3" s="39"/>
-      <c r="Q3" s="39"/>
-      <c r="R3" s="39"/>
-      <c r="S3" s="39"/>
-      <c r="T3" s="39"/>
-      <c r="U3" s="39"/>
-      <c r="V3" s="39"/>
-      <c r="W3" s="39"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="44"/>
-      <c r="Z3" s="39"/>
-      <c r="AA3" s="39"/>
-      <c r="AB3" s="39"/>
-      <c r="AC3" s="39"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="39"/>
-      <c r="AG3" s="39"/>
-      <c r="AH3" s="39"/>
-      <c r="AI3" s="46"/>
-      <c r="AJ3" s="39"/>
+      <c r="J3" s="42"/>
+      <c r="K3" s="42"/>
+      <c r="L3" s="42"/>
+      <c r="M3" s="42"/>
+      <c r="N3" s="42"/>
+      <c r="O3" s="42"/>
+      <c r="P3" s="42"/>
+      <c r="Q3" s="42"/>
+      <c r="R3" s="42"/>
+      <c r="S3" s="42"/>
+      <c r="T3" s="42"/>
+      <c r="U3" s="42"/>
+      <c r="V3" s="42"/>
+      <c r="W3" s="42"/>
+      <c r="X3" s="49"/>
+      <c r="Y3" s="49"/>
+      <c r="Z3" s="42"/>
+      <c r="AA3" s="42"/>
+      <c r="AB3" s="42"/>
+      <c r="AC3" s="42"/>
+      <c r="AD3" s="49"/>
+      <c r="AE3" s="49"/>
+      <c r="AF3" s="42"/>
+      <c r="AG3" s="42"/>
+      <c r="AH3" s="42"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="42"/>
     </row>
-    <row r="4" spans="1:36" ht="35.25" customHeight="1">
+    <row r="4" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9577,7 +9593,7 @@
         <v>15909.090909090897</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1">
+    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9653,7 +9669,7 @@
         <v>68436.363636363647</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="33" customHeight="1">
+    <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9729,7 +9745,7 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="31.5" customHeight="1">
+    <row r="7" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9805,7 +9821,7 @@
         <v>-0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1">
+    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9888,7 +9904,7 @@
         <v>917.81818181817653</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" customHeight="1">
+    <row r="9" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9968,7 +9984,7 @@
         <v>28440</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1">
+    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -10056,25 +10072,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A2:A3"/>
@@ -10091,6 +10088,25 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AD2:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/!!!ЗП.xlsx
+++ b/!!!ЗП.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
@@ -13,7 +13,7 @@
     <sheet name="Ведомость к выдаче" sheetId="6" r:id="rId4"/>
     <sheet name="Расчетная ведость за месяц" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="125725"/>
 </workbook>
 </file>
 
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="94">
   <si>
     <t>Плановый цикл производства (шаблон)</t>
   </si>
@@ -556,12 +556,6 @@
     <t>Ghjvt;enjxyfz dsgkfnf</t>
   </si>
   <si>
-    <t xml:space="preserve">  Rfhnf</t>
-  </si>
-  <si>
-    <t>@Bnjuj r</t>
-  </si>
-  <si>
     <t>gjkextyb.@</t>
   </si>
   <si>
@@ -570,15 +564,18 @@
   <si>
     <t>по уволенным отдельные ведомости, по остальным общая, группируется по фио/организация/табельны, столбец должность не нужен</t>
   </si>
+  <si>
+    <t>"Итого к</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="25" x14ac:knownFonts="1">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2816,7 +2813,7 @@
     <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="61">
+  <cellXfs count="63">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2891,6 +2888,12 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2936,17 +2939,14 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2963,10 +2963,14 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="29" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="30" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2975,7 +2979,6 @@
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="20% - Акцент1 1" xfId="2"/>
@@ -4561,7 +4564,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4596,7 +4598,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4772,14 +4773,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A2:AJ34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -4789,54 +4790,54 @@
     <col min="35" max="36" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="31" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="32"/>
-      <c r="C3" s="32"/>
-      <c r="D3" s="32"/>
-      <c r="E3" s="32"/>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="32"/>
-      <c r="I3" s="32"/>
-      <c r="J3" s="32"/>
-      <c r="K3" s="32"/>
-      <c r="L3" s="32"/>
-      <c r="M3" s="32"/>
-      <c r="N3" s="32"/>
-      <c r="O3" s="32"/>
-      <c r="P3" s="32"/>
-      <c r="Q3" s="32"/>
-      <c r="R3" s="32"/>
-      <c r="S3" s="32"/>
-      <c r="T3" s="32"/>
-      <c r="U3" s="32"/>
-      <c r="V3" s="32"/>
-      <c r="W3" s="32"/>
-      <c r="X3" s="32"/>
-      <c r="Y3" s="32"/>
-      <c r="Z3" s="32"/>
-      <c r="AA3" s="32"/>
-      <c r="AB3" s="32"/>
-      <c r="AC3" s="32"/>
-      <c r="AD3" s="32"/>
-      <c r="AE3" s="32"/>
-      <c r="AF3" s="32"/>
-      <c r="AG3" s="32"/>
-      <c r="AH3" s="32"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="27" t="s">
+    <row r="2" spans="1:36" ht="15.75" thickBot="1"/>
+    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1">
+      <c r="A3" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="34"/>
+      <c r="C3" s="34"/>
+      <c r="D3" s="34"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="34"/>
+      <c r="L3" s="34"/>
+      <c r="M3" s="34"/>
+      <c r="N3" s="34"/>
+      <c r="O3" s="34"/>
+      <c r="P3" s="34"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="34"/>
+      <c r="T3" s="34"/>
+      <c r="U3" s="34"/>
+      <c r="V3" s="34"/>
+      <c r="W3" s="34"/>
+      <c r="X3" s="34"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="34"/>
+      <c r="AA3" s="34"/>
+      <c r="AB3" s="34"/>
+      <c r="AC3" s="34"/>
+      <c r="AD3" s="34"/>
+      <c r="AE3" s="34"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="34"/>
+      <c r="AH3" s="34"/>
+      <c r="AI3" s="35"/>
+      <c r="AJ3" s="29" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="38" t="s">
+    <row r="4" spans="1:36" ht="42" customHeight="1">
+      <c r="A4" s="40" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="39"/>
+      <c r="B4" s="41"/>
       <c r="C4" s="15">
         <v>336.12</v>
       </c>
@@ -4936,13 +4937,13 @@
       <c r="AI4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="28"/>
+      <c r="AJ4" s="30"/>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
+    <row r="5" spans="1:36" ht="30" customHeight="1">
+      <c r="A5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="35"/>
+      <c r="B5" s="37"/>
       <c r="C5" s="2">
         <v>8</v>
       </c>
@@ -5049,11 +5050,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="36" t="s">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1">
+      <c r="A6" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="37"/>
+      <c r="B6" s="39"/>
       <c r="C6" s="4">
         <v>11</v>
       </c>
@@ -5160,7 +5161,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="30" customHeight="1">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5198,56 +5199,56 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="30" t="s">
+    <row r="8" spans="1:36" ht="30" customHeight="1">
+      <c r="A8" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="30"/>
-      <c r="C8" s="30"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="30"/>
-      <c r="J8" s="30"/>
-      <c r="K8" s="30"/>
-      <c r="L8" s="30"/>
-      <c r="M8" s="30"/>
-      <c r="N8" s="30"/>
-      <c r="O8" s="30"/>
-      <c r="P8" s="30"/>
-      <c r="Q8" s="30"/>
-      <c r="R8" s="30"/>
-      <c r="S8" s="30"/>
-      <c r="T8" s="30"/>
-      <c r="U8" s="30"/>
-      <c r="V8" s="30"/>
-      <c r="W8" s="30"/>
-      <c r="X8" s="30"/>
-      <c r="Y8" s="30"/>
-      <c r="Z8" s="30"/>
-      <c r="AA8" s="30"/>
-      <c r="AB8" s="30"/>
-      <c r="AC8" s="30"/>
-      <c r="AD8" s="30"/>
-      <c r="AE8" s="30"/>
-      <c r="AF8" s="30"/>
-      <c r="AG8" s="30"/>
-      <c r="AH8" s="30"/>
-      <c r="AI8" s="29" t="s">
+      <c r="B8" s="32"/>
+      <c r="C8" s="32"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="32"/>
+      <c r="J8" s="32"/>
+      <c r="K8" s="32"/>
+      <c r="L8" s="32"/>
+      <c r="M8" s="32"/>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="32"/>
+      <c r="S8" s="32"/>
+      <c r="T8" s="32"/>
+      <c r="U8" s="32"/>
+      <c r="V8" s="32"/>
+      <c r="W8" s="32"/>
+      <c r="X8" s="32"/>
+      <c r="Y8" s="32"/>
+      <c r="Z8" s="32"/>
+      <c r="AA8" s="32"/>
+      <c r="AB8" s="32"/>
+      <c r="AC8" s="32"/>
+      <c r="AD8" s="32"/>
+      <c r="AE8" s="32"/>
+      <c r="AF8" s="32"/>
+      <c r="AG8" s="32"/>
+      <c r="AH8" s="32"/>
+      <c r="AI8" s="31" t="s">
         <v>9</v>
       </c>
-      <c r="AJ8" s="29" t="s">
+      <c r="AJ8" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="40" t="str">
+    <row r="9" spans="1:36" ht="45.75" customHeight="1">
+      <c r="A9" s="42" t="str">
         <f>A4</f>
         <v>Дата</v>
       </c>
-      <c r="B9" s="40"/>
+      <c r="B9" s="42"/>
       <c r="C9" s="15">
         <f>C4</f>
         <v>336.12</v>
@@ -5360,11 +5361,11 @@
       <c r="AH9" s="15">
         <v>46022</v>
       </c>
-      <c r="AI9" s="29"/>
-      <c r="AJ9" s="29"/>
+      <c r="AI9" s="31"/>
+      <c r="AJ9" s="31"/>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="29" t="s">
+    <row r="10" spans="1:36" ht="30" customHeight="1">
+      <c r="A10" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -5477,8 +5478,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="29"/>
+    <row r="11" spans="1:36" ht="30" customHeight="1">
+      <c r="A11" s="31"/>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5593,8 +5594,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="29" t="s">
+    <row r="12" spans="1:36" ht="33" customHeight="1">
+      <c r="A12" s="31" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -5707,8 +5708,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="29"/>
+    <row r="13" spans="1:36" ht="30" customHeight="1">
+      <c r="A13" s="31"/>
       <c r="B13" s="2" t="str">
         <f>B11</f>
         <v>Переработка</v>
@@ -5827,8 +5828,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+    <row r="14" spans="1:36" ht="33" customHeight="1">
+      <c r="A14" s="31" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5940,8 +5941,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="29"/>
+    <row r="15" spans="1:36" ht="30" customHeight="1">
+      <c r="A15" s="31"/>
       <c r="B15" s="2" t="str">
         <f>B13</f>
         <v>Переработка</v>
@@ -6074,44 +6075,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
-      <c r="A16" s="26" t="s">
+    <row r="16" spans="1:36">
+      <c r="A16" s="28" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="26"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="28"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
+    <row r="17" spans="1:5">
+      <c r="A17" s="28" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="26"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
+      <c r="B17" s="28"/>
+      <c r="C17" s="28"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="26" t="s">
+    <row r="21" spans="1:5">
+      <c r="A21" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="26"/>
+      <c r="B21" s="28"/>
       <c r="C21" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -6122,7 +6123,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -6138,7 +6139,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6154,7 +6155,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6171,21 +6172,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="26" t="s">
+    <row r="28" spans="1:5">
+      <c r="A28" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="26"/>
+      <c r="B28" s="28"/>
       <c r="C28" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -6196,7 +6197,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6212,7 +6213,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6228,7 +6229,7 @@
         <v>11477.272727272728</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -6245,7 +6246,7 @@
         <v>12840.909090909092</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:1">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6275,7 +6276,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Y10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -6283,7 +6284,7 @@
       <selection pane="topRight" activeCell="N4" sqref="N4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6297,7 +6298,7 @@
     <col min="15" max="15" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:25" ht="31.5" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>67</v>
       </c>
@@ -6326,86 +6327,86 @@
       <c r="X1" s="44"/>
       <c r="Y1" s="44"/>
     </row>
-    <row r="2" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:25" ht="31.5" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="44"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="45" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="45" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+    <row r="3" spans="1:25" ht="75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="9" t="s">
         <v>36</v>
       </c>
@@ -6415,24 +6416,24 @@
       <c r="I3" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="42"/>
-      <c r="Y3" s="42"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="45"/>
+      <c r="Y3" s="45"/>
     </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:25" ht="35.25" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6492,7 +6493,7 @@
         <v>34090.909090909088</v>
       </c>
     </row>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:25" ht="35.25" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -6552,7 +6553,7 @@
         <v>11363.636363636362</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:25" ht="33" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6612,7 +6613,7 @@
         <v>70000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:25" ht="31.5" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6670,7 +6671,7 @@
         <v>16652.17391304348</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:25" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6730,7 +6731,7 @@
         <v>43204</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:25" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6786,7 +6787,7 @@
         <v>37833</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:25" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6848,6 +6849,14 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="O2:O3"/>
+    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="K2:K3"/>
+    <mergeCell ref="L2:L3"/>
+    <mergeCell ref="M2:M3"/>
+    <mergeCell ref="N2:N3"/>
     <mergeCell ref="A1:Y1"/>
     <mergeCell ref="V2:V3"/>
     <mergeCell ref="P2:P3"/>
@@ -6864,14 +6873,6 @@
     <mergeCell ref="B2:B3"/>
     <mergeCell ref="C2:C3"/>
     <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6880,15 +6881,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AT10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AG11" sqref="AG11"/>
+      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6905,7 +6906,7 @@
     <col min="16" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1">
       <c r="A1" s="43" t="s">
         <v>82</v>
       </c>
@@ -6938,75 +6939,75 @@
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
       <c r="AD1" s="44"/>
-      <c r="AE1" s="47"/>
+      <c r="AE1" s="48"/>
     </row>
-    <row r="2" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:46" ht="31.5" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="44"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="49" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="22" t="s">
@@ -7020,30 +7021,30 @@
       <c r="AC2" s="22"/>
       <c r="AD2" s="25"/>
       <c r="AE2" s="22"/>
-      <c r="AG2" s="50" t="s">
-        <v>94</v>
-      </c>
-      <c r="AH2" s="51"/>
-      <c r="AI2" s="51"/>
-      <c r="AJ2" s="51"/>
-      <c r="AK2" s="51"/>
-      <c r="AL2" s="51"/>
-      <c r="AM2" s="51"/>
-      <c r="AN2" s="51"/>
-      <c r="AO2" s="51"/>
-      <c r="AP2" s="51"/>
-      <c r="AQ2" s="51"/>
-      <c r="AR2" s="51"/>
-      <c r="AS2" s="51"/>
-      <c r="AT2" s="52"/>
+      <c r="AG2" s="52" t="s">
+        <v>92</v>
+      </c>
+      <c r="AH2" s="53"/>
+      <c r="AI2" s="53"/>
+      <c r="AJ2" s="53"/>
+      <c r="AK2" s="53"/>
+      <c r="AL2" s="53"/>
+      <c r="AM2" s="53"/>
+      <c r="AN2" s="53"/>
+      <c r="AO2" s="53"/>
+      <c r="AP2" s="53"/>
+      <c r="AQ2" s="53"/>
+      <c r="AR2" s="53"/>
+      <c r="AS2" s="53"/>
+      <c r="AT2" s="54"/>
     </row>
-    <row r="3" spans="1:46" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+    <row r="3" spans="1:46" ht="75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
@@ -7053,21 +7054,21 @@
       <c r="I3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
       <c r="Y3" s="22" t="s">
         <v>86</v>
       </c>
@@ -7080,29 +7081,29 @@
       <c r="AB3" s="22" t="s">
         <v>89</v>
       </c>
-      <c r="AC3" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="AD3" s="25" t="s">
-        <v>91</v>
+      <c r="AC3" s="26" t="s">
+        <v>30</v>
+      </c>
+      <c r="AD3" s="27" t="s">
+        <v>93</v>
       </c>
       <c r="AE3" s="22"/>
-      <c r="AG3" s="53"/>
-      <c r="AH3" s="60"/>
-      <c r="AI3" s="60"/>
-      <c r="AJ3" s="60"/>
-      <c r="AK3" s="60"/>
-      <c r="AL3" s="60"/>
-      <c r="AM3" s="60"/>
-      <c r="AN3" s="60"/>
-      <c r="AO3" s="60"/>
-      <c r="AP3" s="60"/>
-      <c r="AQ3" s="60"/>
-      <c r="AR3" s="60"/>
-      <c r="AS3" s="60"/>
-      <c r="AT3" s="54"/>
+      <c r="AG3" s="55"/>
+      <c r="AH3" s="56"/>
+      <c r="AI3" s="56"/>
+      <c r="AJ3" s="56"/>
+      <c r="AK3" s="56"/>
+      <c r="AL3" s="56"/>
+      <c r="AM3" s="56"/>
+      <c r="AN3" s="56"/>
+      <c r="AO3" s="56"/>
+      <c r="AP3" s="56"/>
+      <c r="AQ3" s="56"/>
+      <c r="AR3" s="56"/>
+      <c r="AS3" s="56"/>
+      <c r="AT3" s="57"/>
     </row>
-    <row r="4" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:46" ht="35.25" customHeight="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7158,32 +7159,32 @@
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="Z4" s="12"/>
       <c r="AA4" s="12" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="AB4" s="12"/>
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AG4" s="53"/>
-      <c r="AH4" s="60"/>
-      <c r="AI4" s="60"/>
-      <c r="AJ4" s="60"/>
-      <c r="AK4" s="60"/>
-      <c r="AL4" s="60"/>
-      <c r="AM4" s="60"/>
-      <c r="AN4" s="60"/>
-      <c r="AO4" s="60"/>
-      <c r="AP4" s="60"/>
-      <c r="AQ4" s="60"/>
-      <c r="AR4" s="60"/>
-      <c r="AS4" s="60"/>
-      <c r="AT4" s="54"/>
+      <c r="AG4" s="55"/>
+      <c r="AH4" s="56"/>
+      <c r="AI4" s="56"/>
+      <c r="AJ4" s="56"/>
+      <c r="AK4" s="56"/>
+      <c r="AL4" s="56"/>
+      <c r="AM4" s="56"/>
+      <c r="AN4" s="56"/>
+      <c r="AO4" s="56"/>
+      <c r="AP4" s="56"/>
+      <c r="AQ4" s="56"/>
+      <c r="AR4" s="56"/>
+      <c r="AS4" s="56"/>
+      <c r="AT4" s="57"/>
     </row>
-    <row r="5" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:46" ht="35.25" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -7245,22 +7246,22 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
-      <c r="AG5" s="53"/>
-      <c r="AH5" s="60"/>
-      <c r="AI5" s="60"/>
-      <c r="AJ5" s="60"/>
-      <c r="AK5" s="60"/>
-      <c r="AL5" s="60"/>
-      <c r="AM5" s="60"/>
-      <c r="AN5" s="60"/>
-      <c r="AO5" s="60"/>
-      <c r="AP5" s="60"/>
-      <c r="AQ5" s="60"/>
-      <c r="AR5" s="60"/>
-      <c r="AS5" s="60"/>
-      <c r="AT5" s="54"/>
+      <c r="AG5" s="55"/>
+      <c r="AH5" s="56"/>
+      <c r="AI5" s="56"/>
+      <c r="AJ5" s="56"/>
+      <c r="AK5" s="56"/>
+      <c r="AL5" s="56"/>
+      <c r="AM5" s="56"/>
+      <c r="AN5" s="56"/>
+      <c r="AO5" s="56"/>
+      <c r="AP5" s="56"/>
+      <c r="AQ5" s="56"/>
+      <c r="AR5" s="56"/>
+      <c r="AS5" s="56"/>
+      <c r="AT5" s="57"/>
     </row>
-    <row r="6" spans="1:46" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:46" ht="33" customHeight="1">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -7330,22 +7331,22 @@
       <c r="AE6" s="12">
         <v>571</v>
       </c>
-      <c r="AG6" s="53"/>
-      <c r="AH6" s="60"/>
-      <c r="AI6" s="60"/>
-      <c r="AJ6" s="60"/>
-      <c r="AK6" s="60"/>
-      <c r="AL6" s="60"/>
-      <c r="AM6" s="60"/>
-      <c r="AN6" s="60"/>
-      <c r="AO6" s="60"/>
-      <c r="AP6" s="60"/>
-      <c r="AQ6" s="60"/>
-      <c r="AR6" s="60"/>
-      <c r="AS6" s="60"/>
-      <c r="AT6" s="54"/>
+      <c r="AG6" s="55"/>
+      <c r="AH6" s="56"/>
+      <c r="AI6" s="56"/>
+      <c r="AJ6" s="56"/>
+      <c r="AK6" s="56"/>
+      <c r="AL6" s="56"/>
+      <c r="AM6" s="56"/>
+      <c r="AN6" s="56"/>
+      <c r="AO6" s="56"/>
+      <c r="AP6" s="56"/>
+      <c r="AQ6" s="56"/>
+      <c r="AR6" s="56"/>
+      <c r="AS6" s="56"/>
+      <c r="AT6" s="57"/>
     </row>
-    <row r="7" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:46" ht="31.5" customHeight="1">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -7413,22 +7414,22 @@
       <c r="AE7" s="12">
         <v>-22156</v>
       </c>
-      <c r="AG7" s="53"/>
-      <c r="AH7" s="60"/>
-      <c r="AI7" s="60"/>
-      <c r="AJ7" s="60"/>
-      <c r="AK7" s="60"/>
-      <c r="AL7" s="60"/>
-      <c r="AM7" s="60"/>
-      <c r="AN7" s="60"/>
-      <c r="AO7" s="60"/>
-      <c r="AP7" s="60"/>
-      <c r="AQ7" s="60"/>
-      <c r="AR7" s="60"/>
-      <c r="AS7" s="60"/>
-      <c r="AT7" s="54"/>
+      <c r="AG7" s="55"/>
+      <c r="AH7" s="56"/>
+      <c r="AI7" s="56"/>
+      <c r="AJ7" s="56"/>
+      <c r="AK7" s="56"/>
+      <c r="AL7" s="56"/>
+      <c r="AM7" s="56"/>
+      <c r="AN7" s="56"/>
+      <c r="AO7" s="56"/>
+      <c r="AP7" s="56"/>
+      <c r="AQ7" s="56"/>
+      <c r="AR7" s="56"/>
+      <c r="AS7" s="56"/>
+      <c r="AT7" s="57"/>
     </row>
-    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:46" ht="30" customHeight="1">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -7498,22 +7499,22 @@
       <c r="AE8" s="12">
         <v>0</v>
       </c>
-      <c r="AG8" s="53"/>
-      <c r="AH8" s="60"/>
-      <c r="AI8" s="60"/>
-      <c r="AJ8" s="60"/>
-      <c r="AK8" s="60"/>
-      <c r="AL8" s="60"/>
-      <c r="AM8" s="60"/>
-      <c r="AN8" s="60"/>
-      <c r="AO8" s="60"/>
-      <c r="AP8" s="60"/>
-      <c r="AQ8" s="60"/>
-      <c r="AR8" s="60"/>
-      <c r="AS8" s="60"/>
-      <c r="AT8" s="54"/>
+      <c r="AG8" s="55"/>
+      <c r="AH8" s="56"/>
+      <c r="AI8" s="56"/>
+      <c r="AJ8" s="56"/>
+      <c r="AK8" s="56"/>
+      <c r="AL8" s="56"/>
+      <c r="AM8" s="56"/>
+      <c r="AN8" s="56"/>
+      <c r="AO8" s="56"/>
+      <c r="AP8" s="56"/>
+      <c r="AQ8" s="56"/>
+      <c r="AR8" s="56"/>
+      <c r="AS8" s="56"/>
+      <c r="AT8" s="57"/>
     </row>
-    <row r="9" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:46" ht="30" customHeight="1">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -7579,22 +7580,22 @@
       <c r="AE9" s="12">
         <v>0</v>
       </c>
-      <c r="AG9" s="53"/>
-      <c r="AH9" s="60"/>
-      <c r="AI9" s="60"/>
-      <c r="AJ9" s="60"/>
-      <c r="AK9" s="60"/>
-      <c r="AL9" s="60"/>
-      <c r="AM9" s="60"/>
-      <c r="AN9" s="60"/>
-      <c r="AO9" s="60"/>
-      <c r="AP9" s="60"/>
-      <c r="AQ9" s="60"/>
-      <c r="AR9" s="60"/>
-      <c r="AS9" s="60"/>
-      <c r="AT9" s="54"/>
+      <c r="AG9" s="55"/>
+      <c r="AH9" s="56"/>
+      <c r="AI9" s="56"/>
+      <c r="AJ9" s="56"/>
+      <c r="AK9" s="56"/>
+      <c r="AL9" s="56"/>
+      <c r="AM9" s="56"/>
+      <c r="AN9" s="56"/>
+      <c r="AO9" s="56"/>
+      <c r="AP9" s="56"/>
+      <c r="AQ9" s="56"/>
+      <c r="AR9" s="56"/>
+      <c r="AS9" s="56"/>
+      <c r="AT9" s="57"/>
     </row>
-    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -7664,23 +7665,33 @@
       <c r="AE10" s="12">
         <v>4504</v>
       </c>
-      <c r="AG10" s="55"/>
-      <c r="AH10" s="56"/>
-      <c r="AI10" s="56"/>
-      <c r="AJ10" s="56"/>
-      <c r="AK10" s="56"/>
-      <c r="AL10" s="56"/>
-      <c r="AM10" s="56"/>
-      <c r="AN10" s="56"/>
-      <c r="AO10" s="56"/>
-      <c r="AP10" s="56"/>
-      <c r="AQ10" s="56"/>
-      <c r="AR10" s="56"/>
-      <c r="AS10" s="56"/>
-      <c r="AT10" s="57"/>
+      <c r="AG10" s="58"/>
+      <c r="AH10" s="59"/>
+      <c r="AI10" s="59"/>
+      <c r="AJ10" s="59"/>
+      <c r="AK10" s="59"/>
+      <c r="AL10" s="59"/>
+      <c r="AM10" s="59"/>
+      <c r="AN10" s="59"/>
+      <c r="AO10" s="59"/>
+      <c r="AP10" s="59"/>
+      <c r="AQ10" s="59"/>
+      <c r="AR10" s="59"/>
+      <c r="AS10" s="59"/>
+      <c r="AT10" s="60"/>
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="AG2:AT10"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="M2:M3"/>
@@ -7695,16 +7706,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="AG2:AT10"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7713,7 +7714,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7721,7 +7722,7 @@
       <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -7737,7 +7738,7 @@
     <col min="16" max="30" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:31" ht="31.5" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>82</v>
       </c>
@@ -7770,106 +7771,106 @@
       <c r="AB1" s="44"/>
       <c r="AC1" s="44"/>
       <c r="AD1" s="44"/>
-      <c r="AE1" s="47"/>
+      <c r="AE1" s="48"/>
     </row>
-    <row r="2" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:31" ht="31.5" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="44"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="48" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="49" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="48" t="s">
+      <c r="K2" s="49" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="48" t="s">
+      <c r="L2" s="49" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="48" t="s">
+      <c r="M2" s="49" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="48" t="s">
+      <c r="N2" s="49" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="48" t="s">
+      <c r="O2" s="49" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="48" t="s">
+      <c r="P2" s="49" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="48" t="s">
+      <c r="Q2" s="49" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="48" t="s">
+      <c r="R2" s="49" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="48" t="s">
+      <c r="S2" s="49" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="48" t="s">
+      <c r="T2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="48" t="s">
+      <c r="U2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="48" t="s">
+      <c r="V2" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="48" t="s">
+      <c r="W2" s="49" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="49" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="42" t="s">
+      <c r="Y2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="48" t="s">
+      <c r="Z2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="58" t="s">
+      <c r="AD2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="42" t="s">
+      <c r="AE2" s="45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+    <row r="3" spans="1:31" ht="75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
@@ -7879,30 +7880,30 @@
       <c r="I3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="49"/>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
-      <c r="M3" s="49"/>
-      <c r="N3" s="49"/>
-      <c r="O3" s="49"/>
-      <c r="P3" s="49"/>
-      <c r="Q3" s="49"/>
-      <c r="R3" s="49"/>
-      <c r="S3" s="49"/>
-      <c r="T3" s="49"/>
-      <c r="U3" s="49"/>
-      <c r="V3" s="49"/>
-      <c r="W3" s="49"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="42"/>
-      <c r="Z3" s="49"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="58"/>
-      <c r="AE3" s="42"/>
+      <c r="J3" s="50"/>
+      <c r="K3" s="50"/>
+      <c r="L3" s="50"/>
+      <c r="M3" s="50"/>
+      <c r="N3" s="50"/>
+      <c r="O3" s="50"/>
+      <c r="P3" s="50"/>
+      <c r="Q3" s="50"/>
+      <c r="R3" s="50"/>
+      <c r="S3" s="50"/>
+      <c r="T3" s="50"/>
+      <c r="U3" s="50"/>
+      <c r="V3" s="50"/>
+      <c r="W3" s="50"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="50"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="61"/>
+      <c r="AE3" s="45"/>
     </row>
-    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:31" ht="35.25" customHeight="1">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7975,7 +7976,7 @@
         <v>570.90909090908826</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:31" ht="35.25" customHeight="1">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -8048,7 +8049,7 @@
         <v>2843.6363636363621</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:31" ht="33" customHeight="1">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -8121,7 +8122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:31" ht="31.5" customHeight="1">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -8192,7 +8193,7 @@
         <v>0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:31" ht="30" customHeight="1">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -8265,7 +8266,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:31" ht="30" customHeight="1">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -8336,7 +8337,7 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:31" ht="30" customHeight="1">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -8409,873 +8410,858 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B18" s="59"/>
-      <c r="C18" s="59"/>
-      <c r="D18" s="59"/>
-      <c r="E18" s="59"/>
-      <c r="F18" s="59"/>
-      <c r="G18" s="59"/>
-      <c r="H18" s="59"/>
-      <c r="I18" s="59"/>
-      <c r="J18" s="59"/>
-      <c r="K18" s="59"/>
-      <c r="L18" s="59"/>
-      <c r="M18" s="59"/>
-      <c r="N18" s="59"/>
-      <c r="O18" s="59"/>
-      <c r="P18" s="59"/>
-      <c r="Q18" s="59"/>
-      <c r="R18" s="59"/>
-      <c r="S18" s="59"/>
-      <c r="T18" s="59"/>
-      <c r="U18" s="59"/>
-      <c r="V18" s="59"/>
-      <c r="W18" s="59"/>
-      <c r="X18" s="59"/>
-      <c r="Y18" s="59"/>
-      <c r="Z18" s="59"/>
-      <c r="AA18" s="59"/>
-      <c r="AB18" s="59"/>
-      <c r="AC18" s="59"/>
-      <c r="AD18" s="59"/>
-      <c r="AE18" s="59"/>
-      <c r="AF18" s="59"/>
-      <c r="AG18" s="59"/>
-      <c r="AH18" s="59"/>
-      <c r="AI18" s="59"/>
-      <c r="AJ18" s="59"/>
-      <c r="AK18" s="59"/>
-      <c r="AL18" s="59"/>
-      <c r="AM18" s="59"/>
-      <c r="AN18" s="59"/>
-      <c r="AO18" s="59"/>
-      <c r="AP18" s="59"/>
-      <c r="AQ18" s="59"/>
-      <c r="AR18" s="59"/>
-      <c r="AS18" s="59"/>
-      <c r="AT18" s="59"/>
-      <c r="AU18" s="59"/>
-      <c r="AV18" s="59"/>
-      <c r="AW18" s="59"/>
+    <row r="18" spans="2:49">
+      <c r="B18" s="62"/>
+      <c r="C18" s="62"/>
+      <c r="D18" s="62"/>
+      <c r="E18" s="62"/>
+      <c r="F18" s="62"/>
+      <c r="G18" s="62"/>
+      <c r="H18" s="62"/>
+      <c r="I18" s="62"/>
+      <c r="J18" s="62"/>
+      <c r="K18" s="62"/>
+      <c r="L18" s="62"/>
+      <c r="M18" s="62"/>
+      <c r="N18" s="62"/>
+      <c r="O18" s="62"/>
+      <c r="P18" s="62"/>
+      <c r="Q18" s="62"/>
+      <c r="R18" s="62"/>
+      <c r="S18" s="62"/>
+      <c r="T18" s="62"/>
+      <c r="U18" s="62"/>
+      <c r="V18" s="62"/>
+      <c r="W18" s="62"/>
+      <c r="X18" s="62"/>
+      <c r="Y18" s="62"/>
+      <c r="Z18" s="62"/>
+      <c r="AA18" s="62"/>
+      <c r="AB18" s="62"/>
+      <c r="AC18" s="62"/>
+      <c r="AD18" s="62"/>
+      <c r="AE18" s="62"/>
+      <c r="AF18" s="62"/>
+      <c r="AG18" s="62"/>
+      <c r="AH18" s="62"/>
+      <c r="AI18" s="62"/>
+      <c r="AJ18" s="62"/>
+      <c r="AK18" s="62"/>
+      <c r="AL18" s="62"/>
+      <c r="AM18" s="62"/>
+      <c r="AN18" s="62"/>
+      <c r="AO18" s="62"/>
+      <c r="AP18" s="62"/>
+      <c r="AQ18" s="62"/>
+      <c r="AR18" s="62"/>
+      <c r="AS18" s="62"/>
+      <c r="AT18" s="62"/>
+      <c r="AU18" s="62"/>
+      <c r="AV18" s="62"/>
+      <c r="AW18" s="62"/>
     </row>
-    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B19" s="59"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="59"/>
-      <c r="E19" s="59"/>
-      <c r="F19" s="59"/>
-      <c r="G19" s="59"/>
-      <c r="H19" s="59"/>
-      <c r="I19" s="59"/>
-      <c r="J19" s="59"/>
-      <c r="K19" s="59"/>
-      <c r="L19" s="59"/>
-      <c r="M19" s="59"/>
-      <c r="N19" s="59"/>
-      <c r="O19" s="59"/>
-      <c r="P19" s="59"/>
-      <c r="Q19" s="59"/>
-      <c r="R19" s="59"/>
-      <c r="S19" s="59"/>
-      <c r="T19" s="59"/>
-      <c r="U19" s="59"/>
-      <c r="V19" s="59"/>
-      <c r="W19" s="59"/>
-      <c r="X19" s="59"/>
-      <c r="Y19" s="59"/>
-      <c r="Z19" s="59"/>
-      <c r="AA19" s="59"/>
-      <c r="AB19" s="59"/>
-      <c r="AC19" s="59"/>
-      <c r="AD19" s="59"/>
-      <c r="AE19" s="59"/>
-      <c r="AF19" s="59"/>
-      <c r="AG19" s="59"/>
-      <c r="AH19" s="59"/>
-      <c r="AI19" s="59"/>
-      <c r="AJ19" s="59"/>
-      <c r="AK19" s="59"/>
-      <c r="AL19" s="59"/>
-      <c r="AM19" s="59"/>
-      <c r="AN19" s="59"/>
-      <c r="AO19" s="59"/>
-      <c r="AP19" s="59"/>
-      <c r="AQ19" s="59"/>
-      <c r="AR19" s="59"/>
-      <c r="AS19" s="59"/>
-      <c r="AT19" s="59"/>
-      <c r="AU19" s="59"/>
-      <c r="AV19" s="59"/>
-      <c r="AW19" s="59"/>
+    <row r="19" spans="2:49">
+      <c r="B19" s="62"/>
+      <c r="C19" s="62"/>
+      <c r="D19" s="62"/>
+      <c r="E19" s="62"/>
+      <c r="F19" s="62"/>
+      <c r="G19" s="62"/>
+      <c r="H19" s="62"/>
+      <c r="I19" s="62"/>
+      <c r="J19" s="62"/>
+      <c r="K19" s="62"/>
+      <c r="L19" s="62"/>
+      <c r="M19" s="62"/>
+      <c r="N19" s="62"/>
+      <c r="O19" s="62"/>
+      <c r="P19" s="62"/>
+      <c r="Q19" s="62"/>
+      <c r="R19" s="62"/>
+      <c r="S19" s="62"/>
+      <c r="T19" s="62"/>
+      <c r="U19" s="62"/>
+      <c r="V19" s="62"/>
+      <c r="W19" s="62"/>
+      <c r="X19" s="62"/>
+      <c r="Y19" s="62"/>
+      <c r="Z19" s="62"/>
+      <c r="AA19" s="62"/>
+      <c r="AB19" s="62"/>
+      <c r="AC19" s="62"/>
+      <c r="AD19" s="62"/>
+      <c r="AE19" s="62"/>
+      <c r="AF19" s="62"/>
+      <c r="AG19" s="62"/>
+      <c r="AH19" s="62"/>
+      <c r="AI19" s="62"/>
+      <c r="AJ19" s="62"/>
+      <c r="AK19" s="62"/>
+      <c r="AL19" s="62"/>
+      <c r="AM19" s="62"/>
+      <c r="AN19" s="62"/>
+      <c r="AO19" s="62"/>
+      <c r="AP19" s="62"/>
+      <c r="AQ19" s="62"/>
+      <c r="AR19" s="62"/>
+      <c r="AS19" s="62"/>
+      <c r="AT19" s="62"/>
+      <c r="AU19" s="62"/>
+      <c r="AV19" s="62"/>
+      <c r="AW19" s="62"/>
     </row>
-    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B20" s="59"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="59"/>
-      <c r="E20" s="59"/>
-      <c r="F20" s="59"/>
-      <c r="G20" s="59"/>
-      <c r="H20" s="59"/>
-      <c r="I20" s="59"/>
-      <c r="J20" s="59"/>
-      <c r="K20" s="59"/>
-      <c r="L20" s="59"/>
-      <c r="M20" s="59"/>
-      <c r="N20" s="59"/>
-      <c r="O20" s="59"/>
-      <c r="P20" s="59"/>
-      <c r="Q20" s="59"/>
-      <c r="R20" s="59"/>
-      <c r="S20" s="59"/>
-      <c r="T20" s="59"/>
-      <c r="U20" s="59"/>
-      <c r="V20" s="59"/>
-      <c r="W20" s="59"/>
-      <c r="X20" s="59"/>
-      <c r="Y20" s="59"/>
-      <c r="Z20" s="59"/>
-      <c r="AA20" s="59"/>
-      <c r="AB20" s="59"/>
-      <c r="AC20" s="59"/>
-      <c r="AD20" s="59"/>
-      <c r="AE20" s="59"/>
-      <c r="AF20" s="59"/>
-      <c r="AG20" s="59"/>
-      <c r="AH20" s="59"/>
-      <c r="AI20" s="59"/>
-      <c r="AJ20" s="59"/>
-      <c r="AK20" s="59"/>
-      <c r="AL20" s="59"/>
-      <c r="AM20" s="59"/>
-      <c r="AN20" s="59"/>
-      <c r="AO20" s="59"/>
-      <c r="AP20" s="59"/>
-      <c r="AQ20" s="59"/>
-      <c r="AR20" s="59"/>
-      <c r="AS20" s="59"/>
-      <c r="AT20" s="59"/>
-      <c r="AU20" s="59"/>
-      <c r="AV20" s="59"/>
-      <c r="AW20" s="59"/>
+    <row r="20" spans="2:49">
+      <c r="B20" s="62"/>
+      <c r="C20" s="62"/>
+      <c r="D20" s="62"/>
+      <c r="E20" s="62"/>
+      <c r="F20" s="62"/>
+      <c r="G20" s="62"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
+      <c r="J20" s="62"/>
+      <c r="K20" s="62"/>
+      <c r="L20" s="62"/>
+      <c r="M20" s="62"/>
+      <c r="N20" s="62"/>
+      <c r="O20" s="62"/>
+      <c r="P20" s="62"/>
+      <c r="Q20" s="62"/>
+      <c r="R20" s="62"/>
+      <c r="S20" s="62"/>
+      <c r="T20" s="62"/>
+      <c r="U20" s="62"/>
+      <c r="V20" s="62"/>
+      <c r="W20" s="62"/>
+      <c r="X20" s="62"/>
+      <c r="Y20" s="62"/>
+      <c r="Z20" s="62"/>
+      <c r="AA20" s="62"/>
+      <c r="AB20" s="62"/>
+      <c r="AC20" s="62"/>
+      <c r="AD20" s="62"/>
+      <c r="AE20" s="62"/>
+      <c r="AF20" s="62"/>
+      <c r="AG20" s="62"/>
+      <c r="AH20" s="62"/>
+      <c r="AI20" s="62"/>
+      <c r="AJ20" s="62"/>
+      <c r="AK20" s="62"/>
+      <c r="AL20" s="62"/>
+      <c r="AM20" s="62"/>
+      <c r="AN20" s="62"/>
+      <c r="AO20" s="62"/>
+      <c r="AP20" s="62"/>
+      <c r="AQ20" s="62"/>
+      <c r="AR20" s="62"/>
+      <c r="AS20" s="62"/>
+      <c r="AT20" s="62"/>
+      <c r="AU20" s="62"/>
+      <c r="AV20" s="62"/>
+      <c r="AW20" s="62"/>
     </row>
-    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B21" s="59"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="59"/>
-      <c r="E21" s="59"/>
-      <c r="F21" s="59"/>
-      <c r="G21" s="59"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="59"/>
-      <c r="J21" s="59"/>
-      <c r="K21" s="59"/>
-      <c r="L21" s="59"/>
-      <c r="M21" s="59"/>
-      <c r="N21" s="59"/>
-      <c r="O21" s="59"/>
-      <c r="P21" s="59"/>
-      <c r="Q21" s="59"/>
-      <c r="R21" s="59"/>
-      <c r="S21" s="59"/>
-      <c r="T21" s="59"/>
-      <c r="U21" s="59"/>
-      <c r="V21" s="59"/>
-      <c r="W21" s="59"/>
-      <c r="X21" s="59"/>
-      <c r="Y21" s="59"/>
-      <c r="Z21" s="59"/>
-      <c r="AA21" s="59"/>
-      <c r="AB21" s="59"/>
-      <c r="AC21" s="59"/>
-      <c r="AD21" s="59"/>
-      <c r="AE21" s="59"/>
-      <c r="AF21" s="59"/>
-      <c r="AG21" s="59"/>
-      <c r="AH21" s="59"/>
-      <c r="AI21" s="59"/>
-      <c r="AJ21" s="59"/>
-      <c r="AK21" s="59"/>
-      <c r="AL21" s="59"/>
-      <c r="AM21" s="59"/>
-      <c r="AN21" s="59"/>
-      <c r="AO21" s="59"/>
-      <c r="AP21" s="59"/>
-      <c r="AQ21" s="59"/>
-      <c r="AR21" s="59"/>
-      <c r="AS21" s="59"/>
-      <c r="AT21" s="59"/>
-      <c r="AU21" s="59"/>
-      <c r="AV21" s="59"/>
-      <c r="AW21" s="59"/>
+    <row r="21" spans="2:49">
+      <c r="B21" s="62"/>
+      <c r="C21" s="62"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
+      <c r="F21" s="62"/>
+      <c r="G21" s="62"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
+      <c r="J21" s="62"/>
+      <c r="K21" s="62"/>
+      <c r="L21" s="62"/>
+      <c r="M21" s="62"/>
+      <c r="N21" s="62"/>
+      <c r="O21" s="62"/>
+      <c r="P21" s="62"/>
+      <c r="Q21" s="62"/>
+      <c r="R21" s="62"/>
+      <c r="S21" s="62"/>
+      <c r="T21" s="62"/>
+      <c r="U21" s="62"/>
+      <c r="V21" s="62"/>
+      <c r="W21" s="62"/>
+      <c r="X21" s="62"/>
+      <c r="Y21" s="62"/>
+      <c r="Z21" s="62"/>
+      <c r="AA21" s="62"/>
+      <c r="AB21" s="62"/>
+      <c r="AC21" s="62"/>
+      <c r="AD21" s="62"/>
+      <c r="AE21" s="62"/>
+      <c r="AF21" s="62"/>
+      <c r="AG21" s="62"/>
+      <c r="AH21" s="62"/>
+      <c r="AI21" s="62"/>
+      <c r="AJ21" s="62"/>
+      <c r="AK21" s="62"/>
+      <c r="AL21" s="62"/>
+      <c r="AM21" s="62"/>
+      <c r="AN21" s="62"/>
+      <c r="AO21" s="62"/>
+      <c r="AP21" s="62"/>
+      <c r="AQ21" s="62"/>
+      <c r="AR21" s="62"/>
+      <c r="AS21" s="62"/>
+      <c r="AT21" s="62"/>
+      <c r="AU21" s="62"/>
+      <c r="AV21" s="62"/>
+      <c r="AW21" s="62"/>
     </row>
-    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B22" s="59"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="59"/>
-      <c r="E22" s="59"/>
-      <c r="F22" s="59"/>
-      <c r="G22" s="59"/>
-      <c r="H22" s="59"/>
-      <c r="I22" s="59"/>
-      <c r="J22" s="59"/>
-      <c r="K22" s="59"/>
-      <c r="L22" s="59"/>
-      <c r="M22" s="59"/>
-      <c r="N22" s="59"/>
-      <c r="O22" s="59"/>
-      <c r="P22" s="59"/>
-      <c r="Q22" s="59"/>
-      <c r="R22" s="59"/>
-      <c r="S22" s="59"/>
-      <c r="T22" s="59"/>
-      <c r="U22" s="59"/>
-      <c r="V22" s="59"/>
-      <c r="W22" s="59"/>
-      <c r="X22" s="59"/>
-      <c r="Y22" s="59"/>
-      <c r="Z22" s="59"/>
-      <c r="AA22" s="59"/>
-      <c r="AB22" s="59"/>
-      <c r="AC22" s="59"/>
-      <c r="AD22" s="59"/>
-      <c r="AE22" s="59"/>
-      <c r="AF22" s="59"/>
-      <c r="AG22" s="59"/>
-      <c r="AH22" s="59"/>
-      <c r="AI22" s="59"/>
-      <c r="AJ22" s="59"/>
-      <c r="AK22" s="59"/>
-      <c r="AL22" s="59"/>
-      <c r="AM22" s="59"/>
-      <c r="AN22" s="59"/>
-      <c r="AO22" s="59"/>
-      <c r="AP22" s="59"/>
-      <c r="AQ22" s="59"/>
-      <c r="AR22" s="59"/>
-      <c r="AS22" s="59"/>
-      <c r="AT22" s="59"/>
-      <c r="AU22" s="59"/>
-      <c r="AV22" s="59"/>
-      <c r="AW22" s="59"/>
+    <row r="22" spans="2:49">
+      <c r="B22" s="62"/>
+      <c r="C22" s="62"/>
+      <c r="D22" s="62"/>
+      <c r="E22" s="62"/>
+      <c r="F22" s="62"/>
+      <c r="G22" s="62"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
+      <c r="J22" s="62"/>
+      <c r="K22" s="62"/>
+      <c r="L22" s="62"/>
+      <c r="M22" s="62"/>
+      <c r="N22" s="62"/>
+      <c r="O22" s="62"/>
+      <c r="P22" s="62"/>
+      <c r="Q22" s="62"/>
+      <c r="R22" s="62"/>
+      <c r="S22" s="62"/>
+      <c r="T22" s="62"/>
+      <c r="U22" s="62"/>
+      <c r="V22" s="62"/>
+      <c r="W22" s="62"/>
+      <c r="X22" s="62"/>
+      <c r="Y22" s="62"/>
+      <c r="Z22" s="62"/>
+      <c r="AA22" s="62"/>
+      <c r="AB22" s="62"/>
+      <c r="AC22" s="62"/>
+      <c r="AD22" s="62"/>
+      <c r="AE22" s="62"/>
+      <c r="AF22" s="62"/>
+      <c r="AG22" s="62"/>
+      <c r="AH22" s="62"/>
+      <c r="AI22" s="62"/>
+      <c r="AJ22" s="62"/>
+      <c r="AK22" s="62"/>
+      <c r="AL22" s="62"/>
+      <c r="AM22" s="62"/>
+      <c r="AN22" s="62"/>
+      <c r="AO22" s="62"/>
+      <c r="AP22" s="62"/>
+      <c r="AQ22" s="62"/>
+      <c r="AR22" s="62"/>
+      <c r="AS22" s="62"/>
+      <c r="AT22" s="62"/>
+      <c r="AU22" s="62"/>
+      <c r="AV22" s="62"/>
+      <c r="AW22" s="62"/>
     </row>
-    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B23" s="59"/>
-      <c r="C23" s="59"/>
-      <c r="D23" s="59"/>
-      <c r="E23" s="59"/>
-      <c r="F23" s="59"/>
-      <c r="G23" s="59"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="59"/>
-      <c r="J23" s="59"/>
-      <c r="K23" s="59"/>
-      <c r="L23" s="59"/>
-      <c r="M23" s="59"/>
-      <c r="N23" s="59"/>
-      <c r="O23" s="59"/>
-      <c r="P23" s="59"/>
-      <c r="Q23" s="59"/>
-      <c r="R23" s="59"/>
-      <c r="S23" s="59"/>
-      <c r="T23" s="59"/>
-      <c r="U23" s="59"/>
-      <c r="V23" s="59"/>
-      <c r="W23" s="59"/>
-      <c r="X23" s="59"/>
-      <c r="Y23" s="59"/>
-      <c r="Z23" s="59"/>
-      <c r="AA23" s="59"/>
-      <c r="AB23" s="59"/>
-      <c r="AC23" s="59"/>
-      <c r="AD23" s="59"/>
-      <c r="AE23" s="59"/>
-      <c r="AF23" s="59"/>
-      <c r="AG23" s="59"/>
-      <c r="AH23" s="59"/>
-      <c r="AI23" s="59"/>
-      <c r="AJ23" s="59"/>
-      <c r="AK23" s="59"/>
-      <c r="AL23" s="59"/>
-      <c r="AM23" s="59"/>
-      <c r="AN23" s="59"/>
-      <c r="AO23" s="59"/>
-      <c r="AP23" s="59"/>
-      <c r="AQ23" s="59"/>
-      <c r="AR23" s="59"/>
-      <c r="AS23" s="59"/>
-      <c r="AT23" s="59"/>
-      <c r="AU23" s="59"/>
-      <c r="AV23" s="59"/>
-      <c r="AW23" s="59"/>
+    <row r="23" spans="2:49">
+      <c r="B23" s="62"/>
+      <c r="C23" s="62"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
+      <c r="F23" s="62"/>
+      <c r="G23" s="62"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
+      <c r="J23" s="62"/>
+      <c r="K23" s="62"/>
+      <c r="L23" s="62"/>
+      <c r="M23" s="62"/>
+      <c r="N23" s="62"/>
+      <c r="O23" s="62"/>
+      <c r="P23" s="62"/>
+      <c r="Q23" s="62"/>
+      <c r="R23" s="62"/>
+      <c r="S23" s="62"/>
+      <c r="T23" s="62"/>
+      <c r="U23" s="62"/>
+      <c r="V23" s="62"/>
+      <c r="W23" s="62"/>
+      <c r="X23" s="62"/>
+      <c r="Y23" s="62"/>
+      <c r="Z23" s="62"/>
+      <c r="AA23" s="62"/>
+      <c r="AB23" s="62"/>
+      <c r="AC23" s="62"/>
+      <c r="AD23" s="62"/>
+      <c r="AE23" s="62"/>
+      <c r="AF23" s="62"/>
+      <c r="AG23" s="62"/>
+      <c r="AH23" s="62"/>
+      <c r="AI23" s="62"/>
+      <c r="AJ23" s="62"/>
+      <c r="AK23" s="62"/>
+      <c r="AL23" s="62"/>
+      <c r="AM23" s="62"/>
+      <c r="AN23" s="62"/>
+      <c r="AO23" s="62"/>
+      <c r="AP23" s="62"/>
+      <c r="AQ23" s="62"/>
+      <c r="AR23" s="62"/>
+      <c r="AS23" s="62"/>
+      <c r="AT23" s="62"/>
+      <c r="AU23" s="62"/>
+      <c r="AV23" s="62"/>
+      <c r="AW23" s="62"/>
     </row>
-    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B24" s="59"/>
-      <c r="C24" s="59"/>
-      <c r="D24" s="59"/>
-      <c r="E24" s="59"/>
-      <c r="F24" s="59"/>
-      <c r="G24" s="59"/>
-      <c r="H24" s="59"/>
-      <c r="I24" s="59"/>
-      <c r="J24" s="59"/>
-      <c r="K24" s="59"/>
-      <c r="L24" s="59"/>
-      <c r="M24" s="59"/>
-      <c r="N24" s="59"/>
-      <c r="O24" s="59"/>
-      <c r="P24" s="59"/>
-      <c r="Q24" s="59"/>
-      <c r="R24" s="59"/>
-      <c r="S24" s="59"/>
-      <c r="T24" s="59"/>
-      <c r="U24" s="59"/>
-      <c r="V24" s="59"/>
-      <c r="W24" s="59"/>
-      <c r="X24" s="59"/>
-      <c r="Y24" s="59"/>
-      <c r="Z24" s="59"/>
-      <c r="AA24" s="59"/>
-      <c r="AB24" s="59"/>
-      <c r="AC24" s="59"/>
-      <c r="AD24" s="59"/>
-      <c r="AE24" s="59"/>
-      <c r="AF24" s="59"/>
-      <c r="AG24" s="59"/>
-      <c r="AH24" s="59"/>
-      <c r="AI24" s="59"/>
-      <c r="AJ24" s="59"/>
-      <c r="AK24" s="59"/>
-      <c r="AL24" s="59"/>
-      <c r="AM24" s="59"/>
-      <c r="AN24" s="59"/>
-      <c r="AO24" s="59"/>
-      <c r="AP24" s="59"/>
-      <c r="AQ24" s="59"/>
-      <c r="AR24" s="59"/>
-      <c r="AS24" s="59"/>
-      <c r="AT24" s="59"/>
-      <c r="AU24" s="59"/>
-      <c r="AV24" s="59"/>
-      <c r="AW24" s="59"/>
+    <row r="24" spans="2:49">
+      <c r="B24" s="62"/>
+      <c r="C24" s="62"/>
+      <c r="D24" s="62"/>
+      <c r="E24" s="62"/>
+      <c r="F24" s="62"/>
+      <c r="G24" s="62"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
+      <c r="J24" s="62"/>
+      <c r="K24" s="62"/>
+      <c r="L24" s="62"/>
+      <c r="M24" s="62"/>
+      <c r="N24" s="62"/>
+      <c r="O24" s="62"/>
+      <c r="P24" s="62"/>
+      <c r="Q24" s="62"/>
+      <c r="R24" s="62"/>
+      <c r="S24" s="62"/>
+      <c r="T24" s="62"/>
+      <c r="U24" s="62"/>
+      <c r="V24" s="62"/>
+      <c r="W24" s="62"/>
+      <c r="X24" s="62"/>
+      <c r="Y24" s="62"/>
+      <c r="Z24" s="62"/>
+      <c r="AA24" s="62"/>
+      <c r="AB24" s="62"/>
+      <c r="AC24" s="62"/>
+      <c r="AD24" s="62"/>
+      <c r="AE24" s="62"/>
+      <c r="AF24" s="62"/>
+      <c r="AG24" s="62"/>
+      <c r="AH24" s="62"/>
+      <c r="AI24" s="62"/>
+      <c r="AJ24" s="62"/>
+      <c r="AK24" s="62"/>
+      <c r="AL24" s="62"/>
+      <c r="AM24" s="62"/>
+      <c r="AN24" s="62"/>
+      <c r="AO24" s="62"/>
+      <c r="AP24" s="62"/>
+      <c r="AQ24" s="62"/>
+      <c r="AR24" s="62"/>
+      <c r="AS24" s="62"/>
+      <c r="AT24" s="62"/>
+      <c r="AU24" s="62"/>
+      <c r="AV24" s="62"/>
+      <c r="AW24" s="62"/>
     </row>
-    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B25" s="59"/>
-      <c r="C25" s="59"/>
-      <c r="D25" s="59"/>
-      <c r="E25" s="59"/>
-      <c r="F25" s="59"/>
-      <c r="G25" s="59"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="59"/>
-      <c r="J25" s="59"/>
-      <c r="K25" s="59"/>
-      <c r="L25" s="59"/>
-      <c r="M25" s="59"/>
-      <c r="N25" s="59"/>
-      <c r="O25" s="59"/>
-      <c r="P25" s="59"/>
-      <c r="Q25" s="59"/>
-      <c r="R25" s="59"/>
-      <c r="S25" s="59"/>
-      <c r="T25" s="59"/>
-      <c r="U25" s="59"/>
-      <c r="V25" s="59"/>
-      <c r="W25" s="59"/>
-      <c r="X25" s="59"/>
-      <c r="Y25" s="59"/>
-      <c r="Z25" s="59"/>
-      <c r="AA25" s="59"/>
-      <c r="AB25" s="59"/>
-      <c r="AC25" s="59"/>
-      <c r="AD25" s="59"/>
-      <c r="AE25" s="59"/>
-      <c r="AF25" s="59"/>
-      <c r="AG25" s="59"/>
-      <c r="AH25" s="59"/>
-      <c r="AI25" s="59"/>
-      <c r="AJ25" s="59"/>
-      <c r="AK25" s="59"/>
-      <c r="AL25" s="59"/>
-      <c r="AM25" s="59"/>
-      <c r="AN25" s="59"/>
-      <c r="AO25" s="59"/>
-      <c r="AP25" s="59"/>
-      <c r="AQ25" s="59"/>
-      <c r="AR25" s="59"/>
-      <c r="AS25" s="59"/>
-      <c r="AT25" s="59"/>
-      <c r="AU25" s="59"/>
-      <c r="AV25" s="59"/>
-      <c r="AW25" s="59"/>
+    <row r="25" spans="2:49">
+      <c r="B25" s="62"/>
+      <c r="C25" s="62"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
+      <c r="F25" s="62"/>
+      <c r="G25" s="62"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
+      <c r="J25" s="62"/>
+      <c r="K25" s="62"/>
+      <c r="L25" s="62"/>
+      <c r="M25" s="62"/>
+      <c r="N25" s="62"/>
+      <c r="O25" s="62"/>
+      <c r="P25" s="62"/>
+      <c r="Q25" s="62"/>
+      <c r="R25" s="62"/>
+      <c r="S25" s="62"/>
+      <c r="T25" s="62"/>
+      <c r="U25" s="62"/>
+      <c r="V25" s="62"/>
+      <c r="W25" s="62"/>
+      <c r="X25" s="62"/>
+      <c r="Y25" s="62"/>
+      <c r="Z25" s="62"/>
+      <c r="AA25" s="62"/>
+      <c r="AB25" s="62"/>
+      <c r="AC25" s="62"/>
+      <c r="AD25" s="62"/>
+      <c r="AE25" s="62"/>
+      <c r="AF25" s="62"/>
+      <c r="AG25" s="62"/>
+      <c r="AH25" s="62"/>
+      <c r="AI25" s="62"/>
+      <c r="AJ25" s="62"/>
+      <c r="AK25" s="62"/>
+      <c r="AL25" s="62"/>
+      <c r="AM25" s="62"/>
+      <c r="AN25" s="62"/>
+      <c r="AO25" s="62"/>
+      <c r="AP25" s="62"/>
+      <c r="AQ25" s="62"/>
+      <c r="AR25" s="62"/>
+      <c r="AS25" s="62"/>
+      <c r="AT25" s="62"/>
+      <c r="AU25" s="62"/>
+      <c r="AV25" s="62"/>
+      <c r="AW25" s="62"/>
     </row>
-    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B26" s="59"/>
-      <c r="C26" s="59"/>
-      <c r="D26" s="59"/>
-      <c r="E26" s="59"/>
-      <c r="F26" s="59"/>
-      <c r="G26" s="59"/>
-      <c r="H26" s="59"/>
-      <c r="I26" s="59"/>
-      <c r="J26" s="59"/>
-      <c r="K26" s="59"/>
-      <c r="L26" s="59"/>
-      <c r="M26" s="59"/>
-      <c r="N26" s="59"/>
-      <c r="O26" s="59"/>
-      <c r="P26" s="59"/>
-      <c r="Q26" s="59"/>
-      <c r="R26" s="59"/>
-      <c r="S26" s="59"/>
-      <c r="T26" s="59"/>
-      <c r="U26" s="59"/>
-      <c r="V26" s="59"/>
-      <c r="W26" s="59"/>
-      <c r="X26" s="59"/>
-      <c r="Y26" s="59"/>
-      <c r="Z26" s="59"/>
-      <c r="AA26" s="59"/>
-      <c r="AB26" s="59"/>
-      <c r="AC26" s="59"/>
-      <c r="AD26" s="59"/>
-      <c r="AE26" s="59"/>
-      <c r="AF26" s="59"/>
-      <c r="AG26" s="59"/>
-      <c r="AH26" s="59"/>
-      <c r="AI26" s="59"/>
-      <c r="AJ26" s="59"/>
-      <c r="AK26" s="59"/>
-      <c r="AL26" s="59"/>
-      <c r="AM26" s="59"/>
-      <c r="AN26" s="59"/>
-      <c r="AO26" s="59"/>
-      <c r="AP26" s="59"/>
-      <c r="AQ26" s="59"/>
-      <c r="AR26" s="59"/>
-      <c r="AS26" s="59"/>
-      <c r="AT26" s="59"/>
-      <c r="AU26" s="59"/>
-      <c r="AV26" s="59"/>
-      <c r="AW26" s="59"/>
+    <row r="26" spans="2:49">
+      <c r="B26" s="62"/>
+      <c r="C26" s="62"/>
+      <c r="D26" s="62"/>
+      <c r="E26" s="62"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="62"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
+      <c r="J26" s="62"/>
+      <c r="K26" s="62"/>
+      <c r="L26" s="62"/>
+      <c r="M26" s="62"/>
+      <c r="N26" s="62"/>
+      <c r="O26" s="62"/>
+      <c r="P26" s="62"/>
+      <c r="Q26" s="62"/>
+      <c r="R26" s="62"/>
+      <c r="S26" s="62"/>
+      <c r="T26" s="62"/>
+      <c r="U26" s="62"/>
+      <c r="V26" s="62"/>
+      <c r="W26" s="62"/>
+      <c r="X26" s="62"/>
+      <c r="Y26" s="62"/>
+      <c r="Z26" s="62"/>
+      <c r="AA26" s="62"/>
+      <c r="AB26" s="62"/>
+      <c r="AC26" s="62"/>
+      <c r="AD26" s="62"/>
+      <c r="AE26" s="62"/>
+      <c r="AF26" s="62"/>
+      <c r="AG26" s="62"/>
+      <c r="AH26" s="62"/>
+      <c r="AI26" s="62"/>
+      <c r="AJ26" s="62"/>
+      <c r="AK26" s="62"/>
+      <c r="AL26" s="62"/>
+      <c r="AM26" s="62"/>
+      <c r="AN26" s="62"/>
+      <c r="AO26" s="62"/>
+      <c r="AP26" s="62"/>
+      <c r="AQ26" s="62"/>
+      <c r="AR26" s="62"/>
+      <c r="AS26" s="62"/>
+      <c r="AT26" s="62"/>
+      <c r="AU26" s="62"/>
+      <c r="AV26" s="62"/>
+      <c r="AW26" s="62"/>
     </row>
-    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B27" s="59"/>
-      <c r="C27" s="59"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="59"/>
-      <c r="G27" s="59"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="59"/>
-      <c r="J27" s="59"/>
-      <c r="K27" s="59"/>
-      <c r="L27" s="59"/>
-      <c r="M27" s="59"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="59"/>
-      <c r="Q27" s="59"/>
-      <c r="R27" s="59"/>
-      <c r="S27" s="59"/>
-      <c r="T27" s="59"/>
-      <c r="U27" s="59"/>
-      <c r="V27" s="59"/>
-      <c r="W27" s="59"/>
-      <c r="X27" s="59"/>
-      <c r="Y27" s="59"/>
-      <c r="Z27" s="59"/>
-      <c r="AA27" s="59"/>
-      <c r="AB27" s="59"/>
-      <c r="AC27" s="59"/>
-      <c r="AD27" s="59"/>
-      <c r="AE27" s="59"/>
-      <c r="AF27" s="59"/>
-      <c r="AG27" s="59"/>
-      <c r="AH27" s="59"/>
-      <c r="AI27" s="59"/>
-      <c r="AJ27" s="59"/>
-      <c r="AK27" s="59"/>
-      <c r="AL27" s="59"/>
-      <c r="AM27" s="59"/>
-      <c r="AN27" s="59"/>
-      <c r="AO27" s="59"/>
-      <c r="AP27" s="59"/>
-      <c r="AQ27" s="59"/>
-      <c r="AR27" s="59"/>
-      <c r="AS27" s="59"/>
-      <c r="AT27" s="59"/>
-      <c r="AU27" s="59"/>
-      <c r="AV27" s="59"/>
-      <c r="AW27" s="59"/>
+    <row r="27" spans="2:49">
+      <c r="B27" s="62"/>
+      <c r="C27" s="62"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
+      <c r="F27" s="62"/>
+      <c r="G27" s="62"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
+      <c r="J27" s="62"/>
+      <c r="K27" s="62"/>
+      <c r="L27" s="62"/>
+      <c r="M27" s="62"/>
+      <c r="N27" s="62"/>
+      <c r="O27" s="62"/>
+      <c r="P27" s="62"/>
+      <c r="Q27" s="62"/>
+      <c r="R27" s="62"/>
+      <c r="S27" s="62"/>
+      <c r="T27" s="62"/>
+      <c r="U27" s="62"/>
+      <c r="V27" s="62"/>
+      <c r="W27" s="62"/>
+      <c r="X27" s="62"/>
+      <c r="Y27" s="62"/>
+      <c r="Z27" s="62"/>
+      <c r="AA27" s="62"/>
+      <c r="AB27" s="62"/>
+      <c r="AC27" s="62"/>
+      <c r="AD27" s="62"/>
+      <c r="AE27" s="62"/>
+      <c r="AF27" s="62"/>
+      <c r="AG27" s="62"/>
+      <c r="AH27" s="62"/>
+      <c r="AI27" s="62"/>
+      <c r="AJ27" s="62"/>
+      <c r="AK27" s="62"/>
+      <c r="AL27" s="62"/>
+      <c r="AM27" s="62"/>
+      <c r="AN27" s="62"/>
+      <c r="AO27" s="62"/>
+      <c r="AP27" s="62"/>
+      <c r="AQ27" s="62"/>
+      <c r="AR27" s="62"/>
+      <c r="AS27" s="62"/>
+      <c r="AT27" s="62"/>
+      <c r="AU27" s="62"/>
+      <c r="AV27" s="62"/>
+      <c r="AW27" s="62"/>
     </row>
-    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B28" s="59"/>
-      <c r="C28" s="59"/>
-      <c r="D28" s="59"/>
-      <c r="E28" s="59"/>
-      <c r="F28" s="59"/>
-      <c r="G28" s="59"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
-      <c r="J28" s="59"/>
-      <c r="K28" s="59"/>
-      <c r="L28" s="59"/>
-      <c r="M28" s="59"/>
-      <c r="N28" s="59"/>
-      <c r="O28" s="59"/>
-      <c r="P28" s="59"/>
-      <c r="Q28" s="59"/>
-      <c r="R28" s="59"/>
-      <c r="S28" s="59"/>
-      <c r="T28" s="59"/>
-      <c r="U28" s="59"/>
-      <c r="V28" s="59"/>
-      <c r="W28" s="59"/>
-      <c r="X28" s="59"/>
-      <c r="Y28" s="59"/>
-      <c r="Z28" s="59"/>
-      <c r="AA28" s="59"/>
-      <c r="AB28" s="59"/>
-      <c r="AC28" s="59"/>
-      <c r="AD28" s="59"/>
-      <c r="AE28" s="59"/>
-      <c r="AF28" s="59"/>
-      <c r="AG28" s="59"/>
-      <c r="AH28" s="59"/>
-      <c r="AI28" s="59"/>
-      <c r="AJ28" s="59"/>
-      <c r="AK28" s="59"/>
-      <c r="AL28" s="59"/>
-      <c r="AM28" s="59"/>
-      <c r="AN28" s="59"/>
-      <c r="AO28" s="59"/>
-      <c r="AP28" s="59"/>
-      <c r="AQ28" s="59"/>
-      <c r="AR28" s="59"/>
-      <c r="AS28" s="59"/>
-      <c r="AT28" s="59"/>
-      <c r="AU28" s="59"/>
-      <c r="AV28" s="59"/>
-      <c r="AW28" s="59"/>
+    <row r="28" spans="2:49">
+      <c r="B28" s="62"/>
+      <c r="C28" s="62"/>
+      <c r="D28" s="62"/>
+      <c r="E28" s="62"/>
+      <c r="F28" s="62"/>
+      <c r="G28" s="62"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
+      <c r="J28" s="62"/>
+      <c r="K28" s="62"/>
+      <c r="L28" s="62"/>
+      <c r="M28" s="62"/>
+      <c r="N28" s="62"/>
+      <c r="O28" s="62"/>
+      <c r="P28" s="62"/>
+      <c r="Q28" s="62"/>
+      <c r="R28" s="62"/>
+      <c r="S28" s="62"/>
+      <c r="T28" s="62"/>
+      <c r="U28" s="62"/>
+      <c r="V28" s="62"/>
+      <c r="W28" s="62"/>
+      <c r="X28" s="62"/>
+      <c r="Y28" s="62"/>
+      <c r="Z28" s="62"/>
+      <c r="AA28" s="62"/>
+      <c r="AB28" s="62"/>
+      <c r="AC28" s="62"/>
+      <c r="AD28" s="62"/>
+      <c r="AE28" s="62"/>
+      <c r="AF28" s="62"/>
+      <c r="AG28" s="62"/>
+      <c r="AH28" s="62"/>
+      <c r="AI28" s="62"/>
+      <c r="AJ28" s="62"/>
+      <c r="AK28" s="62"/>
+      <c r="AL28" s="62"/>
+      <c r="AM28" s="62"/>
+      <c r="AN28" s="62"/>
+      <c r="AO28" s="62"/>
+      <c r="AP28" s="62"/>
+      <c r="AQ28" s="62"/>
+      <c r="AR28" s="62"/>
+      <c r="AS28" s="62"/>
+      <c r="AT28" s="62"/>
+      <c r="AU28" s="62"/>
+      <c r="AV28" s="62"/>
+      <c r="AW28" s="62"/>
     </row>
-    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B29" s="59"/>
-      <c r="C29" s="59"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="59"/>
-      <c r="G29" s="59"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="59"/>
-      <c r="K29" s="59"/>
-      <c r="L29" s="59"/>
-      <c r="M29" s="59"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="59"/>
-      <c r="Q29" s="59"/>
-      <c r="R29" s="59"/>
-      <c r="S29" s="59"/>
-      <c r="T29" s="59"/>
-      <c r="U29" s="59"/>
-      <c r="V29" s="59"/>
-      <c r="W29" s="59"/>
-      <c r="X29" s="59"/>
-      <c r="Y29" s="59"/>
-      <c r="Z29" s="59"/>
-      <c r="AA29" s="59"/>
-      <c r="AB29" s="59"/>
-      <c r="AC29" s="59"/>
-      <c r="AD29" s="59"/>
-      <c r="AE29" s="59"/>
-      <c r="AF29" s="59"/>
-      <c r="AG29" s="59"/>
-      <c r="AH29" s="59"/>
-      <c r="AI29" s="59"/>
-      <c r="AJ29" s="59"/>
-      <c r="AK29" s="59"/>
-      <c r="AL29" s="59"/>
-      <c r="AM29" s="59"/>
-      <c r="AN29" s="59"/>
-      <c r="AO29" s="59"/>
-      <c r="AP29" s="59"/>
-      <c r="AQ29" s="59"/>
-      <c r="AR29" s="59"/>
-      <c r="AS29" s="59"/>
-      <c r="AT29" s="59"/>
-      <c r="AU29" s="59"/>
-      <c r="AV29" s="59"/>
-      <c r="AW29" s="59"/>
+    <row r="29" spans="2:49">
+      <c r="B29" s="62"/>
+      <c r="C29" s="62"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
+      <c r="F29" s="62"/>
+      <c r="G29" s="62"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
+      <c r="J29" s="62"/>
+      <c r="K29" s="62"/>
+      <c r="L29" s="62"/>
+      <c r="M29" s="62"/>
+      <c r="N29" s="62"/>
+      <c r="O29" s="62"/>
+      <c r="P29" s="62"/>
+      <c r="Q29" s="62"/>
+      <c r="R29" s="62"/>
+      <c r="S29" s="62"/>
+      <c r="T29" s="62"/>
+      <c r="U29" s="62"/>
+      <c r="V29" s="62"/>
+      <c r="W29" s="62"/>
+      <c r="X29" s="62"/>
+      <c r="Y29" s="62"/>
+      <c r="Z29" s="62"/>
+      <c r="AA29" s="62"/>
+      <c r="AB29" s="62"/>
+      <c r="AC29" s="62"/>
+      <c r="AD29" s="62"/>
+      <c r="AE29" s="62"/>
+      <c r="AF29" s="62"/>
+      <c r="AG29" s="62"/>
+      <c r="AH29" s="62"/>
+      <c r="AI29" s="62"/>
+      <c r="AJ29" s="62"/>
+      <c r="AK29" s="62"/>
+      <c r="AL29" s="62"/>
+      <c r="AM29" s="62"/>
+      <c r="AN29" s="62"/>
+      <c r="AO29" s="62"/>
+      <c r="AP29" s="62"/>
+      <c r="AQ29" s="62"/>
+      <c r="AR29" s="62"/>
+      <c r="AS29" s="62"/>
+      <c r="AT29" s="62"/>
+      <c r="AU29" s="62"/>
+      <c r="AV29" s="62"/>
+      <c r="AW29" s="62"/>
     </row>
-    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B30" s="59"/>
-      <c r="C30" s="59"/>
-      <c r="D30" s="59"/>
-      <c r="E30" s="59"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="59"/>
-      <c r="H30" s="59"/>
-      <c r="I30" s="59"/>
-      <c r="J30" s="59"/>
-      <c r="K30" s="59"/>
-      <c r="L30" s="59"/>
-      <c r="M30" s="59"/>
-      <c r="N30" s="59"/>
-      <c r="O30" s="59"/>
-      <c r="P30" s="59"/>
-      <c r="Q30" s="59"/>
-      <c r="R30" s="59"/>
-      <c r="S30" s="59"/>
-      <c r="T30" s="59"/>
-      <c r="U30" s="59"/>
-      <c r="V30" s="59"/>
-      <c r="W30" s="59"/>
-      <c r="X30" s="59"/>
-      <c r="Y30" s="59"/>
-      <c r="Z30" s="59"/>
-      <c r="AA30" s="59"/>
-      <c r="AB30" s="59"/>
-      <c r="AC30" s="59"/>
-      <c r="AD30" s="59"/>
-      <c r="AE30" s="59"/>
-      <c r="AF30" s="59"/>
-      <c r="AG30" s="59"/>
-      <c r="AH30" s="59"/>
-      <c r="AI30" s="59"/>
-      <c r="AJ30" s="59"/>
-      <c r="AK30" s="59"/>
-      <c r="AL30" s="59"/>
-      <c r="AM30" s="59"/>
-      <c r="AN30" s="59"/>
-      <c r="AO30" s="59"/>
-      <c r="AP30" s="59"/>
-      <c r="AQ30" s="59"/>
-      <c r="AR30" s="59"/>
-      <c r="AS30" s="59"/>
-      <c r="AT30" s="59"/>
-      <c r="AU30" s="59"/>
-      <c r="AV30" s="59"/>
-      <c r="AW30" s="59"/>
+    <row r="30" spans="2:49">
+      <c r="B30" s="62"/>
+      <c r="C30" s="62"/>
+      <c r="D30" s="62"/>
+      <c r="E30" s="62"/>
+      <c r="F30" s="62"/>
+      <c r="G30" s="62"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
+      <c r="J30" s="62"/>
+      <c r="K30" s="62"/>
+      <c r="L30" s="62"/>
+      <c r="M30" s="62"/>
+      <c r="N30" s="62"/>
+      <c r="O30" s="62"/>
+      <c r="P30" s="62"/>
+      <c r="Q30" s="62"/>
+      <c r="R30" s="62"/>
+      <c r="S30" s="62"/>
+      <c r="T30" s="62"/>
+      <c r="U30" s="62"/>
+      <c r="V30" s="62"/>
+      <c r="W30" s="62"/>
+      <c r="X30" s="62"/>
+      <c r="Y30" s="62"/>
+      <c r="Z30" s="62"/>
+      <c r="AA30" s="62"/>
+      <c r="AB30" s="62"/>
+      <c r="AC30" s="62"/>
+      <c r="AD30" s="62"/>
+      <c r="AE30" s="62"/>
+      <c r="AF30" s="62"/>
+      <c r="AG30" s="62"/>
+      <c r="AH30" s="62"/>
+      <c r="AI30" s="62"/>
+      <c r="AJ30" s="62"/>
+      <c r="AK30" s="62"/>
+      <c r="AL30" s="62"/>
+      <c r="AM30" s="62"/>
+      <c r="AN30" s="62"/>
+      <c r="AO30" s="62"/>
+      <c r="AP30" s="62"/>
+      <c r="AQ30" s="62"/>
+      <c r="AR30" s="62"/>
+      <c r="AS30" s="62"/>
+      <c r="AT30" s="62"/>
+      <c r="AU30" s="62"/>
+      <c r="AV30" s="62"/>
+      <c r="AW30" s="62"/>
     </row>
-    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B31" s="59"/>
-      <c r="C31" s="59"/>
-      <c r="D31" s="59"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="59"/>
-      <c r="K31" s="59"/>
-      <c r="L31" s="59"/>
-      <c r="M31" s="59"/>
-      <c r="N31" s="59"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-      <c r="S31" s="59"/>
-      <c r="T31" s="59"/>
-      <c r="U31" s="59"/>
-      <c r="V31" s="59"/>
-      <c r="W31" s="59"/>
-      <c r="X31" s="59"/>
-      <c r="Y31" s="59"/>
-      <c r="Z31" s="59"/>
-      <c r="AA31" s="59"/>
-      <c r="AB31" s="59"/>
-      <c r="AC31" s="59"/>
-      <c r="AD31" s="59"/>
-      <c r="AE31" s="59"/>
-      <c r="AF31" s="59"/>
-      <c r="AG31" s="59"/>
-      <c r="AH31" s="59"/>
-      <c r="AI31" s="59"/>
-      <c r="AJ31" s="59"/>
-      <c r="AK31" s="59"/>
-      <c r="AL31" s="59"/>
-      <c r="AM31" s="59"/>
-      <c r="AN31" s="59"/>
-      <c r="AO31" s="59"/>
-      <c r="AP31" s="59"/>
-      <c r="AQ31" s="59"/>
-      <c r="AR31" s="59"/>
-      <c r="AS31" s="59"/>
-      <c r="AT31" s="59"/>
-      <c r="AU31" s="59"/>
-      <c r="AV31" s="59"/>
-      <c r="AW31" s="59"/>
+    <row r="31" spans="2:49">
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
+      <c r="F31" s="62"/>
+      <c r="G31" s="62"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
+      <c r="J31" s="62"/>
+      <c r="K31" s="62"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="62"/>
+      <c r="P31" s="62"/>
+      <c r="Q31" s="62"/>
+      <c r="R31" s="62"/>
+      <c r="S31" s="62"/>
+      <c r="T31" s="62"/>
+      <c r="U31" s="62"/>
+      <c r="V31" s="62"/>
+      <c r="W31" s="62"/>
+      <c r="X31" s="62"/>
+      <c r="Y31" s="62"/>
+      <c r="Z31" s="62"/>
+      <c r="AA31" s="62"/>
+      <c r="AB31" s="62"/>
+      <c r="AC31" s="62"/>
+      <c r="AD31" s="62"/>
+      <c r="AE31" s="62"/>
+      <c r="AF31" s="62"/>
+      <c r="AG31" s="62"/>
+      <c r="AH31" s="62"/>
+      <c r="AI31" s="62"/>
+      <c r="AJ31" s="62"/>
+      <c r="AK31" s="62"/>
+      <c r="AL31" s="62"/>
+      <c r="AM31" s="62"/>
+      <c r="AN31" s="62"/>
+      <c r="AO31" s="62"/>
+      <c r="AP31" s="62"/>
+      <c r="AQ31" s="62"/>
+      <c r="AR31" s="62"/>
+      <c r="AS31" s="62"/>
+      <c r="AT31" s="62"/>
+      <c r="AU31" s="62"/>
+      <c r="AV31" s="62"/>
+      <c r="AW31" s="62"/>
     </row>
-    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B32" s="59"/>
-      <c r="C32" s="59"/>
-      <c r="D32" s="59"/>
-      <c r="E32" s="59"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="59"/>
-      <c r="K32" s="59"/>
-      <c r="L32" s="59"/>
-      <c r="M32" s="59"/>
-      <c r="N32" s="59"/>
-      <c r="O32" s="59"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-      <c r="S32" s="59"/>
-      <c r="T32" s="59"/>
-      <c r="U32" s="59"/>
-      <c r="V32" s="59"/>
-      <c r="W32" s="59"/>
-      <c r="X32" s="59"/>
-      <c r="Y32" s="59"/>
-      <c r="Z32" s="59"/>
-      <c r="AA32" s="59"/>
-      <c r="AB32" s="59"/>
-      <c r="AC32" s="59"/>
-      <c r="AD32" s="59"/>
-      <c r="AE32" s="59"/>
-      <c r="AF32" s="59"/>
-      <c r="AG32" s="59"/>
-      <c r="AH32" s="59"/>
-      <c r="AI32" s="59"/>
-      <c r="AJ32" s="59"/>
-      <c r="AK32" s="59"/>
-      <c r="AL32" s="59"/>
-      <c r="AM32" s="59"/>
-      <c r="AN32" s="59"/>
-      <c r="AO32" s="59"/>
-      <c r="AP32" s="59"/>
-      <c r="AQ32" s="59"/>
-      <c r="AR32" s="59"/>
-      <c r="AS32" s="59"/>
-      <c r="AT32" s="59"/>
-      <c r="AU32" s="59"/>
-      <c r="AV32" s="59"/>
-      <c r="AW32" s="59"/>
+    <row r="32" spans="2:49">
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="62"/>
+      <c r="F32" s="62"/>
+      <c r="G32" s="62"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
+      <c r="J32" s="62"/>
+      <c r="K32" s="62"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="62"/>
+      <c r="P32" s="62"/>
+      <c r="Q32" s="62"/>
+      <c r="R32" s="62"/>
+      <c r="S32" s="62"/>
+      <c r="T32" s="62"/>
+      <c r="U32" s="62"/>
+      <c r="V32" s="62"/>
+      <c r="W32" s="62"/>
+      <c r="X32" s="62"/>
+      <c r="Y32" s="62"/>
+      <c r="Z32" s="62"/>
+      <c r="AA32" s="62"/>
+      <c r="AB32" s="62"/>
+      <c r="AC32" s="62"/>
+      <c r="AD32" s="62"/>
+      <c r="AE32" s="62"/>
+      <c r="AF32" s="62"/>
+      <c r="AG32" s="62"/>
+      <c r="AH32" s="62"/>
+      <c r="AI32" s="62"/>
+      <c r="AJ32" s="62"/>
+      <c r="AK32" s="62"/>
+      <c r="AL32" s="62"/>
+      <c r="AM32" s="62"/>
+      <c r="AN32" s="62"/>
+      <c r="AO32" s="62"/>
+      <c r="AP32" s="62"/>
+      <c r="AQ32" s="62"/>
+      <c r="AR32" s="62"/>
+      <c r="AS32" s="62"/>
+      <c r="AT32" s="62"/>
+      <c r="AU32" s="62"/>
+      <c r="AV32" s="62"/>
+      <c r="AW32" s="62"/>
     </row>
-    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B33" s="59"/>
-      <c r="C33" s="59"/>
-      <c r="D33" s="59"/>
-      <c r="E33" s="59"/>
-      <c r="F33" s="59"/>
-      <c r="G33" s="59"/>
-      <c r="H33" s="59"/>
-      <c r="I33" s="59"/>
-      <c r="J33" s="59"/>
-      <c r="K33" s="59"/>
-      <c r="L33" s="59"/>
-      <c r="M33" s="59"/>
-      <c r="N33" s="59"/>
-      <c r="O33" s="59"/>
-      <c r="P33" s="59"/>
-      <c r="Q33" s="59"/>
-      <c r="R33" s="59"/>
-      <c r="S33" s="59"/>
-      <c r="T33" s="59"/>
-      <c r="U33" s="59"/>
-      <c r="V33" s="59"/>
-      <c r="W33" s="59"/>
-      <c r="X33" s="59"/>
-      <c r="Y33" s="59"/>
-      <c r="Z33" s="59"/>
-      <c r="AA33" s="59"/>
-      <c r="AB33" s="59"/>
-      <c r="AC33" s="59"/>
-      <c r="AD33" s="59"/>
-      <c r="AE33" s="59"/>
-      <c r="AF33" s="59"/>
-      <c r="AG33" s="59"/>
-      <c r="AH33" s="59"/>
-      <c r="AI33" s="59"/>
-      <c r="AJ33" s="59"/>
-      <c r="AK33" s="59"/>
-      <c r="AL33" s="59"/>
-      <c r="AM33" s="59"/>
-      <c r="AN33" s="59"/>
-      <c r="AO33" s="59"/>
-      <c r="AP33" s="59"/>
-      <c r="AQ33" s="59"/>
-      <c r="AR33" s="59"/>
-      <c r="AS33" s="59"/>
-      <c r="AT33" s="59"/>
-      <c r="AU33" s="59"/>
-      <c r="AV33" s="59"/>
-      <c r="AW33" s="59"/>
+    <row r="33" spans="2:49">
+      <c r="B33" s="62"/>
+      <c r="C33" s="62"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
+      <c r="F33" s="62"/>
+      <c r="G33" s="62"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
+      <c r="J33" s="62"/>
+      <c r="K33" s="62"/>
+      <c r="L33" s="62"/>
+      <c r="M33" s="62"/>
+      <c r="N33" s="62"/>
+      <c r="O33" s="62"/>
+      <c r="P33" s="62"/>
+      <c r="Q33" s="62"/>
+      <c r="R33" s="62"/>
+      <c r="S33" s="62"/>
+      <c r="T33" s="62"/>
+      <c r="U33" s="62"/>
+      <c r="V33" s="62"/>
+      <c r="W33" s="62"/>
+      <c r="X33" s="62"/>
+      <c r="Y33" s="62"/>
+      <c r="Z33" s="62"/>
+      <c r="AA33" s="62"/>
+      <c r="AB33" s="62"/>
+      <c r="AC33" s="62"/>
+      <c r="AD33" s="62"/>
+      <c r="AE33" s="62"/>
+      <c r="AF33" s="62"/>
+      <c r="AG33" s="62"/>
+      <c r="AH33" s="62"/>
+      <c r="AI33" s="62"/>
+      <c r="AJ33" s="62"/>
+      <c r="AK33" s="62"/>
+      <c r="AL33" s="62"/>
+      <c r="AM33" s="62"/>
+      <c r="AN33" s="62"/>
+      <c r="AO33" s="62"/>
+      <c r="AP33" s="62"/>
+      <c r="AQ33" s="62"/>
+      <c r="AR33" s="62"/>
+      <c r="AS33" s="62"/>
+      <c r="AT33" s="62"/>
+      <c r="AU33" s="62"/>
+      <c r="AV33" s="62"/>
+      <c r="AW33" s="62"/>
     </row>
-    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
-      <c r="B34" s="59"/>
-      <c r="C34" s="59"/>
-      <c r="D34" s="59"/>
-      <c r="E34" s="59"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="59"/>
-      <c r="K34" s="59"/>
-      <c r="L34" s="59"/>
-      <c r="M34" s="59"/>
-      <c r="N34" s="59"/>
-      <c r="O34" s="59"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-      <c r="S34" s="59"/>
-      <c r="T34" s="59"/>
-      <c r="U34" s="59"/>
-      <c r="V34" s="59"/>
-      <c r="W34" s="59"/>
-      <c r="X34" s="59"/>
-      <c r="Y34" s="59"/>
-      <c r="Z34" s="59"/>
-      <c r="AA34" s="59"/>
-      <c r="AB34" s="59"/>
-      <c r="AC34" s="59"/>
-      <c r="AD34" s="59"/>
-      <c r="AE34" s="59"/>
-      <c r="AF34" s="59"/>
-      <c r="AG34" s="59"/>
-      <c r="AH34" s="59"/>
-      <c r="AI34" s="59"/>
-      <c r="AJ34" s="59"/>
-      <c r="AK34" s="59"/>
-      <c r="AL34" s="59"/>
-      <c r="AM34" s="59"/>
-      <c r="AN34" s="59"/>
-      <c r="AO34" s="59"/>
-      <c r="AP34" s="59"/>
-      <c r="AQ34" s="59"/>
-      <c r="AR34" s="59"/>
-      <c r="AS34" s="59"/>
-      <c r="AT34" s="59"/>
-      <c r="AU34" s="59"/>
-      <c r="AV34" s="59"/>
-      <c r="AW34" s="59"/>
+    <row r="34" spans="2:49">
+      <c r="B34" s="62"/>
+      <c r="C34" s="62"/>
+      <c r="D34" s="62"/>
+      <c r="E34" s="62"/>
+      <c r="F34" s="62"/>
+      <c r="G34" s="62"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
+      <c r="J34" s="62"/>
+      <c r="K34" s="62"/>
+      <c r="L34" s="62"/>
+      <c r="M34" s="62"/>
+      <c r="N34" s="62"/>
+      <c r="O34" s="62"/>
+      <c r="P34" s="62"/>
+      <c r="Q34" s="62"/>
+      <c r="R34" s="62"/>
+      <c r="S34" s="62"/>
+      <c r="T34" s="62"/>
+      <c r="U34" s="62"/>
+      <c r="V34" s="62"/>
+      <c r="W34" s="62"/>
+      <c r="X34" s="62"/>
+      <c r="Y34" s="62"/>
+      <c r="Z34" s="62"/>
+      <c r="AA34" s="62"/>
+      <c r="AB34" s="62"/>
+      <c r="AC34" s="62"/>
+      <c r="AD34" s="62"/>
+      <c r="AE34" s="62"/>
+      <c r="AF34" s="62"/>
+      <c r="AG34" s="62"/>
+      <c r="AH34" s="62"/>
+      <c r="AI34" s="62"/>
+      <c r="AJ34" s="62"/>
+      <c r="AK34" s="62"/>
+      <c r="AL34" s="62"/>
+      <c r="AM34" s="62"/>
+      <c r="AN34" s="62"/>
+      <c r="AO34" s="62"/>
+      <c r="AP34" s="62"/>
+      <c r="AQ34" s="62"/>
+      <c r="AR34" s="62"/>
+      <c r="AS34" s="62"/>
+      <c r="AT34" s="62"/>
+      <c r="AU34" s="62"/>
+      <c r="AV34" s="62"/>
+      <c r="AW34" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
     <mergeCell ref="B18:AW34"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
@@ -9292,6 +9278,21 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9300,7 +9301,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9308,7 +9309,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -9322,7 +9323,7 @@
     <col min="16" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:36" ht="31.5" customHeight="1">
       <c r="A1" s="43" t="s">
         <v>83</v>
       </c>
@@ -9360,121 +9361,121 @@
       <c r="AG1" s="44"/>
       <c r="AH1" s="44"/>
       <c r="AI1" s="44"/>
-      <c r="AJ1" s="47"/>
+      <c r="AJ1" s="48"/>
     </row>
-    <row r="2" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+    <row r="2" spans="1:36" ht="31.5" customHeight="1">
+      <c r="A2" s="46" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="41" t="s">
+      <c r="B2" s="51" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="41" t="s">
+      <c r="C2" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="41" t="s">
+      <c r="D2" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="41" t="s">
+      <c r="E2" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="41" t="s">
+      <c r="F2" s="51" t="s">
         <v>26</v>
       </c>
       <c r="G2" s="43" t="s">
         <v>25</v>
       </c>
       <c r="H2" s="44"/>
-      <c r="I2" s="47"/>
-      <c r="J2" s="42" t="s">
+      <c r="I2" s="48"/>
+      <c r="J2" s="45" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="42" t="s">
+      <c r="K2" s="45" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="42" t="s">
+      <c r="L2" s="45" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="42" t="s">
+      <c r="M2" s="45" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="42" t="s">
+      <c r="N2" s="45" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="42" t="s">
+      <c r="O2" s="45" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="42" t="s">
+      <c r="P2" s="45" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="42" t="s">
+      <c r="Q2" s="45" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="42" t="s">
+      <c r="R2" s="45" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="42" t="s">
+      <c r="S2" s="45" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="42" t="s">
+      <c r="T2" s="45" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="42" t="s">
+      <c r="U2" s="45" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="42" t="s">
+      <c r="V2" s="45" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="42" t="s">
+      <c r="W2" s="45" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="48" t="s">
+      <c r="X2" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="48" t="s">
+      <c r="Y2" s="49" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="42" t="s">
+      <c r="Z2" s="45" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="42" t="s">
+      <c r="AA2" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="42" t="s">
+      <c r="AB2" s="45" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="42" t="s">
+      <c r="AC2" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="48" t="s">
+      <c r="AD2" s="49" t="s">
         <v>79</v>
       </c>
-      <c r="AE2" s="48" t="s">
+      <c r="AE2" s="49" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="42" t="s">
+      <c r="AF2" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="42" t="s">
+      <c r="AG2" s="45" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="42" t="s">
+      <c r="AH2" s="45" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="58" t="s">
+      <c r="AI2" s="61" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="42" t="s">
+      <c r="AJ2" s="45" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="41"/>
-      <c r="C3" s="41"/>
-      <c r="D3" s="41"/>
-      <c r="E3" s="41"/>
-      <c r="F3" s="41"/>
+    <row r="3" spans="1:36" ht="75">
+      <c r="A3" s="47"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="G3" s="16" t="s">
         <v>36</v>
       </c>
@@ -9484,35 +9485,35 @@
       <c r="I3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="42"/>
-      <c r="K3" s="42"/>
-      <c r="L3" s="42"/>
-      <c r="M3" s="42"/>
-      <c r="N3" s="42"/>
-      <c r="O3" s="42"/>
-      <c r="P3" s="42"/>
-      <c r="Q3" s="42"/>
-      <c r="R3" s="42"/>
-      <c r="S3" s="42"/>
-      <c r="T3" s="42"/>
-      <c r="U3" s="42"/>
-      <c r="V3" s="42"/>
-      <c r="W3" s="42"/>
-      <c r="X3" s="49"/>
-      <c r="Y3" s="49"/>
-      <c r="Z3" s="42"/>
-      <c r="AA3" s="42"/>
-      <c r="AB3" s="42"/>
-      <c r="AC3" s="42"/>
-      <c r="AD3" s="49"/>
-      <c r="AE3" s="49"/>
-      <c r="AF3" s="42"/>
-      <c r="AG3" s="42"/>
-      <c r="AH3" s="42"/>
-      <c r="AI3" s="58"/>
-      <c r="AJ3" s="42"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="45"/>
+      <c r="L3" s="45"/>
+      <c r="M3" s="45"/>
+      <c r="N3" s="45"/>
+      <c r="O3" s="45"/>
+      <c r="P3" s="45"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="45"/>
+      <c r="T3" s="45"/>
+      <c r="U3" s="45"/>
+      <c r="V3" s="45"/>
+      <c r="W3" s="45"/>
+      <c r="X3" s="50"/>
+      <c r="Y3" s="50"/>
+      <c r="Z3" s="45"/>
+      <c r="AA3" s="45"/>
+      <c r="AB3" s="45"/>
+      <c r="AC3" s="45"/>
+      <c r="AD3" s="50"/>
+      <c r="AE3" s="50"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="45"/>
+      <c r="AH3" s="45"/>
+      <c r="AI3" s="61"/>
+      <c r="AJ3" s="45"/>
     </row>
-    <row r="4" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:36" ht="35.25" customHeight="1">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9593,7 +9594,7 @@
         <v>15909.090909090897</v>
       </c>
     </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:36" ht="30" customHeight="1">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9669,7 +9670,7 @@
         <v>68436.363636363647</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:36" ht="33" customHeight="1">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9745,7 +9746,7 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:36" ht="31.5" customHeight="1">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9821,7 +9822,7 @@
         <v>-0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:36" ht="30" customHeight="1">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9904,7 +9905,7 @@
         <v>917.81818181817653</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:36" ht="30" customHeight="1">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9984,7 +9985,7 @@
         <v>28440</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:36" ht="30" customHeight="1">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -10072,6 +10073,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A2:A3"/>
@@ -10088,25 +10108,6 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AD2:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/!!!ЗП.xlsx
+++ b/!!!ЗП.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Табель" sheetId="1" r:id="rId1"/>
@@ -13,7 +13,7 @@
     <sheet name="Ведомость к выдаче" sheetId="6" r:id="rId4"/>
     <sheet name="Расчетная ведость за месяц" sheetId="4" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
@@ -23,7 +23,7 @@
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="Q2" authorId="0">
+    <comment ref="T2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -49,7 +49,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R2" authorId="0">
+    <comment ref="U2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -75,7 +75,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W2" authorId="0">
+    <comment ref="Z2" authorId="0">
       <text>
         <r>
           <rPr>
@@ -282,7 +282,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="375" uniqueCount="112">
   <si>
     <t>Плановый цикл производства (шаблон)</t>
   </si>
@@ -566,16 +566,70 @@
   </si>
   <si>
     <t>"Итого к</t>
+  </si>
+  <si>
+    <t>отработано 1й период и второй , и переработки</t>
+  </si>
+  <si>
+    <t>плановая и постоянная из прошлой ведомости, но может быть скорректирована</t>
+  </si>
+  <si>
+    <t>орс1 не ред, орс2</t>
+  </si>
+  <si>
+    <t>орс1</t>
+  </si>
+  <si>
+    <t>ОРС 2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">итого рассчитано = рассет1 + расчет2 </t>
+  </si>
+  <si>
+    <t>итого начислено 1й период</t>
+  </si>
+  <si>
+    <t>итого начислено 1 из прошлой ведомости, после итого или мотивации</t>
+  </si>
+  <si>
+    <t>мотивация должна редактироваться</t>
+  </si>
+  <si>
+    <t>просмотр расчета (для руководителей)</t>
+  </si>
+  <si>
+    <t>старая мотивация переименуем в "расчет выработки (станки)"</t>
+  </si>
+  <si>
+    <t>доп графа мотивация только итоговая за месяц (кнс и  т.д.), не подгружается, вносится вручную</t>
+  </si>
+  <si>
+    <t>итго начислено за прошлый период - подтягивается из прошлого периода по сотруднику</t>
+  </si>
+  <si>
+    <t>Отработано первый период</t>
+  </si>
+  <si>
+    <t>Отработано второй период</t>
+  </si>
+  <si>
+    <t>\\\мотивация всегда только за месяц, загружается за вторую половину</t>
+  </si>
+  <si>
+    <t>мотивация 1, мотивация 2 и сумма, 1я и 2я могут как загружаться так и редактироватьсся. Если не загружена, считает как 0</t>
+  </si>
+  <si>
+    <t>остальные ведомости считаются так же</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]d\ mmm;@"/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="25" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2813,7 +2867,7 @@
     <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="164" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="71">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2894,6 +2948,10 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2939,14 +2997,17 @@
     <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="26" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -2963,9 +3024,6 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="28" xfId="0" applyBorder="1" applyAlignment="1"/>
@@ -2975,10 +3033,22 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="31" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="32" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="33" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="22" borderId="0" xfId="0" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1497">
     <cellStyle name="20% - Акцент1 1" xfId="2"/>
@@ -4564,6 +4634,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -4598,6 +4669,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Стандартная">
@@ -4773,14 +4845,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:AJ34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AA12" sqref="AA12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="11.140625" customWidth="1"/>
     <col min="2" max="2" width="12" customWidth="1"/>
@@ -4790,54 +4862,54 @@
     <col min="35" max="36" width="8.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:36" ht="15.75" thickBot="1"/>
-    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1">
-      <c r="A3" s="33" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3" s="34"/>
-      <c r="C3" s="34"/>
-      <c r="D3" s="34"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="34"/>
-      <c r="H3" s="34"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="34"/>
-      <c r="L3" s="34"/>
-      <c r="M3" s="34"/>
-      <c r="N3" s="34"/>
-      <c r="O3" s="34"/>
-      <c r="P3" s="34"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="34"/>
-      <c r="T3" s="34"/>
-      <c r="U3" s="34"/>
-      <c r="V3" s="34"/>
-      <c r="W3" s="34"/>
-      <c r="X3" s="34"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="34"/>
-      <c r="AA3" s="34"/>
-      <c r="AB3" s="34"/>
-      <c r="AC3" s="34"/>
-      <c r="AD3" s="34"/>
-      <c r="AE3" s="34"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="34"/>
-      <c r="AH3" s="34"/>
-      <c r="AI3" s="35"/>
-      <c r="AJ3" s="29" t="s">
+    <row r="2" spans="1:36" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="3" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="B3" s="36"/>
+      <c r="C3" s="36"/>
+      <c r="D3" s="36"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="36"/>
+      <c r="H3" s="36"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
+      <c r="K3" s="36"/>
+      <c r="L3" s="36"/>
+      <c r="M3" s="36"/>
+      <c r="N3" s="36"/>
+      <c r="O3" s="36"/>
+      <c r="P3" s="36"/>
+      <c r="Q3" s="36"/>
+      <c r="R3" s="36"/>
+      <c r="S3" s="36"/>
+      <c r="T3" s="36"/>
+      <c r="U3" s="36"/>
+      <c r="V3" s="36"/>
+      <c r="W3" s="36"/>
+      <c r="X3" s="36"/>
+      <c r="Y3" s="36"/>
+      <c r="Z3" s="36"/>
+      <c r="AA3" s="36"/>
+      <c r="AB3" s="36"/>
+      <c r="AC3" s="36"/>
+      <c r="AD3" s="36"/>
+      <c r="AE3" s="36"/>
+      <c r="AF3" s="36"/>
+      <c r="AG3" s="36"/>
+      <c r="AH3" s="36"/>
+      <c r="AI3" s="37"/>
+      <c r="AJ3" s="31" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:36" ht="42" customHeight="1">
-      <c r="A4" s="40" t="s">
+    <row r="4" spans="1:36" ht="42" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="41"/>
+      <c r="B4" s="43"/>
       <c r="C4" s="15">
         <v>336.12</v>
       </c>
@@ -4937,13 +5009,13 @@
       <c r="AI4" s="18" t="s">
         <v>62</v>
       </c>
-      <c r="AJ4" s="30"/>
-    </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="AJ4" s="32"/>
+    </row>
+    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="38" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="37"/>
+      <c r="B5" s="39"/>
       <c r="C5" s="2">
         <v>8</v>
       </c>
@@ -5050,11 +5122,11 @@
         <v>176</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1">
-      <c r="A6" s="38" t="s">
+    <row r="6" spans="1:36" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="40" t="s">
         <v>3</v>
       </c>
-      <c r="B6" s="39"/>
+      <c r="B6" s="41"/>
       <c r="C6" s="4">
         <v>11</v>
       </c>
@@ -5161,7 +5233,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="30" customHeight="1">
+    <row r="7" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1"/>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -5199,56 +5271,56 @@
       <c r="AI7" s="1"/>
       <c r="AJ7" s="1"/>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1">
-      <c r="A8" s="32" t="s">
+    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="32"/>
-      <c r="I8" s="32"/>
-      <c r="J8" s="32"/>
-      <c r="K8" s="32"/>
-      <c r="L8" s="32"/>
-      <c r="M8" s="32"/>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="32"/>
-      <c r="S8" s="32"/>
-      <c r="T8" s="32"/>
-      <c r="U8" s="32"/>
-      <c r="V8" s="32"/>
-      <c r="W8" s="32"/>
-      <c r="X8" s="32"/>
-      <c r="Y8" s="32"/>
-      <c r="Z8" s="32"/>
-      <c r="AA8" s="32"/>
-      <c r="AB8" s="32"/>
-      <c r="AC8" s="32"/>
-      <c r="AD8" s="32"/>
-      <c r="AE8" s="32"/>
-      <c r="AF8" s="32"/>
-      <c r="AG8" s="32"/>
-      <c r="AH8" s="32"/>
-      <c r="AI8" s="31" t="s">
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="34"/>
+      <c r="I8" s="34"/>
+      <c r="J8" s="34"/>
+      <c r="K8" s="34"/>
+      <c r="L8" s="34"/>
+      <c r="M8" s="34"/>
+      <c r="N8" s="34"/>
+      <c r="O8" s="34"/>
+      <c r="P8" s="34"/>
+      <c r="Q8" s="34"/>
+      <c r="R8" s="34"/>
+      <c r="S8" s="34"/>
+      <c r="T8" s="34"/>
+      <c r="U8" s="34"/>
+      <c r="V8" s="34"/>
+      <c r="W8" s="34"/>
+      <c r="X8" s="34"/>
+      <c r="Y8" s="34"/>
+      <c r="Z8" s="34"/>
+      <c r="AA8" s="34"/>
+      <c r="AB8" s="34"/>
+      <c r="AC8" s="34"/>
+      <c r="AD8" s="34"/>
+      <c r="AE8" s="34"/>
+      <c r="AF8" s="34"/>
+      <c r="AG8" s="34"/>
+      <c r="AH8" s="34"/>
+      <c r="AI8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="AJ8" s="31" t="s">
+      <c r="AJ8" s="33" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="45.75" customHeight="1">
-      <c r="A9" s="42" t="str">
+    <row r="9" spans="1:36" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="44" t="str">
         <f>A4</f>
         <v>Дата</v>
       </c>
-      <c r="B9" s="42"/>
+      <c r="B9" s="44"/>
       <c r="C9" s="15">
         <f>C4</f>
         <v>336.12</v>
@@ -5361,11 +5433,11 @@
       <c r="AH9" s="15">
         <v>46022</v>
       </c>
-      <c r="AI9" s="31"/>
-      <c r="AJ9" s="31"/>
-    </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1">
-      <c r="A10" s="31" t="s">
+      <c r="AI9" s="33"/>
+      <c r="AJ9" s="33"/>
+    </row>
+    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B10" s="2" t="str">
@@ -5478,8 +5550,8 @@
         <v>65</v>
       </c>
     </row>
-    <row r="11" spans="1:36" ht="30" customHeight="1">
-      <c r="A11" s="31"/>
+    <row r="11" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="33"/>
       <c r="B11" s="2" t="s">
         <v>7</v>
       </c>
@@ -5594,8 +5666,8 @@
         <v>16</v>
       </c>
     </row>
-    <row r="12" spans="1:36" ht="33" customHeight="1">
-      <c r="A12" s="31" t="s">
+    <row r="12" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="33" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="2" t="str">
@@ -5708,8 +5780,8 @@
         <v>146</v>
       </c>
     </row>
-    <row r="13" spans="1:36" ht="30" customHeight="1">
-      <c r="A13" s="31"/>
+    <row r="13" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="33"/>
       <c r="B13" s="2" t="str">
         <f>B11</f>
         <v>Переработка</v>
@@ -5828,8 +5900,8 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:36" ht="33" customHeight="1">
-      <c r="A14" s="31" t="s">
+    <row r="14" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="33" t="s">
         <v>44</v>
       </c>
       <c r="B14" s="2" t="s">
@@ -5941,8 +6013,8 @@
         <v>178</v>
       </c>
     </row>
-    <row r="15" spans="1:36" ht="30" customHeight="1">
-      <c r="A15" s="31"/>
+    <row r="15" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="33"/>
       <c r="B15" s="2" t="str">
         <f>B13</f>
         <v>Переработка</v>
@@ -6075,44 +6147,44 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:36">
-      <c r="A16" s="28" t="s">
+    <row r="16" spans="1:36" x14ac:dyDescent="0.25">
+      <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="28"/>
-      <c r="C16" s="28"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" s="28" t="s">
+      <c r="B16" s="30"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="30" t="s">
         <v>11</v>
       </c>
-      <c r="B17" s="28"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:5">
+      <c r="B17" s="30"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:5">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="21" spans="1:5">
-      <c r="A21" s="28" t="s">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B21" s="28"/>
+      <c r="B21" s="30"/>
       <c r="C21" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B22" t="s">
         <v>17</v>
       </c>
@@ -6123,7 +6195,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="23" spans="1:5">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>12</v>
       </c>
@@ -6139,7 +6211,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="24" spans="1:5">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>13</v>
       </c>
@@ -6155,7 +6227,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:5">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>14</v>
       </c>
@@ -6172,21 +6244,21 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="1:5">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:5">
-      <c r="A28" s="28" t="s">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="B28" s="28"/>
+      <c r="B28" s="30"/>
       <c r="C28" s="8">
         <v>10000</v>
       </c>
     </row>
-    <row r="29" spans="1:5">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B29" t="s">
         <v>17</v>
       </c>
@@ -6197,7 +6269,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="30" spans="1:5">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>12</v>
       </c>
@@ -6213,7 +6285,7 @@
         <v>8750</v>
       </c>
     </row>
-    <row r="31" spans="1:5">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>13</v>
       </c>
@@ -6229,7 +6301,7 @@
         <v>11477.272727272728</v>
       </c>
     </row>
-    <row r="32" spans="1:5">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>14</v>
       </c>
@@ -6246,7 +6318,7 @@
         <v>12840.909090909092</v>
       </c>
     </row>
-    <row r="34" spans="1:1">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
         <v>21</v>
       </c>
@@ -6276,15 +6348,15 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Y10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH40"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane xSplit="9" topLeftCell="J1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="N4" sqref="N4"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane xSplit="10" topLeftCell="K1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6292,148 +6364,165 @@
     <col min="4" max="4" width="14.140625" customWidth="1"/>
     <col min="5" max="5" width="11.5703125" customWidth="1"/>
     <col min="6" max="6" width="9.140625" customWidth="1"/>
-    <col min="11" max="11" width="9.42578125" customWidth="1"/>
-    <col min="12" max="12" width="10.5703125" customWidth="1"/>
-    <col min="13" max="13" width="9" customWidth="1"/>
-    <col min="15" max="15" width="9.28515625" customWidth="1"/>
+    <col min="7" max="10" width="9.140625" style="67"/>
+    <col min="12" max="12" width="9.42578125" customWidth="1"/>
+    <col min="13" max="13" width="10.5703125" customWidth="1"/>
+    <col min="14" max="14" width="10.5703125" style="70" customWidth="1"/>
+    <col min="15" max="15" width="9" customWidth="1"/>
+    <col min="18" max="18" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" ht="31.5" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>67</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-    </row>
-    <row r="2" spans="1:25" ht="31.5" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+    </row>
+    <row r="2" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44"/>
+      <c r="H2" s="48"/>
       <c r="I2" s="48"/>
-      <c r="J2" s="45" t="s">
+      <c r="J2" s="51"/>
+      <c r="K2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="L2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="45" t="s">
-        <v>40</v>
-      </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="68"/>
+      <c r="O2" s="46" t="s">
+        <v>98</v>
+      </c>
+      <c r="P2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="Q2" s="28"/>
+      <c r="R2" s="46" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="S2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="T2" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="U2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="V2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="W2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="X2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="Y2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="Z2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="45" t="s">
+      <c r="AA2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="AB2" s="46" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="3" spans="1:25" ht="75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="9" t="s">
+    <row r="3" spans="1:34" ht="85.5" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
+      <c r="G3" s="65" t="s">
         <v>36</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>59</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="H3" s="65" t="s">
+        <v>107</v>
+      </c>
+      <c r="I3" s="65" t="s">
+        <v>108</v>
+      </c>
+      <c r="J3" s="65" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="45"/>
-      <c r="Y3" s="45"/>
-    </row>
-    <row r="4" spans="1:25" ht="35.25" customHeight="1">
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="68" t="s">
+        <v>97</v>
+      </c>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+    </row>
+    <row r="4" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -6452,33 +6541,34 @@
       <c r="F4" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="G4" s="2">
-        <v>176</v>
-      </c>
-      <c r="H4" s="2">
-        <v>60</v>
-      </c>
-      <c r="I4" s="2">
-        <v>0</v>
-      </c>
-      <c r="J4" s="12">
+      <c r="G4" s="66">
+        <v>168</v>
+      </c>
+      <c r="H4" s="66">
+        <v>80</v>
+      </c>
+      <c r="I4" s="66">
+        <v>88</v>
+      </c>
+      <c r="J4" s="66">
+        <v>0</v>
+      </c>
+      <c r="K4" s="12">
         <v>100000</v>
       </c>
-      <c r="K4" s="12">
+      <c r="L4" s="12">
         <v>50000</v>
       </c>
-      <c r="L4" s="12">
-        <f>J4-K4</f>
+      <c r="M4" s="12">
+        <f>K4-L4</f>
         <v>50000</v>
       </c>
-      <c r="M4" s="11">
-        <v>1</v>
-      </c>
-      <c r="N4" s="12">
-        <f>(K4/176*H4)+(L4*M4/176*H4)</f>
-        <v>34090.909090909088</v>
-      </c>
-      <c r="O4" s="12"/>
+      <c r="N4" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="O4" s="11">
+        <v>0.95</v>
+      </c>
       <c r="P4" s="12"/>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -6488,12 +6578,15 @@
       <c r="V4" s="12"/>
       <c r="W4" s="12"/>
       <c r="X4" s="12"/>
-      <c r="Y4" s="12">
-        <f t="shared" ref="Y4:Y10" si="0">SUM(N4:X4)</f>
-        <v>34090.909090909088</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="35.25" customHeight="1">
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12"/>
+      <c r="AA4" s="12"/>
+      <c r="AB4" s="12">
+        <f t="shared" ref="AB4:AB10" si="0">SUM(P4:AA4)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -6512,34 +6605,34 @@
       <c r="F5" s="20" t="s">
         <v>46</v>
       </c>
-      <c r="G5" s="20">
+      <c r="G5" s="66">
         <v>184</v>
       </c>
-      <c r="H5" s="20">
+      <c r="H5" s="66">
         <v>20</v>
       </c>
-      <c r="I5" s="20">
-        <v>0</v>
-      </c>
-      <c r="J5" s="12">
+      <c r="I5" s="66"/>
+      <c r="J5" s="66">
+        <v>0</v>
+      </c>
+      <c r="K5" s="12">
         <v>100000</v>
       </c>
-      <c r="K5" s="12">
+      <c r="L5" s="12">
         <v>50000</v>
       </c>
-      <c r="L5" s="12">
-        <f>J5-K5</f>
+      <c r="M5" s="12">
+        <f>K5-L5</f>
         <v>50000</v>
       </c>
-      <c r="M5" s="11">
+      <c r="N5" s="11"/>
+      <c r="O5" s="11">
         <v>1</v>
       </c>
-      <c r="N5" s="12">
-        <f>(K5/176*H5)+(L5*M5/176*H5)</f>
+      <c r="P5" s="12">
+        <f>(L5/176*H5)+(M5*O5/176*H5)</f>
         <v>11363.636363636362</v>
       </c>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
       <c r="Q5" s="12"/>
       <c r="R5" s="12"/>
       <c r="S5" s="12"/>
@@ -6548,12 +6641,15 @@
       <c r="V5" s="12"/>
       <c r="W5" s="12"/>
       <c r="X5" s="12"/>
-      <c r="Y5" s="12">
+      <c r="Y5" s="12"/>
+      <c r="Z5" s="12"/>
+      <c r="AA5" s="12"/>
+      <c r="AB5" s="12">
         <f t="shared" si="0"/>
         <v>11363.636363636362</v>
       </c>
     </row>
-    <row r="6" spans="1:25" ht="33" customHeight="1">
+    <row r="6" spans="1:34" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -6572,34 +6668,34 @@
       <c r="F6" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="G6" s="2">
+      <c r="G6" s="66">
         <v>176</v>
       </c>
-      <c r="H6" s="2">
+      <c r="H6" s="66">
         <v>88</v>
       </c>
-      <c r="I6" s="2">
-        <v>0</v>
-      </c>
-      <c r="J6" s="12">
+      <c r="I6" s="66"/>
+      <c r="J6" s="66">
+        <v>0</v>
+      </c>
+      <c r="K6" s="12">
         <v>140000</v>
       </c>
-      <c r="K6" s="12">
+      <c r="L6" s="12">
         <v>90000</v>
       </c>
-      <c r="L6" s="12">
-        <f t="shared" ref="L6:L7" si="1">J6-K6</f>
+      <c r="M6" s="12">
+        <f t="shared" ref="M6:M7" si="1">K6-L6</f>
         <v>50000</v>
       </c>
-      <c r="M6" s="11">
+      <c r="N6" s="11"/>
+      <c r="O6" s="11">
         <v>1</v>
       </c>
-      <c r="N6" s="12">
-        <f t="shared" ref="N6:N9" si="2">(K6/176*H6)+(L6*M6/176*H6)</f>
+      <c r="P6" s="12">
+        <f t="shared" ref="P6:P9" si="2">(L6/176*H6)+(M6*O6/176*H6)</f>
         <v>70000</v>
       </c>
-      <c r="O6" s="12"/>
-      <c r="P6" s="12"/>
       <c r="Q6" s="12"/>
       <c r="R6" s="12"/>
       <c r="S6" s="12"/>
@@ -6608,12 +6704,15 @@
       <c r="V6" s="12"/>
       <c r="W6" s="12"/>
       <c r="X6" s="12"/>
-      <c r="Y6" s="12">
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
+      <c r="AA6" s="12"/>
+      <c r="AB6" s="12">
         <f t="shared" si="0"/>
         <v>70000</v>
       </c>
     </row>
-    <row r="7" spans="1:25" ht="31.5" customHeight="1">
+    <row r="7" spans="1:34" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -6632,46 +6731,49 @@
       <c r="F7" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="G7" s="2">
+      <c r="G7" s="66">
         <v>184</v>
       </c>
-      <c r="H7" s="2">
+      <c r="H7" s="66">
         <v>96</v>
       </c>
-      <c r="I7" s="2">
-        <v>0</v>
-      </c>
-      <c r="J7" s="12">
+      <c r="I7" s="66"/>
+      <c r="J7" s="66">
+        <v>0</v>
+      </c>
+      <c r="K7" s="12">
         <v>30000</v>
       </c>
-      <c r="K7" s="12"/>
-      <c r="L7" s="12">
+      <c r="L7" s="12"/>
+      <c r="M7" s="12">
         <f t="shared" si="1"/>
         <v>30000</v>
       </c>
-      <c r="M7" s="11"/>
-      <c r="N7" s="12">
-        <f>J7/G7*H7</f>
+      <c r="N7" s="11"/>
+      <c r="O7" s="11"/>
+      <c r="P7" s="12">
+        <f>K7/G7*H7</f>
         <v>15652.173913043478</v>
       </c>
-      <c r="O7" s="12"/>
-      <c r="P7" s="12"/>
       <c r="Q7" s="12"/>
       <c r="R7" s="12"/>
       <c r="S7" s="12"/>
-      <c r="T7" s="12">
-        <v>1000</v>
-      </c>
+      <c r="T7" s="12"/>
       <c r="U7" s="12"/>
       <c r="V7" s="12"/>
-      <c r="W7" s="12"/>
+      <c r="W7" s="12">
+        <v>1000</v>
+      </c>
       <c r="X7" s="12"/>
-      <c r="Y7" s="12">
+      <c r="Y7" s="12"/>
+      <c r="Z7" s="12"/>
+      <c r="AA7" s="12"/>
+      <c r="AB7" s="12">
         <f t="shared" si="0"/>
         <v>16652.17391304348</v>
       </c>
     </row>
-    <row r="8" spans="1:25" ht="30" customHeight="1">
+    <row r="8" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -6690,34 +6792,34 @@
       <c r="F8" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G8" s="2">
+      <c r="G8" s="66">
         <v>176</v>
       </c>
-      <c r="H8" s="2">
+      <c r="H8" s="66">
         <v>88</v>
       </c>
-      <c r="I8" s="2">
+      <c r="I8" s="66"/>
+      <c r="J8" s="66">
         <v>15</v>
       </c>
-      <c r="J8" s="12">
+      <c r="K8" s="12">
         <v>90000</v>
       </c>
-      <c r="K8" s="12">
+      <c r="L8" s="12">
         <v>54080</v>
       </c>
-      <c r="L8" s="12">
-        <f>J8-K8</f>
+      <c r="M8" s="12">
+        <f>K8-L8</f>
         <v>35920</v>
       </c>
-      <c r="M8" s="11">
+      <c r="N8" s="11"/>
+      <c r="O8" s="11">
         <v>0.9</v>
       </c>
-      <c r="N8" s="12">
+      <c r="P8" s="12">
         <f t="shared" si="2"/>
         <v>43204</v>
       </c>
-      <c r="O8" s="12"/>
-      <c r="P8" s="12"/>
       <c r="Q8" s="12"/>
       <c r="R8" s="12"/>
       <c r="S8" s="12"/>
@@ -6726,12 +6828,15 @@
       <c r="V8" s="12"/>
       <c r="W8" s="12"/>
       <c r="X8" s="12"/>
-      <c r="Y8" s="12">
+      <c r="Y8" s="12"/>
+      <c r="Z8" s="12"/>
+      <c r="AA8" s="12"/>
+      <c r="AB8" s="12">
         <f t="shared" si="0"/>
         <v>43204</v>
       </c>
     </row>
-    <row r="9" spans="1:25" ht="30" customHeight="1">
+    <row r="9" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -6750,44 +6855,47 @@
       <c r="F9" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G9" s="2">
+      <c r="G9" s="66">
         <v>176</v>
       </c>
-      <c r="H9" s="2">
+      <c r="H9" s="66">
         <v>88</v>
       </c>
-      <c r="I9" s="2">
+      <c r="I9" s="66"/>
+      <c r="J9" s="66">
         <v>15</v>
       </c>
-      <c r="J9" s="12"/>
       <c r="K9" s="12"/>
-      <c r="L9" s="12">
-        <f>J9-K9</f>
-        <v>0</v>
-      </c>
-      <c r="M9" s="11"/>
-      <c r="N9" s="12">
+      <c r="L9" s="12"/>
+      <c r="M9" s="12">
+        <f>K9-L9</f>
+        <v>0</v>
+      </c>
+      <c r="N9" s="11"/>
+      <c r="O9" s="11"/>
+      <c r="P9" s="12">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O9" s="12">
+      <c r="Q9" s="12"/>
+      <c r="R9" s="12">
         <v>37833</v>
       </c>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
       <c r="S9" s="12"/>
       <c r="T9" s="12"/>
       <c r="U9" s="12"/>
       <c r="V9" s="12"/>
       <c r="W9" s="12"/>
       <c r="X9" s="12"/>
-      <c r="Y9" s="12">
+      <c r="Y9" s="12"/>
+      <c r="Z9" s="12"/>
+      <c r="AA9" s="12"/>
+      <c r="AB9" s="12">
         <f t="shared" si="0"/>
         <v>37833</v>
       </c>
     </row>
-    <row r="10" spans="1:25" ht="30" customHeight="1">
+    <row r="10" spans="1:34" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -6806,34 +6914,34 @@
       <c r="F10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="G10" s="2">
+      <c r="G10" s="66">
         <v>176</v>
       </c>
-      <c r="H10" s="2">
+      <c r="H10" s="66">
         <v>98</v>
       </c>
-      <c r="I10" s="2">
+      <c r="I10" s="66"/>
+      <c r="J10" s="66">
         <v>10</v>
       </c>
-      <c r="J10" s="12">
+      <c r="K10" s="12">
         <v>65000</v>
       </c>
-      <c r="K10" s="12">
+      <c r="L10" s="12">
         <v>40000</v>
       </c>
-      <c r="L10" s="12">
-        <f>J10-K10</f>
+      <c r="M10" s="12">
+        <f>K10-L10</f>
         <v>25000</v>
       </c>
-      <c r="M10" s="11">
+      <c r="N10" s="11"/>
+      <c r="O10" s="11">
         <v>1</v>
       </c>
-      <c r="N10" s="12">
-        <f>(K10/176*88)+(L10*M10/176*88)</f>
+      <c r="P10" s="12">
+        <f>(L10/176*88)+(M10*O10/176*88)</f>
         <v>32500</v>
       </c>
-      <c r="O10" s="12"/>
-      <c r="P10" s="12"/>
       <c r="Q10" s="12"/>
       <c r="R10" s="12"/>
       <c r="S10" s="12"/>
@@ -6842,37 +6950,768 @@
       <c r="V10" s="12"/>
       <c r="W10" s="12"/>
       <c r="X10" s="12"/>
-      <c r="Y10" s="12">
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
+      <c r="AA10" s="12"/>
+      <c r="AB10" s="12">
         <f t="shared" si="0"/>
         <v>32500</v>
       </c>
     </row>
+    <row r="14" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K14" s="29" t="s">
+        <v>95</v>
+      </c>
+      <c r="L14" s="29"/>
+      <c r="M14" s="29"/>
+      <c r="N14" s="69"/>
+      <c r="O14" s="29"/>
+      <c r="P14" s="29"/>
+      <c r="Q14" s="29"/>
+      <c r="R14" s="29"/>
+      <c r="S14" s="29"/>
+      <c r="T14" s="29"/>
+      <c r="U14" s="29"/>
+      <c r="V14" s="29"/>
+      <c r="W14" s="29"/>
+      <c r="X14" s="29"/>
+      <c r="Y14" s="29"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="29"/>
+      <c r="AH14" s="29"/>
+    </row>
+    <row r="15" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K15" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="L15" s="29"/>
+      <c r="M15" s="29"/>
+      <c r="N15" s="69"/>
+      <c r="O15" s="29"/>
+      <c r="P15" s="29"/>
+      <c r="Q15" s="29"/>
+      <c r="R15" s="29"/>
+      <c r="S15" s="29"/>
+      <c r="T15" s="29"/>
+      <c r="U15" s="29"/>
+      <c r="V15" s="29"/>
+      <c r="W15" s="29"/>
+      <c r="X15" s="29"/>
+      <c r="Y15" s="29"/>
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="29"/>
+      <c r="AB15" s="29"/>
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="29"/>
+      <c r="AE15" s="29"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="29"/>
+      <c r="AH15" s="29"/>
+    </row>
+    <row r="16" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="K16" s="29" t="s">
+        <v>96</v>
+      </c>
+      <c r="L16" s="29"/>
+      <c r="M16" s="29"/>
+      <c r="N16" s="69"/>
+      <c r="O16" s="29"/>
+      <c r="P16" s="29"/>
+      <c r="Q16" s="29"/>
+      <c r="R16" s="29"/>
+      <c r="S16" s="29"/>
+      <c r="T16" s="29"/>
+      <c r="U16" s="29"/>
+      <c r="V16" s="29"/>
+      <c r="W16" s="29"/>
+      <c r="X16" s="29"/>
+      <c r="Y16" s="29"/>
+      <c r="Z16" s="29"/>
+      <c r="AA16" s="29"/>
+      <c r="AB16" s="29"/>
+      <c r="AC16" s="29"/>
+      <c r="AD16" s="29"/>
+      <c r="AE16" s="29"/>
+      <c r="AF16" s="29"/>
+      <c r="AG16" s="29"/>
+      <c r="AH16" s="29"/>
+    </row>
+    <row r="17" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K17" s="29" t="s">
+        <v>99</v>
+      </c>
+      <c r="L17" s="29"/>
+      <c r="M17" s="29"/>
+      <c r="N17" s="69"/>
+      <c r="O17" s="29"/>
+      <c r="P17" s="29"/>
+      <c r="Q17" s="29"/>
+      <c r="R17" s="29"/>
+      <c r="S17" s="29"/>
+      <c r="T17" s="29"/>
+      <c r="U17" s="29"/>
+      <c r="V17" s="29"/>
+      <c r="W17" s="29"/>
+      <c r="X17" s="29"/>
+      <c r="Y17" s="29"/>
+      <c r="Z17" s="29"/>
+      <c r="AA17" s="29"/>
+      <c r="AB17" s="29"/>
+      <c r="AC17" s="29"/>
+      <c r="AD17" s="29"/>
+      <c r="AE17" s="29"/>
+      <c r="AF17" s="29"/>
+      <c r="AG17" s="29"/>
+      <c r="AH17" s="29"/>
+    </row>
+    <row r="18" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K18" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="L18" s="29"/>
+      <c r="M18" s="29"/>
+      <c r="N18" s="69"/>
+      <c r="O18" s="29"/>
+      <c r="P18" s="29"/>
+      <c r="Q18" s="29"/>
+      <c r="R18" s="29"/>
+      <c r="S18" s="29"/>
+      <c r="T18" s="29"/>
+      <c r="U18" s="29"/>
+      <c r="V18" s="29"/>
+      <c r="W18" s="29"/>
+      <c r="X18" s="29"/>
+      <c r="Y18" s="29"/>
+      <c r="Z18" s="29"/>
+      <c r="AA18" s="29"/>
+      <c r="AB18" s="29"/>
+      <c r="AC18" s="29"/>
+      <c r="AD18" s="29"/>
+      <c r="AE18" s="29"/>
+      <c r="AF18" s="29"/>
+      <c r="AG18" s="29"/>
+      <c r="AH18" s="29"/>
+    </row>
+    <row r="19" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K19" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="L19" s="29"/>
+      <c r="M19" s="29"/>
+      <c r="N19" s="69"/>
+      <c r="O19" s="29"/>
+      <c r="P19" s="29"/>
+      <c r="Q19" s="29"/>
+      <c r="R19" s="29"/>
+      <c r="S19" s="29"/>
+      <c r="T19" s="29"/>
+      <c r="U19" s="29"/>
+      <c r="V19" s="29"/>
+      <c r="W19" s="29"/>
+      <c r="X19" s="29"/>
+      <c r="Y19" s="29"/>
+      <c r="Z19" s="29"/>
+      <c r="AA19" s="29"/>
+      <c r="AB19" s="29"/>
+      <c r="AC19" s="29"/>
+      <c r="AD19" s="29"/>
+      <c r="AE19" s="29"/>
+      <c r="AF19" s="29"/>
+      <c r="AG19" s="29"/>
+      <c r="AH19" s="29"/>
+    </row>
+    <row r="20" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K20" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="29"/>
+      <c r="M20" s="29"/>
+      <c r="N20" s="69"/>
+      <c r="O20" s="29"/>
+      <c r="P20" s="29"/>
+      <c r="Q20" s="29"/>
+      <c r="R20" s="29"/>
+      <c r="S20" s="29"/>
+      <c r="T20" s="29"/>
+      <c r="U20" s="29"/>
+      <c r="V20" s="29"/>
+      <c r="W20" s="29"/>
+      <c r="X20" s="29"/>
+      <c r="Y20" s="29"/>
+      <c r="Z20" s="29"/>
+      <c r="AA20" s="29"/>
+      <c r="AB20" s="29"/>
+      <c r="AC20" s="29"/>
+      <c r="AD20" s="29"/>
+      <c r="AE20" s="29"/>
+      <c r="AF20" s="29"/>
+      <c r="AG20" s="29"/>
+      <c r="AH20" s="29"/>
+    </row>
+    <row r="21" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K21" s="29" t="s">
+        <v>103</v>
+      </c>
+      <c r="L21" s="29"/>
+      <c r="M21" s="29"/>
+      <c r="N21" s="69"/>
+      <c r="O21" s="29"/>
+      <c r="P21" s="29"/>
+      <c r="Q21" s="29"/>
+      <c r="R21" s="29"/>
+      <c r="S21" s="29"/>
+      <c r="T21" s="29"/>
+      <c r="U21" s="29"/>
+      <c r="V21" s="29"/>
+      <c r="W21" s="29"/>
+      <c r="X21" s="29"/>
+      <c r="Y21" s="29"/>
+      <c r="Z21" s="29"/>
+      <c r="AA21" s="29"/>
+      <c r="AB21" s="29"/>
+      <c r="AC21" s="29"/>
+      <c r="AD21" s="29"/>
+      <c r="AE21" s="29"/>
+      <c r="AF21" s="29"/>
+      <c r="AG21" s="29"/>
+      <c r="AH21" s="29"/>
+    </row>
+    <row r="22" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K22" s="29" t="s">
+        <v>105</v>
+      </c>
+      <c r="L22" s="29"/>
+      <c r="M22" s="29"/>
+      <c r="N22" s="69"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="29"/>
+      <c r="V22" s="29"/>
+      <c r="W22" s="29"/>
+      <c r="X22" s="29"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="29"/>
+      <c r="AG22" s="29"/>
+      <c r="AH22" s="29"/>
+    </row>
+    <row r="23" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K23" s="29" t="s">
+        <v>104</v>
+      </c>
+      <c r="L23" s="29"/>
+      <c r="M23" s="29"/>
+      <c r="N23" s="69"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="29"/>
+      <c r="V23" s="29"/>
+      <c r="W23" s="29"/>
+      <c r="X23" s="29"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="29"/>
+      <c r="AG23" s="29"/>
+      <c r="AH23" s="29"/>
+    </row>
+    <row r="24" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K24" s="29" t="s">
+        <v>106</v>
+      </c>
+      <c r="L24" s="29"/>
+      <c r="M24" s="29"/>
+      <c r="N24" s="69"/>
+      <c r="O24" s="29"/>
+      <c r="P24" s="29"/>
+      <c r="Q24" s="29"/>
+      <c r="R24" s="29"/>
+      <c r="S24" s="29"/>
+      <c r="T24" s="29"/>
+      <c r="U24" s="29"/>
+      <c r="V24" s="29"/>
+      <c r="W24" s="29"/>
+      <c r="X24" s="29"/>
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="29"/>
+      <c r="AA24" s="29"/>
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="29"/>
+      <c r="AD24" s="29"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="29"/>
+      <c r="AG24" s="29"/>
+      <c r="AH24" s="29"/>
+    </row>
+    <row r="25" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K25" s="29" t="s">
+        <v>110</v>
+      </c>
+      <c r="L25" s="29"/>
+      <c r="M25" s="29"/>
+      <c r="N25" s="69"/>
+      <c r="O25" s="29"/>
+      <c r="P25" s="29"/>
+      <c r="Q25" s="29"/>
+      <c r="R25" s="29"/>
+      <c r="S25" s="29"/>
+      <c r="T25" s="29"/>
+      <c r="U25" s="29"/>
+      <c r="V25" s="29"/>
+      <c r="W25" s="29"/>
+      <c r="X25" s="29"/>
+      <c r="Y25" s="29"/>
+      <c r="Z25" s="29"/>
+      <c r="AA25" s="29"/>
+      <c r="AB25" s="29"/>
+      <c r="AC25" s="29"/>
+      <c r="AD25" s="29"/>
+      <c r="AE25" s="29"/>
+      <c r="AF25" s="29"/>
+      <c r="AG25" s="29"/>
+      <c r="AH25" s="29"/>
+    </row>
+    <row r="26" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K26" s="29"/>
+      <c r="L26" s="29"/>
+      <c r="M26" s="29"/>
+      <c r="N26" s="69"/>
+      <c r="O26" s="29"/>
+      <c r="P26" s="29"/>
+      <c r="Q26" s="29"/>
+      <c r="R26" s="29"/>
+      <c r="S26" s="29"/>
+      <c r="T26" s="29"/>
+      <c r="U26" s="29"/>
+      <c r="V26" s="29"/>
+      <c r="W26" s="29"/>
+      <c r="X26" s="29"/>
+      <c r="Y26" s="29"/>
+      <c r="Z26" s="29"/>
+      <c r="AA26" s="29"/>
+      <c r="AB26" s="29"/>
+      <c r="AC26" s="29"/>
+      <c r="AD26" s="29"/>
+      <c r="AE26" s="29"/>
+      <c r="AF26" s="29"/>
+      <c r="AG26" s="29"/>
+      <c r="AH26" s="29"/>
+    </row>
+    <row r="27" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K27" s="29" t="s">
+        <v>111</v>
+      </c>
+      <c r="L27" s="29"/>
+      <c r="M27" s="29"/>
+      <c r="N27" s="69"/>
+      <c r="O27" s="29"/>
+      <c r="P27" s="29"/>
+      <c r="Q27" s="29"/>
+      <c r="R27" s="29"/>
+      <c r="S27" s="29"/>
+      <c r="T27" s="29"/>
+      <c r="U27" s="29"/>
+      <c r="V27" s="29"/>
+      <c r="W27" s="29"/>
+      <c r="X27" s="29"/>
+      <c r="Y27" s="29"/>
+      <c r="Z27" s="29"/>
+      <c r="AA27" s="29"/>
+      <c r="AB27" s="29"/>
+      <c r="AC27" s="29"/>
+      <c r="AD27" s="29"/>
+      <c r="AE27" s="29"/>
+      <c r="AF27" s="29"/>
+      <c r="AG27" s="29"/>
+      <c r="AH27" s="29"/>
+    </row>
+    <row r="28" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K28" s="29"/>
+      <c r="L28" s="29"/>
+      <c r="M28" s="29"/>
+      <c r="N28" s="69"/>
+      <c r="O28" s="29"/>
+      <c r="P28" s="29"/>
+      <c r="Q28" s="29"/>
+      <c r="R28" s="29"/>
+      <c r="S28" s="29"/>
+      <c r="T28" s="29"/>
+      <c r="U28" s="29"/>
+      <c r="V28" s="29"/>
+      <c r="W28" s="29"/>
+      <c r="X28" s="29"/>
+      <c r="Y28" s="29"/>
+      <c r="Z28" s="29"/>
+      <c r="AA28" s="29"/>
+      <c r="AB28" s="29"/>
+      <c r="AC28" s="29"/>
+      <c r="AD28" s="29"/>
+      <c r="AE28" s="29"/>
+      <c r="AF28" s="29"/>
+      <c r="AG28" s="29"/>
+      <c r="AH28" s="29"/>
+    </row>
+    <row r="29" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K29" s="29"/>
+      <c r="L29" s="29"/>
+      <c r="M29" s="29"/>
+      <c r="N29" s="69"/>
+      <c r="O29" s="29"/>
+      <c r="P29" s="29"/>
+      <c r="Q29" s="29"/>
+      <c r="R29" s="29"/>
+      <c r="S29" s="29"/>
+      <c r="T29" s="29"/>
+      <c r="U29" s="29"/>
+      <c r="V29" s="29"/>
+      <c r="W29" s="29"/>
+      <c r="X29" s="29"/>
+      <c r="Y29" s="29"/>
+      <c r="Z29" s="29"/>
+      <c r="AA29" s="29"/>
+      <c r="AB29" s="29"/>
+      <c r="AC29" s="29"/>
+      <c r="AD29" s="29"/>
+      <c r="AE29" s="29"/>
+      <c r="AF29" s="29"/>
+      <c r="AG29" s="29"/>
+      <c r="AH29" s="29"/>
+    </row>
+    <row r="30" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K30" s="29"/>
+      <c r="L30" s="29"/>
+      <c r="M30" s="29"/>
+      <c r="N30" s="69"/>
+      <c r="O30" s="29"/>
+      <c r="P30" s="29"/>
+      <c r="Q30" s="29"/>
+      <c r="R30" s="29"/>
+      <c r="S30" s="29"/>
+      <c r="T30" s="29"/>
+      <c r="U30" s="29"/>
+      <c r="V30" s="29"/>
+      <c r="W30" s="29"/>
+      <c r="X30" s="29"/>
+      <c r="Y30" s="29"/>
+      <c r="Z30" s="29"/>
+      <c r="AA30" s="29"/>
+      <c r="AB30" s="29"/>
+      <c r="AC30" s="29"/>
+      <c r="AD30" s="29"/>
+      <c r="AE30" s="29"/>
+      <c r="AF30" s="29"/>
+      <c r="AG30" s="29"/>
+      <c r="AH30" s="29"/>
+    </row>
+    <row r="31" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K31" s="29"/>
+      <c r="L31" s="29"/>
+      <c r="M31" s="29"/>
+      <c r="N31" s="69"/>
+      <c r="O31" s="29"/>
+      <c r="P31" s="29"/>
+      <c r="Q31" s="29"/>
+      <c r="R31" s="29"/>
+      <c r="S31" s="29"/>
+      <c r="T31" s="29"/>
+      <c r="U31" s="29"/>
+      <c r="V31" s="29"/>
+      <c r="W31" s="29"/>
+      <c r="X31" s="29"/>
+      <c r="Y31" s="29"/>
+      <c r="Z31" s="29"/>
+      <c r="AA31" s="29"/>
+      <c r="AB31" s="29"/>
+      <c r="AC31" s="29"/>
+      <c r="AD31" s="29"/>
+      <c r="AE31" s="29"/>
+      <c r="AF31" s="29"/>
+      <c r="AG31" s="29"/>
+      <c r="AH31" s="29"/>
+    </row>
+    <row r="32" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K32" s="29"/>
+      <c r="L32" s="29"/>
+      <c r="M32" s="29"/>
+      <c r="N32" s="69"/>
+      <c r="O32" s="29"/>
+      <c r="P32" s="29"/>
+      <c r="Q32" s="29"/>
+      <c r="R32" s="29"/>
+      <c r="S32" s="29"/>
+      <c r="T32" s="29"/>
+      <c r="U32" s="29"/>
+      <c r="V32" s="29"/>
+      <c r="W32" s="29"/>
+      <c r="X32" s="29"/>
+      <c r="Y32" s="29"/>
+      <c r="Z32" s="29"/>
+      <c r="AA32" s="29"/>
+      <c r="AB32" s="29"/>
+      <c r="AC32" s="29"/>
+      <c r="AD32" s="29"/>
+      <c r="AE32" s="29"/>
+      <c r="AF32" s="29"/>
+      <c r="AG32" s="29"/>
+      <c r="AH32" s="29"/>
+    </row>
+    <row r="33" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K33" s="29"/>
+      <c r="L33" s="29"/>
+      <c r="M33" s="29"/>
+      <c r="N33" s="69"/>
+      <c r="O33" s="29"/>
+      <c r="P33" s="29"/>
+      <c r="Q33" s="29"/>
+      <c r="R33" s="29"/>
+      <c r="S33" s="29"/>
+      <c r="T33" s="29"/>
+      <c r="U33" s="29"/>
+      <c r="V33" s="29"/>
+      <c r="W33" s="29"/>
+      <c r="X33" s="29"/>
+      <c r="Y33" s="29"/>
+      <c r="Z33" s="29"/>
+      <c r="AA33" s="29"/>
+      <c r="AB33" s="29"/>
+      <c r="AC33" s="29"/>
+      <c r="AD33" s="29"/>
+      <c r="AE33" s="29"/>
+      <c r="AF33" s="29"/>
+      <c r="AG33" s="29"/>
+      <c r="AH33" s="29"/>
+    </row>
+    <row r="34" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K34" s="29"/>
+      <c r="L34" s="29"/>
+      <c r="M34" s="29"/>
+      <c r="N34" s="69"/>
+      <c r="O34" s="29"/>
+      <c r="P34" s="29"/>
+      <c r="Q34" s="29"/>
+      <c r="R34" s="29"/>
+      <c r="S34" s="29"/>
+      <c r="T34" s="29"/>
+      <c r="U34" s="29"/>
+      <c r="V34" s="29"/>
+      <c r="W34" s="29"/>
+      <c r="X34" s="29"/>
+      <c r="Y34" s="29"/>
+      <c r="Z34" s="29"/>
+      <c r="AA34" s="29"/>
+      <c r="AB34" s="29"/>
+      <c r="AC34" s="29"/>
+      <c r="AD34" s="29"/>
+      <c r="AE34" s="29"/>
+      <c r="AF34" s="29"/>
+      <c r="AG34" s="29"/>
+      <c r="AH34" s="29"/>
+    </row>
+    <row r="35" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K35" s="29"/>
+      <c r="L35" s="29"/>
+      <c r="M35" s="29"/>
+      <c r="N35" s="69"/>
+      <c r="O35" s="29"/>
+      <c r="P35" s="29"/>
+      <c r="Q35" s="29"/>
+      <c r="R35" s="29"/>
+      <c r="S35" s="29"/>
+      <c r="T35" s="29"/>
+      <c r="U35" s="29"/>
+      <c r="V35" s="29"/>
+      <c r="W35" s="29"/>
+      <c r="X35" s="29"/>
+      <c r="Y35" s="29"/>
+      <c r="Z35" s="29"/>
+      <c r="AA35" s="29"/>
+      <c r="AB35" s="29"/>
+      <c r="AC35" s="29"/>
+      <c r="AD35" s="29"/>
+      <c r="AE35" s="29"/>
+      <c r="AF35" s="29"/>
+      <c r="AG35" s="29"/>
+      <c r="AH35" s="29"/>
+    </row>
+    <row r="36" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K36" s="29"/>
+      <c r="L36" s="29"/>
+      <c r="M36" s="29"/>
+      <c r="N36" s="69"/>
+      <c r="O36" s="29"/>
+      <c r="P36" s="29"/>
+      <c r="Q36" s="29"/>
+      <c r="R36" s="29"/>
+      <c r="S36" s="29"/>
+      <c r="T36" s="29"/>
+      <c r="U36" s="29"/>
+      <c r="V36" s="29"/>
+      <c r="W36" s="29"/>
+      <c r="X36" s="29"/>
+      <c r="Y36" s="29"/>
+      <c r="Z36" s="29"/>
+      <c r="AA36" s="29"/>
+      <c r="AB36" s="29"/>
+      <c r="AC36" s="29"/>
+      <c r="AD36" s="29"/>
+      <c r="AE36" s="29"/>
+      <c r="AF36" s="29"/>
+      <c r="AG36" s="29"/>
+      <c r="AH36" s="29"/>
+    </row>
+    <row r="37" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K37" s="29"/>
+      <c r="L37" s="29"/>
+      <c r="M37" s="29"/>
+      <c r="N37" s="69"/>
+      <c r="O37" s="29"/>
+      <c r="P37" s="29"/>
+      <c r="Q37" s="29"/>
+      <c r="R37" s="29"/>
+      <c r="S37" s="29"/>
+      <c r="T37" s="29"/>
+      <c r="U37" s="29"/>
+      <c r="V37" s="29"/>
+      <c r="W37" s="29"/>
+      <c r="X37" s="29"/>
+      <c r="Y37" s="29"/>
+      <c r="Z37" s="29"/>
+      <c r="AA37" s="29"/>
+      <c r="AB37" s="29"/>
+      <c r="AC37" s="29"/>
+      <c r="AD37" s="29"/>
+      <c r="AE37" s="29"/>
+      <c r="AF37" s="29"/>
+      <c r="AG37" s="29"/>
+      <c r="AH37" s="29"/>
+    </row>
+    <row r="38" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K38" s="29"/>
+      <c r="L38" s="29"/>
+      <c r="M38" s="29"/>
+      <c r="N38" s="69"/>
+      <c r="O38" s="29"/>
+      <c r="P38" s="29"/>
+      <c r="Q38" s="29"/>
+      <c r="R38" s="29"/>
+      <c r="S38" s="29"/>
+      <c r="T38" s="29"/>
+      <c r="U38" s="29"/>
+      <c r="V38" s="29"/>
+      <c r="W38" s="29"/>
+      <c r="X38" s="29"/>
+      <c r="Y38" s="29"/>
+      <c r="Z38" s="29"/>
+      <c r="AA38" s="29"/>
+      <c r="AB38" s="29"/>
+      <c r="AC38" s="29"/>
+      <c r="AD38" s="29"/>
+      <c r="AE38" s="29"/>
+      <c r="AF38" s="29"/>
+      <c r="AG38" s="29"/>
+      <c r="AH38" s="29"/>
+    </row>
+    <row r="39" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K39" s="29"/>
+      <c r="L39" s="29"/>
+      <c r="M39" s="29"/>
+      <c r="N39" s="69"/>
+      <c r="O39" s="29"/>
+      <c r="P39" s="29"/>
+      <c r="Q39" s="29"/>
+      <c r="R39" s="29"/>
+      <c r="S39" s="29"/>
+      <c r="T39" s="29"/>
+      <c r="U39" s="29"/>
+      <c r="V39" s="29"/>
+      <c r="W39" s="29"/>
+      <c r="X39" s="29"/>
+      <c r="Y39" s="29"/>
+      <c r="Z39" s="29"/>
+      <c r="AA39" s="29"/>
+      <c r="AB39" s="29"/>
+      <c r="AC39" s="29"/>
+      <c r="AD39" s="29"/>
+      <c r="AE39" s="29"/>
+      <c r="AF39" s="29"/>
+      <c r="AG39" s="29"/>
+      <c r="AH39" s="29"/>
+    </row>
+    <row r="40" spans="11:34" x14ac:dyDescent="0.25">
+      <c r="K40" s="29"/>
+      <c r="L40" s="29"/>
+      <c r="M40" s="29"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="29"/>
+      <c r="P40" s="29"/>
+      <c r="Q40" s="29"/>
+      <c r="R40" s="29"/>
+      <c r="S40" s="29"/>
+      <c r="T40" s="29"/>
+      <c r="U40" s="29"/>
+      <c r="V40" s="29"/>
+      <c r="W40" s="29"/>
+      <c r="X40" s="29"/>
+      <c r="Y40" s="29"/>
+      <c r="Z40" s="29"/>
+      <c r="AA40" s="29"/>
+      <c r="AB40" s="29"/>
+      <c r="AC40" s="29"/>
+      <c r="AD40" s="29"/>
+      <c r="AE40" s="29"/>
+      <c r="AF40" s="29"/>
+      <c r="AG40" s="29"/>
+      <c r="AH40" s="29"/>
+    </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="A1:AB1"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="G2:J2"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
     <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
-    <mergeCell ref="O2:O3"/>
-    <mergeCell ref="J2:J3"/>
+    <mergeCell ref="R2:R3"/>
     <mergeCell ref="K2:K3"/>
     <mergeCell ref="L2:L3"/>
     <mergeCell ref="M2:M3"/>
-    <mergeCell ref="N2:N3"/>
-    <mergeCell ref="A1:Y1"/>
-    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -6881,15 +7720,15 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AT10"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="9" topLeftCell="AC1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="AD3" sqref="AD3"/>
+      <selection pane="topRight" activeCell="AC23" sqref="AC23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -6906,108 +7745,108 @@
     <col min="16" max="24" width="0" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:46" ht="31.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="48"/>
-    </row>
-    <row r="2" spans="1:46" ht="31.5" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="51"/>
+    </row>
+    <row r="2" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="52" t="s">
         <v>27</v>
       </c>
       <c r="Y2" s="22" t="s">
@@ -7021,30 +7860,30 @@
       <c r="AC2" s="22"/>
       <c r="AD2" s="25"/>
       <c r="AE2" s="22"/>
-      <c r="AG2" s="52" t="s">
+      <c r="AG2" s="54" t="s">
         <v>92</v>
       </c>
-      <c r="AH2" s="53"/>
-      <c r="AI2" s="53"/>
-      <c r="AJ2" s="53"/>
-      <c r="AK2" s="53"/>
-      <c r="AL2" s="53"/>
-      <c r="AM2" s="53"/>
-      <c r="AN2" s="53"/>
-      <c r="AO2" s="53"/>
-      <c r="AP2" s="53"/>
-      <c r="AQ2" s="53"/>
-      <c r="AR2" s="53"/>
-      <c r="AS2" s="53"/>
-      <c r="AT2" s="54"/>
-    </row>
-    <row r="3" spans="1:46" ht="75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="AH2" s="55"/>
+      <c r="AI2" s="55"/>
+      <c r="AJ2" s="55"/>
+      <c r="AK2" s="55"/>
+      <c r="AL2" s="55"/>
+      <c r="AM2" s="55"/>
+      <c r="AN2" s="55"/>
+      <c r="AO2" s="55"/>
+      <c r="AP2" s="55"/>
+      <c r="AQ2" s="55"/>
+      <c r="AR2" s="55"/>
+      <c r="AS2" s="55"/>
+      <c r="AT2" s="56"/>
+    </row>
+    <row r="3" spans="1:46" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
@@ -7054,21 +7893,21 @@
       <c r="I3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
       <c r="Y3" s="22" t="s">
         <v>86</v>
       </c>
@@ -7088,22 +7927,22 @@
         <v>93</v>
       </c>
       <c r="AE3" s="22"/>
-      <c r="AG3" s="55"/>
-      <c r="AH3" s="56"/>
-      <c r="AI3" s="56"/>
-      <c r="AJ3" s="56"/>
-      <c r="AK3" s="56"/>
-      <c r="AL3" s="56"/>
-      <c r="AM3" s="56"/>
-      <c r="AN3" s="56"/>
-      <c r="AO3" s="56"/>
-      <c r="AP3" s="56"/>
-      <c r="AQ3" s="56"/>
-      <c r="AR3" s="56"/>
-      <c r="AS3" s="56"/>
-      <c r="AT3" s="57"/>
-    </row>
-    <row r="4" spans="1:46" ht="35.25" customHeight="1">
+      <c r="AG3" s="57"/>
+      <c r="AH3" s="58"/>
+      <c r="AI3" s="58"/>
+      <c r="AJ3" s="58"/>
+      <c r="AK3" s="58"/>
+      <c r="AL3" s="58"/>
+      <c r="AM3" s="58"/>
+      <c r="AN3" s="58"/>
+      <c r="AO3" s="58"/>
+      <c r="AP3" s="58"/>
+      <c r="AQ3" s="58"/>
+      <c r="AR3" s="58"/>
+      <c r="AS3" s="58"/>
+      <c r="AT3" s="59"/>
+    </row>
+    <row r="4" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7169,22 +8008,22 @@
       <c r="AC4" s="12"/>
       <c r="AD4" s="12"/>
       <c r="AE4" s="12"/>
-      <c r="AG4" s="55"/>
-      <c r="AH4" s="56"/>
-      <c r="AI4" s="56"/>
-      <c r="AJ4" s="56"/>
-      <c r="AK4" s="56"/>
-      <c r="AL4" s="56"/>
-      <c r="AM4" s="56"/>
-      <c r="AN4" s="56"/>
-      <c r="AO4" s="56"/>
-      <c r="AP4" s="56"/>
-      <c r="AQ4" s="56"/>
-      <c r="AR4" s="56"/>
-      <c r="AS4" s="56"/>
-      <c r="AT4" s="57"/>
-    </row>
-    <row r="5" spans="1:46" ht="35.25" customHeight="1">
+      <c r="AG4" s="57"/>
+      <c r="AH4" s="58"/>
+      <c r="AI4" s="58"/>
+      <c r="AJ4" s="58"/>
+      <c r="AK4" s="58"/>
+      <c r="AL4" s="58"/>
+      <c r="AM4" s="58"/>
+      <c r="AN4" s="58"/>
+      <c r="AO4" s="58"/>
+      <c r="AP4" s="58"/>
+      <c r="AQ4" s="58"/>
+      <c r="AR4" s="58"/>
+      <c r="AS4" s="58"/>
+      <c r="AT4" s="59"/>
+    </row>
+    <row r="5" spans="1:46" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -7246,22 +8085,22 @@
       <c r="AC5" s="12"/>
       <c r="AD5" s="12"/>
       <c r="AE5" s="12"/>
-      <c r="AG5" s="55"/>
-      <c r="AH5" s="56"/>
-      <c r="AI5" s="56"/>
-      <c r="AJ5" s="56"/>
-      <c r="AK5" s="56"/>
-      <c r="AL5" s="56"/>
-      <c r="AM5" s="56"/>
-      <c r="AN5" s="56"/>
-      <c r="AO5" s="56"/>
-      <c r="AP5" s="56"/>
-      <c r="AQ5" s="56"/>
-      <c r="AR5" s="56"/>
-      <c r="AS5" s="56"/>
-      <c r="AT5" s="57"/>
-    </row>
-    <row r="6" spans="1:46" ht="33" customHeight="1">
+      <c r="AG5" s="57"/>
+      <c r="AH5" s="58"/>
+      <c r="AI5" s="58"/>
+      <c r="AJ5" s="58"/>
+      <c r="AK5" s="58"/>
+      <c r="AL5" s="58"/>
+      <c r="AM5" s="58"/>
+      <c r="AN5" s="58"/>
+      <c r="AO5" s="58"/>
+      <c r="AP5" s="58"/>
+      <c r="AQ5" s="58"/>
+      <c r="AR5" s="58"/>
+      <c r="AS5" s="58"/>
+      <c r="AT5" s="59"/>
+    </row>
+    <row r="6" spans="1:46" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -7331,22 +8170,22 @@
       <c r="AE6" s="12">
         <v>571</v>
       </c>
-      <c r="AG6" s="55"/>
-      <c r="AH6" s="56"/>
-      <c r="AI6" s="56"/>
-      <c r="AJ6" s="56"/>
-      <c r="AK6" s="56"/>
-      <c r="AL6" s="56"/>
-      <c r="AM6" s="56"/>
-      <c r="AN6" s="56"/>
-      <c r="AO6" s="56"/>
-      <c r="AP6" s="56"/>
-      <c r="AQ6" s="56"/>
-      <c r="AR6" s="56"/>
-      <c r="AS6" s="56"/>
-      <c r="AT6" s="57"/>
-    </row>
-    <row r="7" spans="1:46" ht="31.5" customHeight="1">
+      <c r="AG6" s="57"/>
+      <c r="AH6" s="58"/>
+      <c r="AI6" s="58"/>
+      <c r="AJ6" s="58"/>
+      <c r="AK6" s="58"/>
+      <c r="AL6" s="58"/>
+      <c r="AM6" s="58"/>
+      <c r="AN6" s="58"/>
+      <c r="AO6" s="58"/>
+      <c r="AP6" s="58"/>
+      <c r="AQ6" s="58"/>
+      <c r="AR6" s="58"/>
+      <c r="AS6" s="58"/>
+      <c r="AT6" s="59"/>
+    </row>
+    <row r="7" spans="1:46" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -7414,22 +8253,22 @@
       <c r="AE7" s="12">
         <v>-22156</v>
       </c>
-      <c r="AG7" s="55"/>
-      <c r="AH7" s="56"/>
-      <c r="AI7" s="56"/>
-      <c r="AJ7" s="56"/>
-      <c r="AK7" s="56"/>
-      <c r="AL7" s="56"/>
-      <c r="AM7" s="56"/>
-      <c r="AN7" s="56"/>
-      <c r="AO7" s="56"/>
-      <c r="AP7" s="56"/>
-      <c r="AQ7" s="56"/>
-      <c r="AR7" s="56"/>
-      <c r="AS7" s="56"/>
-      <c r="AT7" s="57"/>
-    </row>
-    <row r="8" spans="1:46" ht="30" customHeight="1">
+      <c r="AG7" s="57"/>
+      <c r="AH7" s="58"/>
+      <c r="AI7" s="58"/>
+      <c r="AJ7" s="58"/>
+      <c r="AK7" s="58"/>
+      <c r="AL7" s="58"/>
+      <c r="AM7" s="58"/>
+      <c r="AN7" s="58"/>
+      <c r="AO7" s="58"/>
+      <c r="AP7" s="58"/>
+      <c r="AQ7" s="58"/>
+      <c r="AR7" s="58"/>
+      <c r="AS7" s="58"/>
+      <c r="AT7" s="59"/>
+    </row>
+    <row r="8" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -7499,22 +8338,22 @@
       <c r="AE8" s="12">
         <v>0</v>
       </c>
-      <c r="AG8" s="55"/>
-      <c r="AH8" s="56"/>
-      <c r="AI8" s="56"/>
-      <c r="AJ8" s="56"/>
-      <c r="AK8" s="56"/>
-      <c r="AL8" s="56"/>
-      <c r="AM8" s="56"/>
-      <c r="AN8" s="56"/>
-      <c r="AO8" s="56"/>
-      <c r="AP8" s="56"/>
-      <c r="AQ8" s="56"/>
-      <c r="AR8" s="56"/>
-      <c r="AS8" s="56"/>
-      <c r="AT8" s="57"/>
-    </row>
-    <row r="9" spans="1:46" ht="30" customHeight="1">
+      <c r="AG8" s="57"/>
+      <c r="AH8" s="58"/>
+      <c r="AI8" s="58"/>
+      <c r="AJ8" s="58"/>
+      <c r="AK8" s="58"/>
+      <c r="AL8" s="58"/>
+      <c r="AM8" s="58"/>
+      <c r="AN8" s="58"/>
+      <c r="AO8" s="58"/>
+      <c r="AP8" s="58"/>
+      <c r="AQ8" s="58"/>
+      <c r="AR8" s="58"/>
+      <c r="AS8" s="58"/>
+      <c r="AT8" s="59"/>
+    </row>
+    <row r="9" spans="1:46" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -7580,22 +8419,22 @@
       <c r="AE9" s="12">
         <v>0</v>
       </c>
-      <c r="AG9" s="55"/>
-      <c r="AH9" s="56"/>
-      <c r="AI9" s="56"/>
-      <c r="AJ9" s="56"/>
-      <c r="AK9" s="56"/>
-      <c r="AL9" s="56"/>
-      <c r="AM9" s="56"/>
-      <c r="AN9" s="56"/>
-      <c r="AO9" s="56"/>
-      <c r="AP9" s="56"/>
-      <c r="AQ9" s="56"/>
-      <c r="AR9" s="56"/>
-      <c r="AS9" s="56"/>
-      <c r="AT9" s="57"/>
-    </row>
-    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1">
+      <c r="AG9" s="57"/>
+      <c r="AH9" s="58"/>
+      <c r="AI9" s="58"/>
+      <c r="AJ9" s="58"/>
+      <c r="AK9" s="58"/>
+      <c r="AL9" s="58"/>
+      <c r="AM9" s="58"/>
+      <c r="AN9" s="58"/>
+      <c r="AO9" s="58"/>
+      <c r="AP9" s="58"/>
+      <c r="AQ9" s="58"/>
+      <c r="AR9" s="58"/>
+      <c r="AS9" s="58"/>
+      <c r="AT9" s="59"/>
+    </row>
+    <row r="10" spans="1:46" ht="30" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -7665,33 +8504,23 @@
       <c r="AE10" s="12">
         <v>4504</v>
       </c>
-      <c r="AG10" s="58"/>
-      <c r="AH10" s="59"/>
-      <c r="AI10" s="59"/>
-      <c r="AJ10" s="59"/>
-      <c r="AK10" s="59"/>
-      <c r="AL10" s="59"/>
-      <c r="AM10" s="59"/>
-      <c r="AN10" s="59"/>
-      <c r="AO10" s="59"/>
-      <c r="AP10" s="59"/>
-      <c r="AQ10" s="59"/>
-      <c r="AR10" s="59"/>
-      <c r="AS10" s="59"/>
-      <c r="AT10" s="60"/>
+      <c r="AG10" s="60"/>
+      <c r="AH10" s="61"/>
+      <c r="AI10" s="61"/>
+      <c r="AJ10" s="61"/>
+      <c r="AK10" s="61"/>
+      <c r="AL10" s="61"/>
+      <c r="AM10" s="61"/>
+      <c r="AN10" s="61"/>
+      <c r="AO10" s="61"/>
+      <c r="AP10" s="61"/>
+      <c r="AQ10" s="61"/>
+      <c r="AR10" s="61"/>
+      <c r="AS10" s="61"/>
+      <c r="AT10" s="62"/>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="AG2:AT10"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="G2:I2"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="M2:M3"/>
@@ -7706,6 +8535,16 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
+    <mergeCell ref="AG2:AT10"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="G2:I2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7714,7 +8553,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AW34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -7722,7 +8561,7 @@
       <selection pane="topRight" activeCell="AS10" sqref="AS10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -7738,139 +8577,139 @@
     <col min="16" max="30" width="9.140625" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="31.5" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="48"/>
-    </row>
-    <row r="2" spans="1:31" ht="31.5" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="51"/>
+    </row>
+    <row r="2" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="49" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="49" t="s">
+      <c r="K2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="49" t="s">
+      <c r="L2" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="49" t="s">
+      <c r="M2" s="52" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="49" t="s">
+      <c r="N2" s="52" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="49" t="s">
+      <c r="O2" s="52" t="s">
         <v>81</v>
       </c>
-      <c r="P2" s="49" t="s">
+      <c r="P2" s="52" t="s">
         <v>7</v>
       </c>
-      <c r="Q2" s="49" t="s">
+      <c r="Q2" s="52" t="s">
         <v>75</v>
       </c>
-      <c r="R2" s="49" t="s">
+      <c r="R2" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="S2" s="49" t="s">
+      <c r="S2" s="52" t="s">
         <v>47</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="U2" s="49" t="s">
+      <c r="U2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="V2" s="49" t="s">
+      <c r="V2" s="52" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="49" t="s">
+      <c r="W2" s="52" t="s">
         <v>28</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="Y2" s="45" t="s">
+      <c r="Y2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="Z2" s="49" t="s">
+      <c r="Z2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AD2" s="61" t="s">
+      <c r="AD2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AE2" s="45" t="s">
+      <c r="AE2" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:31" ht="75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+    <row r="3" spans="1:31" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="19" t="s">
         <v>36</v>
       </c>
@@ -7880,30 +8719,30 @@
       <c r="I3" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="50"/>
-      <c r="L3" s="50"/>
-      <c r="M3" s="50"/>
-      <c r="N3" s="50"/>
-      <c r="O3" s="50"/>
-      <c r="P3" s="50"/>
-      <c r="Q3" s="50"/>
-      <c r="R3" s="50"/>
-      <c r="S3" s="50"/>
-      <c r="T3" s="50"/>
-      <c r="U3" s="50"/>
-      <c r="V3" s="50"/>
-      <c r="W3" s="50"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="50"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="61"/>
-      <c r="AE3" s="45"/>
-    </row>
-    <row r="4" spans="1:31" ht="35.25" customHeight="1">
+      <c r="J3" s="53"/>
+      <c r="K3" s="53"/>
+      <c r="L3" s="53"/>
+      <c r="M3" s="53"/>
+      <c r="N3" s="53"/>
+      <c r="O3" s="53"/>
+      <c r="P3" s="53"/>
+      <c r="Q3" s="53"/>
+      <c r="R3" s="53"/>
+      <c r="S3" s="53"/>
+      <c r="T3" s="53"/>
+      <c r="U3" s="53"/>
+      <c r="V3" s="53"/>
+      <c r="W3" s="53"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="46"/>
+      <c r="Z3" s="53"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="46"/>
+    </row>
+    <row r="4" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="20">
         <v>1</v>
       </c>
@@ -7976,7 +8815,7 @@
         <v>570.90909090908826</v>
       </c>
     </row>
-    <row r="5" spans="1:31" ht="35.25" customHeight="1">
+    <row r="5" spans="1:31" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="20">
         <v>1</v>
       </c>
@@ -8049,7 +8888,7 @@
         <v>2843.6363636363621</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="33" customHeight="1">
+    <row r="6" spans="1:31" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="20">
         <v>3</v>
       </c>
@@ -8122,7 +8961,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="31.5" customHeight="1">
+    <row r="7" spans="1:31" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="20">
         <v>4</v>
       </c>
@@ -8193,7 +9032,7 @@
         <v>0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="30" customHeight="1">
+    <row r="8" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="20">
         <v>5</v>
       </c>
@@ -8266,7 +9105,7 @@
         <v>4504</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="30" customHeight="1">
+    <row r="9" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="20">
         <v>6</v>
       </c>
@@ -8337,7 +9176,7 @@
         <v>4933</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="30" customHeight="1">
+    <row r="10" spans="1:31" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="20">
         <v>7</v>
       </c>
@@ -8410,858 +9249,873 @@
         <v>22300</v>
       </c>
     </row>
-    <row r="18" spans="2:49">
-      <c r="B18" s="62"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="62"/>
-      <c r="E18" s="62"/>
-      <c r="F18" s="62"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="62"/>
-      <c r="J18" s="62"/>
-      <c r="K18" s="62"/>
-      <c r="L18" s="62"/>
-      <c r="M18" s="62"/>
-      <c r="N18" s="62"/>
-      <c r="O18" s="62"/>
-      <c r="P18" s="62"/>
-      <c r="Q18" s="62"/>
-      <c r="R18" s="62"/>
-      <c r="S18" s="62"/>
-      <c r="T18" s="62"/>
-      <c r="U18" s="62"/>
-      <c r="V18" s="62"/>
-      <c r="W18" s="62"/>
-      <c r="X18" s="62"/>
-      <c r="Y18" s="62"/>
-      <c r="Z18" s="62"/>
-      <c r="AA18" s="62"/>
-      <c r="AB18" s="62"/>
-      <c r="AC18" s="62"/>
-      <c r="AD18" s="62"/>
-      <c r="AE18" s="62"/>
-      <c r="AF18" s="62"/>
-      <c r="AG18" s="62"/>
-      <c r="AH18" s="62"/>
-      <c r="AI18" s="62"/>
-      <c r="AJ18" s="62"/>
-      <c r="AK18" s="62"/>
-      <c r="AL18" s="62"/>
-      <c r="AM18" s="62"/>
-      <c r="AN18" s="62"/>
-      <c r="AO18" s="62"/>
-      <c r="AP18" s="62"/>
-      <c r="AQ18" s="62"/>
-      <c r="AR18" s="62"/>
-      <c r="AS18" s="62"/>
-      <c r="AT18" s="62"/>
-      <c r="AU18" s="62"/>
-      <c r="AV18" s="62"/>
-      <c r="AW18" s="62"/>
-    </row>
-    <row r="19" spans="2:49">
-      <c r="B19" s="62"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="62"/>
-      <c r="E19" s="62"/>
-      <c r="F19" s="62"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="62"/>
-      <c r="J19" s="62"/>
-      <c r="K19" s="62"/>
-      <c r="L19" s="62"/>
-      <c r="M19" s="62"/>
-      <c r="N19" s="62"/>
-      <c r="O19" s="62"/>
-      <c r="P19" s="62"/>
-      <c r="Q19" s="62"/>
-      <c r="R19" s="62"/>
-      <c r="S19" s="62"/>
-      <c r="T19" s="62"/>
-      <c r="U19" s="62"/>
-      <c r="V19" s="62"/>
-      <c r="W19" s="62"/>
-      <c r="X19" s="62"/>
-      <c r="Y19" s="62"/>
-      <c r="Z19" s="62"/>
-      <c r="AA19" s="62"/>
-      <c r="AB19" s="62"/>
-      <c r="AC19" s="62"/>
-      <c r="AD19" s="62"/>
-      <c r="AE19" s="62"/>
-      <c r="AF19" s="62"/>
-      <c r="AG19" s="62"/>
-      <c r="AH19" s="62"/>
-      <c r="AI19" s="62"/>
-      <c r="AJ19" s="62"/>
-      <c r="AK19" s="62"/>
-      <c r="AL19" s="62"/>
-      <c r="AM19" s="62"/>
-      <c r="AN19" s="62"/>
-      <c r="AO19" s="62"/>
-      <c r="AP19" s="62"/>
-      <c r="AQ19" s="62"/>
-      <c r="AR19" s="62"/>
-      <c r="AS19" s="62"/>
-      <c r="AT19" s="62"/>
-      <c r="AU19" s="62"/>
-      <c r="AV19" s="62"/>
-      <c r="AW19" s="62"/>
-    </row>
-    <row r="20" spans="2:49">
-      <c r="B20" s="62"/>
-      <c r="C20" s="62"/>
-      <c r="D20" s="62"/>
-      <c r="E20" s="62"/>
-      <c r="F20" s="62"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
-      <c r="J20" s="62"/>
-      <c r="K20" s="62"/>
-      <c r="L20" s="62"/>
-      <c r="M20" s="62"/>
-      <c r="N20" s="62"/>
-      <c r="O20" s="62"/>
-      <c r="P20" s="62"/>
-      <c r="Q20" s="62"/>
-      <c r="R20" s="62"/>
-      <c r="S20" s="62"/>
-      <c r="T20" s="62"/>
-      <c r="U20" s="62"/>
-      <c r="V20" s="62"/>
-      <c r="W20" s="62"/>
-      <c r="X20" s="62"/>
-      <c r="Y20" s="62"/>
-      <c r="Z20" s="62"/>
-      <c r="AA20" s="62"/>
-      <c r="AB20" s="62"/>
-      <c r="AC20" s="62"/>
-      <c r="AD20" s="62"/>
-      <c r="AE20" s="62"/>
-      <c r="AF20" s="62"/>
-      <c r="AG20" s="62"/>
-      <c r="AH20" s="62"/>
-      <c r="AI20" s="62"/>
-      <c r="AJ20" s="62"/>
-      <c r="AK20" s="62"/>
-      <c r="AL20" s="62"/>
-      <c r="AM20" s="62"/>
-      <c r="AN20" s="62"/>
-      <c r="AO20" s="62"/>
-      <c r="AP20" s="62"/>
-      <c r="AQ20" s="62"/>
-      <c r="AR20" s="62"/>
-      <c r="AS20" s="62"/>
-      <c r="AT20" s="62"/>
-      <c r="AU20" s="62"/>
-      <c r="AV20" s="62"/>
-      <c r="AW20" s="62"/>
-    </row>
-    <row r="21" spans="2:49">
-      <c r="B21" s="62"/>
-      <c r="C21" s="62"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
-      <c r="F21" s="62"/>
-      <c r="G21" s="62"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
-      <c r="J21" s="62"/>
-      <c r="K21" s="62"/>
-      <c r="L21" s="62"/>
-      <c r="M21" s="62"/>
-      <c r="N21" s="62"/>
-      <c r="O21" s="62"/>
-      <c r="P21" s="62"/>
-      <c r="Q21" s="62"/>
-      <c r="R21" s="62"/>
-      <c r="S21" s="62"/>
-      <c r="T21" s="62"/>
-      <c r="U21" s="62"/>
-      <c r="V21" s="62"/>
-      <c r="W21" s="62"/>
-      <c r="X21" s="62"/>
-      <c r="Y21" s="62"/>
-      <c r="Z21" s="62"/>
-      <c r="AA21" s="62"/>
-      <c r="AB21" s="62"/>
-      <c r="AC21" s="62"/>
-      <c r="AD21" s="62"/>
-      <c r="AE21" s="62"/>
-      <c r="AF21" s="62"/>
-      <c r="AG21" s="62"/>
-      <c r="AH21" s="62"/>
-      <c r="AI21" s="62"/>
-      <c r="AJ21" s="62"/>
-      <c r="AK21" s="62"/>
-      <c r="AL21" s="62"/>
-      <c r="AM21" s="62"/>
-      <c r="AN21" s="62"/>
-      <c r="AO21" s="62"/>
-      <c r="AP21" s="62"/>
-      <c r="AQ21" s="62"/>
-      <c r="AR21" s="62"/>
-      <c r="AS21" s="62"/>
-      <c r="AT21" s="62"/>
-      <c r="AU21" s="62"/>
-      <c r="AV21" s="62"/>
-      <c r="AW21" s="62"/>
-    </row>
-    <row r="22" spans="2:49">
-      <c r="B22" s="62"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="62"/>
-      <c r="E22" s="62"/>
-      <c r="F22" s="62"/>
-      <c r="G22" s="62"/>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
-      <c r="J22" s="62"/>
-      <c r="K22" s="62"/>
-      <c r="L22" s="62"/>
-      <c r="M22" s="62"/>
-      <c r="N22" s="62"/>
-      <c r="O22" s="62"/>
-      <c r="P22" s="62"/>
-      <c r="Q22" s="62"/>
-      <c r="R22" s="62"/>
-      <c r="S22" s="62"/>
-      <c r="T22" s="62"/>
-      <c r="U22" s="62"/>
-      <c r="V22" s="62"/>
-      <c r="W22" s="62"/>
-      <c r="X22" s="62"/>
-      <c r="Y22" s="62"/>
-      <c r="Z22" s="62"/>
-      <c r="AA22" s="62"/>
-      <c r="AB22" s="62"/>
-      <c r="AC22" s="62"/>
-      <c r="AD22" s="62"/>
-      <c r="AE22" s="62"/>
-      <c r="AF22" s="62"/>
-      <c r="AG22" s="62"/>
-      <c r="AH22" s="62"/>
-      <c r="AI22" s="62"/>
-      <c r="AJ22" s="62"/>
-      <c r="AK22" s="62"/>
-      <c r="AL22" s="62"/>
-      <c r="AM22" s="62"/>
-      <c r="AN22" s="62"/>
-      <c r="AO22" s="62"/>
-      <c r="AP22" s="62"/>
-      <c r="AQ22" s="62"/>
-      <c r="AR22" s="62"/>
-      <c r="AS22" s="62"/>
-      <c r="AT22" s="62"/>
-      <c r="AU22" s="62"/>
-      <c r="AV22" s="62"/>
-      <c r="AW22" s="62"/>
-    </row>
-    <row r="23" spans="2:49">
-      <c r="B23" s="62"/>
-      <c r="C23" s="62"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
-      <c r="F23" s="62"/>
-      <c r="G23" s="62"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
-      <c r="J23" s="62"/>
-      <c r="K23" s="62"/>
-      <c r="L23" s="62"/>
-      <c r="M23" s="62"/>
-      <c r="N23" s="62"/>
-      <c r="O23" s="62"/>
-      <c r="P23" s="62"/>
-      <c r="Q23" s="62"/>
-      <c r="R23" s="62"/>
-      <c r="S23" s="62"/>
-      <c r="T23" s="62"/>
-      <c r="U23" s="62"/>
-      <c r="V23" s="62"/>
-      <c r="W23" s="62"/>
-      <c r="X23" s="62"/>
-      <c r="Y23" s="62"/>
-      <c r="Z23" s="62"/>
-      <c r="AA23" s="62"/>
-      <c r="AB23" s="62"/>
-      <c r="AC23" s="62"/>
-      <c r="AD23" s="62"/>
-      <c r="AE23" s="62"/>
-      <c r="AF23" s="62"/>
-      <c r="AG23" s="62"/>
-      <c r="AH23" s="62"/>
-      <c r="AI23" s="62"/>
-      <c r="AJ23" s="62"/>
-      <c r="AK23" s="62"/>
-      <c r="AL23" s="62"/>
-      <c r="AM23" s="62"/>
-      <c r="AN23" s="62"/>
-      <c r="AO23" s="62"/>
-      <c r="AP23" s="62"/>
-      <c r="AQ23" s="62"/>
-      <c r="AR23" s="62"/>
-      <c r="AS23" s="62"/>
-      <c r="AT23" s="62"/>
-      <c r="AU23" s="62"/>
-      <c r="AV23" s="62"/>
-      <c r="AW23" s="62"/>
-    </row>
-    <row r="24" spans="2:49">
-      <c r="B24" s="62"/>
-      <c r="C24" s="62"/>
-      <c r="D24" s="62"/>
-      <c r="E24" s="62"/>
-      <c r="F24" s="62"/>
-      <c r="G24" s="62"/>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
-      <c r="J24" s="62"/>
-      <c r="K24" s="62"/>
-      <c r="L24" s="62"/>
-      <c r="M24" s="62"/>
-      <c r="N24" s="62"/>
-      <c r="O24" s="62"/>
-      <c r="P24" s="62"/>
-      <c r="Q24" s="62"/>
-      <c r="R24" s="62"/>
-      <c r="S24" s="62"/>
-      <c r="T24" s="62"/>
-      <c r="U24" s="62"/>
-      <c r="V24" s="62"/>
-      <c r="W24" s="62"/>
-      <c r="X24" s="62"/>
-      <c r="Y24" s="62"/>
-      <c r="Z24" s="62"/>
-      <c r="AA24" s="62"/>
-      <c r="AB24" s="62"/>
-      <c r="AC24" s="62"/>
-      <c r="AD24" s="62"/>
-      <c r="AE24" s="62"/>
-      <c r="AF24" s="62"/>
-      <c r="AG24" s="62"/>
-      <c r="AH24" s="62"/>
-      <c r="AI24" s="62"/>
-      <c r="AJ24" s="62"/>
-      <c r="AK24" s="62"/>
-      <c r="AL24" s="62"/>
-      <c r="AM24" s="62"/>
-      <c r="AN24" s="62"/>
-      <c r="AO24" s="62"/>
-      <c r="AP24" s="62"/>
-      <c r="AQ24" s="62"/>
-      <c r="AR24" s="62"/>
-      <c r="AS24" s="62"/>
-      <c r="AT24" s="62"/>
-      <c r="AU24" s="62"/>
-      <c r="AV24" s="62"/>
-      <c r="AW24" s="62"/>
-    </row>
-    <row r="25" spans="2:49">
-      <c r="B25" s="62"/>
-      <c r="C25" s="62"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
-      <c r="F25" s="62"/>
-      <c r="G25" s="62"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
-      <c r="J25" s="62"/>
-      <c r="K25" s="62"/>
-      <c r="L25" s="62"/>
-      <c r="M25" s="62"/>
-      <c r="N25" s="62"/>
-      <c r="O25" s="62"/>
-      <c r="P25" s="62"/>
-      <c r="Q25" s="62"/>
-      <c r="R25" s="62"/>
-      <c r="S25" s="62"/>
-      <c r="T25" s="62"/>
-      <c r="U25" s="62"/>
-      <c r="V25" s="62"/>
-      <c r="W25" s="62"/>
-      <c r="X25" s="62"/>
-      <c r="Y25" s="62"/>
-      <c r="Z25" s="62"/>
-      <c r="AA25" s="62"/>
-      <c r="AB25" s="62"/>
-      <c r="AC25" s="62"/>
-      <c r="AD25" s="62"/>
-      <c r="AE25" s="62"/>
-      <c r="AF25" s="62"/>
-      <c r="AG25" s="62"/>
-      <c r="AH25" s="62"/>
-      <c r="AI25" s="62"/>
-      <c r="AJ25" s="62"/>
-      <c r="AK25" s="62"/>
-      <c r="AL25" s="62"/>
-      <c r="AM25" s="62"/>
-      <c r="AN25" s="62"/>
-      <c r="AO25" s="62"/>
-      <c r="AP25" s="62"/>
-      <c r="AQ25" s="62"/>
-      <c r="AR25" s="62"/>
-      <c r="AS25" s="62"/>
-      <c r="AT25" s="62"/>
-      <c r="AU25" s="62"/>
-      <c r="AV25" s="62"/>
-      <c r="AW25" s="62"/>
-    </row>
-    <row r="26" spans="2:49">
-      <c r="B26" s="62"/>
-      <c r="C26" s="62"/>
-      <c r="D26" s="62"/>
-      <c r="E26" s="62"/>
-      <c r="F26" s="62"/>
-      <c r="G26" s="62"/>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
-      <c r="J26" s="62"/>
-      <c r="K26" s="62"/>
-      <c r="L26" s="62"/>
-      <c r="M26" s="62"/>
-      <c r="N26" s="62"/>
-      <c r="O26" s="62"/>
-      <c r="P26" s="62"/>
-      <c r="Q26" s="62"/>
-      <c r="R26" s="62"/>
-      <c r="S26" s="62"/>
-      <c r="T26" s="62"/>
-      <c r="U26" s="62"/>
-      <c r="V26" s="62"/>
-      <c r="W26" s="62"/>
-      <c r="X26" s="62"/>
-      <c r="Y26" s="62"/>
-      <c r="Z26" s="62"/>
-      <c r="AA26" s="62"/>
-      <c r="AB26" s="62"/>
-      <c r="AC26" s="62"/>
-      <c r="AD26" s="62"/>
-      <c r="AE26" s="62"/>
-      <c r="AF26" s="62"/>
-      <c r="AG26" s="62"/>
-      <c r="AH26" s="62"/>
-      <c r="AI26" s="62"/>
-      <c r="AJ26" s="62"/>
-      <c r="AK26" s="62"/>
-      <c r="AL26" s="62"/>
-      <c r="AM26" s="62"/>
-      <c r="AN26" s="62"/>
-      <c r="AO26" s="62"/>
-      <c r="AP26" s="62"/>
-      <c r="AQ26" s="62"/>
-      <c r="AR26" s="62"/>
-      <c r="AS26" s="62"/>
-      <c r="AT26" s="62"/>
-      <c r="AU26" s="62"/>
-      <c r="AV26" s="62"/>
-      <c r="AW26" s="62"/>
-    </row>
-    <row r="27" spans="2:49">
-      <c r="B27" s="62"/>
-      <c r="C27" s="62"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
-      <c r="F27" s="62"/>
-      <c r="G27" s="62"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
-      <c r="J27" s="62"/>
-      <c r="K27" s="62"/>
-      <c r="L27" s="62"/>
-      <c r="M27" s="62"/>
-      <c r="N27" s="62"/>
-      <c r="O27" s="62"/>
-      <c r="P27" s="62"/>
-      <c r="Q27" s="62"/>
-      <c r="R27" s="62"/>
-      <c r="S27" s="62"/>
-      <c r="T27" s="62"/>
-      <c r="U27" s="62"/>
-      <c r="V27" s="62"/>
-      <c r="W27" s="62"/>
-      <c r="X27" s="62"/>
-      <c r="Y27" s="62"/>
-      <c r="Z27" s="62"/>
-      <c r="AA27" s="62"/>
-      <c r="AB27" s="62"/>
-      <c r="AC27" s="62"/>
-      <c r="AD27" s="62"/>
-      <c r="AE27" s="62"/>
-      <c r="AF27" s="62"/>
-      <c r="AG27" s="62"/>
-      <c r="AH27" s="62"/>
-      <c r="AI27" s="62"/>
-      <c r="AJ27" s="62"/>
-      <c r="AK27" s="62"/>
-      <c r="AL27" s="62"/>
-      <c r="AM27" s="62"/>
-      <c r="AN27" s="62"/>
-      <c r="AO27" s="62"/>
-      <c r="AP27" s="62"/>
-      <c r="AQ27" s="62"/>
-      <c r="AR27" s="62"/>
-      <c r="AS27" s="62"/>
-      <c r="AT27" s="62"/>
-      <c r="AU27" s="62"/>
-      <c r="AV27" s="62"/>
-      <c r="AW27" s="62"/>
-    </row>
-    <row r="28" spans="2:49">
-      <c r="B28" s="62"/>
-      <c r="C28" s="62"/>
-      <c r="D28" s="62"/>
-      <c r="E28" s="62"/>
-      <c r="F28" s="62"/>
-      <c r="G28" s="62"/>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
-      <c r="J28" s="62"/>
-      <c r="K28" s="62"/>
-      <c r="L28" s="62"/>
-      <c r="M28" s="62"/>
-      <c r="N28" s="62"/>
-      <c r="O28" s="62"/>
-      <c r="P28" s="62"/>
-      <c r="Q28" s="62"/>
-      <c r="R28" s="62"/>
-      <c r="S28" s="62"/>
-      <c r="T28" s="62"/>
-      <c r="U28" s="62"/>
-      <c r="V28" s="62"/>
-      <c r="W28" s="62"/>
-      <c r="X28" s="62"/>
-      <c r="Y28" s="62"/>
-      <c r="Z28" s="62"/>
-      <c r="AA28" s="62"/>
-      <c r="AB28" s="62"/>
-      <c r="AC28" s="62"/>
-      <c r="AD28" s="62"/>
-      <c r="AE28" s="62"/>
-      <c r="AF28" s="62"/>
-      <c r="AG28" s="62"/>
-      <c r="AH28" s="62"/>
-      <c r="AI28" s="62"/>
-      <c r="AJ28" s="62"/>
-      <c r="AK28" s="62"/>
-      <c r="AL28" s="62"/>
-      <c r="AM28" s="62"/>
-      <c r="AN28" s="62"/>
-      <c r="AO28" s="62"/>
-      <c r="AP28" s="62"/>
-      <c r="AQ28" s="62"/>
-      <c r="AR28" s="62"/>
-      <c r="AS28" s="62"/>
-      <c r="AT28" s="62"/>
-      <c r="AU28" s="62"/>
-      <c r="AV28" s="62"/>
-      <c r="AW28" s="62"/>
-    </row>
-    <row r="29" spans="2:49">
-      <c r="B29" s="62"/>
-      <c r="C29" s="62"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
-      <c r="F29" s="62"/>
-      <c r="G29" s="62"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
-      <c r="J29" s="62"/>
-      <c r="K29" s="62"/>
-      <c r="L29" s="62"/>
-      <c r="M29" s="62"/>
-      <c r="N29" s="62"/>
-      <c r="O29" s="62"/>
-      <c r="P29" s="62"/>
-      <c r="Q29" s="62"/>
-      <c r="R29" s="62"/>
-      <c r="S29" s="62"/>
-      <c r="T29" s="62"/>
-      <c r="U29" s="62"/>
-      <c r="V29" s="62"/>
-      <c r="W29" s="62"/>
-      <c r="X29" s="62"/>
-      <c r="Y29" s="62"/>
-      <c r="Z29" s="62"/>
-      <c r="AA29" s="62"/>
-      <c r="AB29" s="62"/>
-      <c r="AC29" s="62"/>
-      <c r="AD29" s="62"/>
-      <c r="AE29" s="62"/>
-      <c r="AF29" s="62"/>
-      <c r="AG29" s="62"/>
-      <c r="AH29" s="62"/>
-      <c r="AI29" s="62"/>
-      <c r="AJ29" s="62"/>
-      <c r="AK29" s="62"/>
-      <c r="AL29" s="62"/>
-      <c r="AM29" s="62"/>
-      <c r="AN29" s="62"/>
-      <c r="AO29" s="62"/>
-      <c r="AP29" s="62"/>
-      <c r="AQ29" s="62"/>
-      <c r="AR29" s="62"/>
-      <c r="AS29" s="62"/>
-      <c r="AT29" s="62"/>
-      <c r="AU29" s="62"/>
-      <c r="AV29" s="62"/>
-      <c r="AW29" s="62"/>
-    </row>
-    <row r="30" spans="2:49">
-      <c r="B30" s="62"/>
-      <c r="C30" s="62"/>
-      <c r="D30" s="62"/>
-      <c r="E30" s="62"/>
-      <c r="F30" s="62"/>
-      <c r="G30" s="62"/>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
-      <c r="J30" s="62"/>
-      <c r="K30" s="62"/>
-      <c r="L30" s="62"/>
-      <c r="M30" s="62"/>
-      <c r="N30" s="62"/>
-      <c r="O30" s="62"/>
-      <c r="P30" s="62"/>
-      <c r="Q30" s="62"/>
-      <c r="R30" s="62"/>
-      <c r="S30" s="62"/>
-      <c r="T30" s="62"/>
-      <c r="U30" s="62"/>
-      <c r="V30" s="62"/>
-      <c r="W30" s="62"/>
-      <c r="X30" s="62"/>
-      <c r="Y30" s="62"/>
-      <c r="Z30" s="62"/>
-      <c r="AA30" s="62"/>
-      <c r="AB30" s="62"/>
-      <c r="AC30" s="62"/>
-      <c r="AD30" s="62"/>
-      <c r="AE30" s="62"/>
-      <c r="AF30" s="62"/>
-      <c r="AG30" s="62"/>
-      <c r="AH30" s="62"/>
-      <c r="AI30" s="62"/>
-      <c r="AJ30" s="62"/>
-      <c r="AK30" s="62"/>
-      <c r="AL30" s="62"/>
-      <c r="AM30" s="62"/>
-      <c r="AN30" s="62"/>
-      <c r="AO30" s="62"/>
-      <c r="AP30" s="62"/>
-      <c r="AQ30" s="62"/>
-      <c r="AR30" s="62"/>
-      <c r="AS30" s="62"/>
-      <c r="AT30" s="62"/>
-      <c r="AU30" s="62"/>
-      <c r="AV30" s="62"/>
-      <c r="AW30" s="62"/>
-    </row>
-    <row r="31" spans="2:49">
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
-      <c r="F31" s="62"/>
-      <c r="G31" s="62"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
-      <c r="J31" s="62"/>
-      <c r="K31" s="62"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="62"/>
-      <c r="P31" s="62"/>
-      <c r="Q31" s="62"/>
-      <c r="R31" s="62"/>
-      <c r="S31" s="62"/>
-      <c r="T31" s="62"/>
-      <c r="U31" s="62"/>
-      <c r="V31" s="62"/>
-      <c r="W31" s="62"/>
-      <c r="X31" s="62"/>
-      <c r="Y31" s="62"/>
-      <c r="Z31" s="62"/>
-      <c r="AA31" s="62"/>
-      <c r="AB31" s="62"/>
-      <c r="AC31" s="62"/>
-      <c r="AD31" s="62"/>
-      <c r="AE31" s="62"/>
-      <c r="AF31" s="62"/>
-      <c r="AG31" s="62"/>
-      <c r="AH31" s="62"/>
-      <c r="AI31" s="62"/>
-      <c r="AJ31" s="62"/>
-      <c r="AK31" s="62"/>
-      <c r="AL31" s="62"/>
-      <c r="AM31" s="62"/>
-      <c r="AN31" s="62"/>
-      <c r="AO31" s="62"/>
-      <c r="AP31" s="62"/>
-      <c r="AQ31" s="62"/>
-      <c r="AR31" s="62"/>
-      <c r="AS31" s="62"/>
-      <c r="AT31" s="62"/>
-      <c r="AU31" s="62"/>
-      <c r="AV31" s="62"/>
-      <c r="AW31" s="62"/>
-    </row>
-    <row r="32" spans="2:49">
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="62"/>
-      <c r="F32" s="62"/>
-      <c r="G32" s="62"/>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
-      <c r="J32" s="62"/>
-      <c r="K32" s="62"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="62"/>
-      <c r="P32" s="62"/>
-      <c r="Q32" s="62"/>
-      <c r="R32" s="62"/>
-      <c r="S32" s="62"/>
-      <c r="T32" s="62"/>
-      <c r="U32" s="62"/>
-      <c r="V32" s="62"/>
-      <c r="W32" s="62"/>
-      <c r="X32" s="62"/>
-      <c r="Y32" s="62"/>
-      <c r="Z32" s="62"/>
-      <c r="AA32" s="62"/>
-      <c r="AB32" s="62"/>
-      <c r="AC32" s="62"/>
-      <c r="AD32" s="62"/>
-      <c r="AE32" s="62"/>
-      <c r="AF32" s="62"/>
-      <c r="AG32" s="62"/>
-      <c r="AH32" s="62"/>
-      <c r="AI32" s="62"/>
-      <c r="AJ32" s="62"/>
-      <c r="AK32" s="62"/>
-      <c r="AL32" s="62"/>
-      <c r="AM32" s="62"/>
-      <c r="AN32" s="62"/>
-      <c r="AO32" s="62"/>
-      <c r="AP32" s="62"/>
-      <c r="AQ32" s="62"/>
-      <c r="AR32" s="62"/>
-      <c r="AS32" s="62"/>
-      <c r="AT32" s="62"/>
-      <c r="AU32" s="62"/>
-      <c r="AV32" s="62"/>
-      <c r="AW32" s="62"/>
-    </row>
-    <row r="33" spans="2:49">
-      <c r="B33" s="62"/>
-      <c r="C33" s="62"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
-      <c r="F33" s="62"/>
-      <c r="G33" s="62"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
-      <c r="J33" s="62"/>
-      <c r="K33" s="62"/>
-      <c r="L33" s="62"/>
-      <c r="M33" s="62"/>
-      <c r="N33" s="62"/>
-      <c r="O33" s="62"/>
-      <c r="P33" s="62"/>
-      <c r="Q33" s="62"/>
-      <c r="R33" s="62"/>
-      <c r="S33" s="62"/>
-      <c r="T33" s="62"/>
-      <c r="U33" s="62"/>
-      <c r="V33" s="62"/>
-      <c r="W33" s="62"/>
-      <c r="X33" s="62"/>
-      <c r="Y33" s="62"/>
-      <c r="Z33" s="62"/>
-      <c r="AA33" s="62"/>
-      <c r="AB33" s="62"/>
-      <c r="AC33" s="62"/>
-      <c r="AD33" s="62"/>
-      <c r="AE33" s="62"/>
-      <c r="AF33" s="62"/>
-      <c r="AG33" s="62"/>
-      <c r="AH33" s="62"/>
-      <c r="AI33" s="62"/>
-      <c r="AJ33" s="62"/>
-      <c r="AK33" s="62"/>
-      <c r="AL33" s="62"/>
-      <c r="AM33" s="62"/>
-      <c r="AN33" s="62"/>
-      <c r="AO33" s="62"/>
-      <c r="AP33" s="62"/>
-      <c r="AQ33" s="62"/>
-      <c r="AR33" s="62"/>
-      <c r="AS33" s="62"/>
-      <c r="AT33" s="62"/>
-      <c r="AU33" s="62"/>
-      <c r="AV33" s="62"/>
-      <c r="AW33" s="62"/>
-    </row>
-    <row r="34" spans="2:49">
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="62"/>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
-      <c r="J34" s="62"/>
-      <c r="K34" s="62"/>
-      <c r="L34" s="62"/>
-      <c r="M34" s="62"/>
-      <c r="N34" s="62"/>
-      <c r="O34" s="62"/>
-      <c r="P34" s="62"/>
-      <c r="Q34" s="62"/>
-      <c r="R34" s="62"/>
-      <c r="S34" s="62"/>
-      <c r="T34" s="62"/>
-      <c r="U34" s="62"/>
-      <c r="V34" s="62"/>
-      <c r="W34" s="62"/>
-      <c r="X34" s="62"/>
-      <c r="Y34" s="62"/>
-      <c r="Z34" s="62"/>
-      <c r="AA34" s="62"/>
-      <c r="AB34" s="62"/>
-      <c r="AC34" s="62"/>
-      <c r="AD34" s="62"/>
-      <c r="AE34" s="62"/>
-      <c r="AF34" s="62"/>
-      <c r="AG34" s="62"/>
-      <c r="AH34" s="62"/>
-      <c r="AI34" s="62"/>
-      <c r="AJ34" s="62"/>
-      <c r="AK34" s="62"/>
-      <c r="AL34" s="62"/>
-      <c r="AM34" s="62"/>
-      <c r="AN34" s="62"/>
-      <c r="AO34" s="62"/>
-      <c r="AP34" s="62"/>
-      <c r="AQ34" s="62"/>
-      <c r="AR34" s="62"/>
-      <c r="AS34" s="62"/>
-      <c r="AT34" s="62"/>
-      <c r="AU34" s="62"/>
-      <c r="AV34" s="62"/>
-      <c r="AW34" s="62"/>
+    <row r="18" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B18" s="63"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="63"/>
+      <c r="E18" s="63"/>
+      <c r="F18" s="63"/>
+      <c r="G18" s="63"/>
+      <c r="H18" s="63"/>
+      <c r="I18" s="63"/>
+      <c r="J18" s="63"/>
+      <c r="K18" s="63"/>
+      <c r="L18" s="63"/>
+      <c r="M18" s="63"/>
+      <c r="N18" s="63"/>
+      <c r="O18" s="63"/>
+      <c r="P18" s="63"/>
+      <c r="Q18" s="63"/>
+      <c r="R18" s="63"/>
+      <c r="S18" s="63"/>
+      <c r="T18" s="63"/>
+      <c r="U18" s="63"/>
+      <c r="V18" s="63"/>
+      <c r="W18" s="63"/>
+      <c r="X18" s="63"/>
+      <c r="Y18" s="63"/>
+      <c r="Z18" s="63"/>
+      <c r="AA18" s="63"/>
+      <c r="AB18" s="63"/>
+      <c r="AC18" s="63"/>
+      <c r="AD18" s="63"/>
+      <c r="AE18" s="63"/>
+      <c r="AF18" s="63"/>
+      <c r="AG18" s="63"/>
+      <c r="AH18" s="63"/>
+      <c r="AI18" s="63"/>
+      <c r="AJ18" s="63"/>
+      <c r="AK18" s="63"/>
+      <c r="AL18" s="63"/>
+      <c r="AM18" s="63"/>
+      <c r="AN18" s="63"/>
+      <c r="AO18" s="63"/>
+      <c r="AP18" s="63"/>
+      <c r="AQ18" s="63"/>
+      <c r="AR18" s="63"/>
+      <c r="AS18" s="63"/>
+      <c r="AT18" s="63"/>
+      <c r="AU18" s="63"/>
+      <c r="AV18" s="63"/>
+      <c r="AW18" s="63"/>
+    </row>
+    <row r="19" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B19" s="63"/>
+      <c r="C19" s="63"/>
+      <c r="D19" s="63"/>
+      <c r="E19" s="63"/>
+      <c r="F19" s="63"/>
+      <c r="G19" s="63"/>
+      <c r="H19" s="63"/>
+      <c r="I19" s="63"/>
+      <c r="J19" s="63"/>
+      <c r="K19" s="63"/>
+      <c r="L19" s="63"/>
+      <c r="M19" s="63"/>
+      <c r="N19" s="63"/>
+      <c r="O19" s="63"/>
+      <c r="P19" s="63"/>
+      <c r="Q19" s="63"/>
+      <c r="R19" s="63"/>
+      <c r="S19" s="63"/>
+      <c r="T19" s="63"/>
+      <c r="U19" s="63"/>
+      <c r="V19" s="63"/>
+      <c r="W19" s="63"/>
+      <c r="X19" s="63"/>
+      <c r="Y19" s="63"/>
+      <c r="Z19" s="63"/>
+      <c r="AA19" s="63"/>
+      <c r="AB19" s="63"/>
+      <c r="AC19" s="63"/>
+      <c r="AD19" s="63"/>
+      <c r="AE19" s="63"/>
+      <c r="AF19" s="63"/>
+      <c r="AG19" s="63"/>
+      <c r="AH19" s="63"/>
+      <c r="AI19" s="63"/>
+      <c r="AJ19" s="63"/>
+      <c r="AK19" s="63"/>
+      <c r="AL19" s="63"/>
+      <c r="AM19" s="63"/>
+      <c r="AN19" s="63"/>
+      <c r="AO19" s="63"/>
+      <c r="AP19" s="63"/>
+      <c r="AQ19" s="63"/>
+      <c r="AR19" s="63"/>
+      <c r="AS19" s="63"/>
+      <c r="AT19" s="63"/>
+      <c r="AU19" s="63"/>
+      <c r="AV19" s="63"/>
+      <c r="AW19" s="63"/>
+    </row>
+    <row r="20" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B20" s="63"/>
+      <c r="C20" s="63"/>
+      <c r="D20" s="63"/>
+      <c r="E20" s="63"/>
+      <c r="F20" s="63"/>
+      <c r="G20" s="63"/>
+      <c r="H20" s="63"/>
+      <c r="I20" s="63"/>
+      <c r="J20" s="63"/>
+      <c r="K20" s="63"/>
+      <c r="L20" s="63"/>
+      <c r="M20" s="63"/>
+      <c r="N20" s="63"/>
+      <c r="O20" s="63"/>
+      <c r="P20" s="63"/>
+      <c r="Q20" s="63"/>
+      <c r="R20" s="63"/>
+      <c r="S20" s="63"/>
+      <c r="T20" s="63"/>
+      <c r="U20" s="63"/>
+      <c r="V20" s="63"/>
+      <c r="W20" s="63"/>
+      <c r="X20" s="63"/>
+      <c r="Y20" s="63"/>
+      <c r="Z20" s="63"/>
+      <c r="AA20" s="63"/>
+      <c r="AB20" s="63"/>
+      <c r="AC20" s="63"/>
+      <c r="AD20" s="63"/>
+      <c r="AE20" s="63"/>
+      <c r="AF20" s="63"/>
+      <c r="AG20" s="63"/>
+      <c r="AH20" s="63"/>
+      <c r="AI20" s="63"/>
+      <c r="AJ20" s="63"/>
+      <c r="AK20" s="63"/>
+      <c r="AL20" s="63"/>
+      <c r="AM20" s="63"/>
+      <c r="AN20" s="63"/>
+      <c r="AO20" s="63"/>
+      <c r="AP20" s="63"/>
+      <c r="AQ20" s="63"/>
+      <c r="AR20" s="63"/>
+      <c r="AS20" s="63"/>
+      <c r="AT20" s="63"/>
+      <c r="AU20" s="63"/>
+      <c r="AV20" s="63"/>
+      <c r="AW20" s="63"/>
+    </row>
+    <row r="21" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B21" s="63"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
+      <c r="F21" s="63"/>
+      <c r="G21" s="63"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
+      <c r="J21" s="63"/>
+      <c r="K21" s="63"/>
+      <c r="L21" s="63"/>
+      <c r="M21" s="63"/>
+      <c r="N21" s="63"/>
+      <c r="O21" s="63"/>
+      <c r="P21" s="63"/>
+      <c r="Q21" s="63"/>
+      <c r="R21" s="63"/>
+      <c r="S21" s="63"/>
+      <c r="T21" s="63"/>
+      <c r="U21" s="63"/>
+      <c r="V21" s="63"/>
+      <c r="W21" s="63"/>
+      <c r="X21" s="63"/>
+      <c r="Y21" s="63"/>
+      <c r="Z21" s="63"/>
+      <c r="AA21" s="63"/>
+      <c r="AB21" s="63"/>
+      <c r="AC21" s="63"/>
+      <c r="AD21" s="63"/>
+      <c r="AE21" s="63"/>
+      <c r="AF21" s="63"/>
+      <c r="AG21" s="63"/>
+      <c r="AH21" s="63"/>
+      <c r="AI21" s="63"/>
+      <c r="AJ21" s="63"/>
+      <c r="AK21" s="63"/>
+      <c r="AL21" s="63"/>
+      <c r="AM21" s="63"/>
+      <c r="AN21" s="63"/>
+      <c r="AO21" s="63"/>
+      <c r="AP21" s="63"/>
+      <c r="AQ21" s="63"/>
+      <c r="AR21" s="63"/>
+      <c r="AS21" s="63"/>
+      <c r="AT21" s="63"/>
+      <c r="AU21" s="63"/>
+      <c r="AV21" s="63"/>
+      <c r="AW21" s="63"/>
+    </row>
+    <row r="22" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B22" s="63"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="63"/>
+      <c r="E22" s="63"/>
+      <c r="F22" s="63"/>
+      <c r="G22" s="63"/>
+      <c r="H22" s="63"/>
+      <c r="I22" s="63"/>
+      <c r="J22" s="63"/>
+      <c r="K22" s="63"/>
+      <c r="L22" s="63"/>
+      <c r="M22" s="63"/>
+      <c r="N22" s="63"/>
+      <c r="O22" s="63"/>
+      <c r="P22" s="63"/>
+      <c r="Q22" s="63"/>
+      <c r="R22" s="63"/>
+      <c r="S22" s="63"/>
+      <c r="T22" s="63"/>
+      <c r="U22" s="63"/>
+      <c r="V22" s="63"/>
+      <c r="W22" s="63"/>
+      <c r="X22" s="63"/>
+      <c r="Y22" s="63"/>
+      <c r="Z22" s="63"/>
+      <c r="AA22" s="63"/>
+      <c r="AB22" s="63"/>
+      <c r="AC22" s="63"/>
+      <c r="AD22" s="63"/>
+      <c r="AE22" s="63"/>
+      <c r="AF22" s="63"/>
+      <c r="AG22" s="63"/>
+      <c r="AH22" s="63"/>
+      <c r="AI22" s="63"/>
+      <c r="AJ22" s="63"/>
+      <c r="AK22" s="63"/>
+      <c r="AL22" s="63"/>
+      <c r="AM22" s="63"/>
+      <c r="AN22" s="63"/>
+      <c r="AO22" s="63"/>
+      <c r="AP22" s="63"/>
+      <c r="AQ22" s="63"/>
+      <c r="AR22" s="63"/>
+      <c r="AS22" s="63"/>
+      <c r="AT22" s="63"/>
+      <c r="AU22" s="63"/>
+      <c r="AV22" s="63"/>
+      <c r="AW22" s="63"/>
+    </row>
+    <row r="23" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B23" s="63"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
+      <c r="F23" s="63"/>
+      <c r="G23" s="63"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+      <c r="K23" s="63"/>
+      <c r="L23" s="63"/>
+      <c r="M23" s="63"/>
+      <c r="N23" s="63"/>
+      <c r="O23" s="63"/>
+      <c r="P23" s="63"/>
+      <c r="Q23" s="63"/>
+      <c r="R23" s="63"/>
+      <c r="S23" s="63"/>
+      <c r="T23" s="63"/>
+      <c r="U23" s="63"/>
+      <c r="V23" s="63"/>
+      <c r="W23" s="63"/>
+      <c r="X23" s="63"/>
+      <c r="Y23" s="63"/>
+      <c r="Z23" s="63"/>
+      <c r="AA23" s="63"/>
+      <c r="AB23" s="63"/>
+      <c r="AC23" s="63"/>
+      <c r="AD23" s="63"/>
+      <c r="AE23" s="63"/>
+      <c r="AF23" s="63"/>
+      <c r="AG23" s="63"/>
+      <c r="AH23" s="63"/>
+      <c r="AI23" s="63"/>
+      <c r="AJ23" s="63"/>
+      <c r="AK23" s="63"/>
+      <c r="AL23" s="63"/>
+      <c r="AM23" s="63"/>
+      <c r="AN23" s="63"/>
+      <c r="AO23" s="63"/>
+      <c r="AP23" s="63"/>
+      <c r="AQ23" s="63"/>
+      <c r="AR23" s="63"/>
+      <c r="AS23" s="63"/>
+      <c r="AT23" s="63"/>
+      <c r="AU23" s="63"/>
+      <c r="AV23" s="63"/>
+      <c r="AW23" s="63"/>
+    </row>
+    <row r="24" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B24" s="63"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="63"/>
+      <c r="E24" s="63"/>
+      <c r="F24" s="63"/>
+      <c r="G24" s="63"/>
+      <c r="H24" s="63"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+      <c r="K24" s="63"/>
+      <c r="L24" s="63"/>
+      <c r="M24" s="63"/>
+      <c r="N24" s="63"/>
+      <c r="O24" s="63"/>
+      <c r="P24" s="63"/>
+      <c r="Q24" s="63"/>
+      <c r="R24" s="63"/>
+      <c r="S24" s="63"/>
+      <c r="T24" s="63"/>
+      <c r="U24" s="63"/>
+      <c r="V24" s="63"/>
+      <c r="W24" s="63"/>
+      <c r="X24" s="63"/>
+      <c r="Y24" s="63"/>
+      <c r="Z24" s="63"/>
+      <c r="AA24" s="63"/>
+      <c r="AB24" s="63"/>
+      <c r="AC24" s="63"/>
+      <c r="AD24" s="63"/>
+      <c r="AE24" s="63"/>
+      <c r="AF24" s="63"/>
+      <c r="AG24" s="63"/>
+      <c r="AH24" s="63"/>
+      <c r="AI24" s="63"/>
+      <c r="AJ24" s="63"/>
+      <c r="AK24" s="63"/>
+      <c r="AL24" s="63"/>
+      <c r="AM24" s="63"/>
+      <c r="AN24" s="63"/>
+      <c r="AO24" s="63"/>
+      <c r="AP24" s="63"/>
+      <c r="AQ24" s="63"/>
+      <c r="AR24" s="63"/>
+      <c r="AS24" s="63"/>
+      <c r="AT24" s="63"/>
+      <c r="AU24" s="63"/>
+      <c r="AV24" s="63"/>
+      <c r="AW24" s="63"/>
+    </row>
+    <row r="25" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B25" s="63"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
+      <c r="F25" s="63"/>
+      <c r="G25" s="63"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+      <c r="K25" s="63"/>
+      <c r="L25" s="63"/>
+      <c r="M25" s="63"/>
+      <c r="N25" s="63"/>
+      <c r="O25" s="63"/>
+      <c r="P25" s="63"/>
+      <c r="Q25" s="63"/>
+      <c r="R25" s="63"/>
+      <c r="S25" s="63"/>
+      <c r="T25" s="63"/>
+      <c r="U25" s="63"/>
+      <c r="V25" s="63"/>
+      <c r="W25" s="63"/>
+      <c r="X25" s="63"/>
+      <c r="Y25" s="63"/>
+      <c r="Z25" s="63"/>
+      <c r="AA25" s="63"/>
+      <c r="AB25" s="63"/>
+      <c r="AC25" s="63"/>
+      <c r="AD25" s="63"/>
+      <c r="AE25" s="63"/>
+      <c r="AF25" s="63"/>
+      <c r="AG25" s="63"/>
+      <c r="AH25" s="63"/>
+      <c r="AI25" s="63"/>
+      <c r="AJ25" s="63"/>
+      <c r="AK25" s="63"/>
+      <c r="AL25" s="63"/>
+      <c r="AM25" s="63"/>
+      <c r="AN25" s="63"/>
+      <c r="AO25" s="63"/>
+      <c r="AP25" s="63"/>
+      <c r="AQ25" s="63"/>
+      <c r="AR25" s="63"/>
+      <c r="AS25" s="63"/>
+      <c r="AT25" s="63"/>
+      <c r="AU25" s="63"/>
+      <c r="AV25" s="63"/>
+      <c r="AW25" s="63"/>
+    </row>
+    <row r="26" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B26" s="63"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="63"/>
+      <c r="E26" s="63"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="63"/>
+      <c r="H26" s="63"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+      <c r="K26" s="63"/>
+      <c r="L26" s="63"/>
+      <c r="M26" s="63"/>
+      <c r="N26" s="63"/>
+      <c r="O26" s="63"/>
+      <c r="P26" s="63"/>
+      <c r="Q26" s="63"/>
+      <c r="R26" s="63"/>
+      <c r="S26" s="63"/>
+      <c r="T26" s="63"/>
+      <c r="U26" s="63"/>
+      <c r="V26" s="63"/>
+      <c r="W26" s="63"/>
+      <c r="X26" s="63"/>
+      <c r="Y26" s="63"/>
+      <c r="Z26" s="63"/>
+      <c r="AA26" s="63"/>
+      <c r="AB26" s="63"/>
+      <c r="AC26" s="63"/>
+      <c r="AD26" s="63"/>
+      <c r="AE26" s="63"/>
+      <c r="AF26" s="63"/>
+      <c r="AG26" s="63"/>
+      <c r="AH26" s="63"/>
+      <c r="AI26" s="63"/>
+      <c r="AJ26" s="63"/>
+      <c r="AK26" s="63"/>
+      <c r="AL26" s="63"/>
+      <c r="AM26" s="63"/>
+      <c r="AN26" s="63"/>
+      <c r="AO26" s="63"/>
+      <c r="AP26" s="63"/>
+      <c r="AQ26" s="63"/>
+      <c r="AR26" s="63"/>
+      <c r="AS26" s="63"/>
+      <c r="AT26" s="63"/>
+      <c r="AU26" s="63"/>
+      <c r="AV26" s="63"/>
+      <c r="AW26" s="63"/>
+    </row>
+    <row r="27" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B27" s="63"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
+      <c r="F27" s="63"/>
+      <c r="G27" s="63"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+      <c r="K27" s="63"/>
+      <c r="L27" s="63"/>
+      <c r="M27" s="63"/>
+      <c r="N27" s="63"/>
+      <c r="O27" s="63"/>
+      <c r="P27" s="63"/>
+      <c r="Q27" s="63"/>
+      <c r="R27" s="63"/>
+      <c r="S27" s="63"/>
+      <c r="T27" s="63"/>
+      <c r="U27" s="63"/>
+      <c r="V27" s="63"/>
+      <c r="W27" s="63"/>
+      <c r="X27" s="63"/>
+      <c r="Y27" s="63"/>
+      <c r="Z27" s="63"/>
+      <c r="AA27" s="63"/>
+      <c r="AB27" s="63"/>
+      <c r="AC27" s="63"/>
+      <c r="AD27" s="63"/>
+      <c r="AE27" s="63"/>
+      <c r="AF27" s="63"/>
+      <c r="AG27" s="63"/>
+      <c r="AH27" s="63"/>
+      <c r="AI27" s="63"/>
+      <c r="AJ27" s="63"/>
+      <c r="AK27" s="63"/>
+      <c r="AL27" s="63"/>
+      <c r="AM27" s="63"/>
+      <c r="AN27" s="63"/>
+      <c r="AO27" s="63"/>
+      <c r="AP27" s="63"/>
+      <c r="AQ27" s="63"/>
+      <c r="AR27" s="63"/>
+      <c r="AS27" s="63"/>
+      <c r="AT27" s="63"/>
+      <c r="AU27" s="63"/>
+      <c r="AV27" s="63"/>
+      <c r="AW27" s="63"/>
+    </row>
+    <row r="28" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B28" s="63"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="63"/>
+      <c r="E28" s="63"/>
+      <c r="F28" s="63"/>
+      <c r="G28" s="63"/>
+      <c r="H28" s="63"/>
+      <c r="I28" s="63"/>
+      <c r="J28" s="63"/>
+      <c r="K28" s="63"/>
+      <c r="L28" s="63"/>
+      <c r="M28" s="63"/>
+      <c r="N28" s="63"/>
+      <c r="O28" s="63"/>
+      <c r="P28" s="63"/>
+      <c r="Q28" s="63"/>
+      <c r="R28" s="63"/>
+      <c r="S28" s="63"/>
+      <c r="T28" s="63"/>
+      <c r="U28" s="63"/>
+      <c r="V28" s="63"/>
+      <c r="W28" s="63"/>
+      <c r="X28" s="63"/>
+      <c r="Y28" s="63"/>
+      <c r="Z28" s="63"/>
+      <c r="AA28" s="63"/>
+      <c r="AB28" s="63"/>
+      <c r="AC28" s="63"/>
+      <c r="AD28" s="63"/>
+      <c r="AE28" s="63"/>
+      <c r="AF28" s="63"/>
+      <c r="AG28" s="63"/>
+      <c r="AH28" s="63"/>
+      <c r="AI28" s="63"/>
+      <c r="AJ28" s="63"/>
+      <c r="AK28" s="63"/>
+      <c r="AL28" s="63"/>
+      <c r="AM28" s="63"/>
+      <c r="AN28" s="63"/>
+      <c r="AO28" s="63"/>
+      <c r="AP28" s="63"/>
+      <c r="AQ28" s="63"/>
+      <c r="AR28" s="63"/>
+      <c r="AS28" s="63"/>
+      <c r="AT28" s="63"/>
+      <c r="AU28" s="63"/>
+      <c r="AV28" s="63"/>
+      <c r="AW28" s="63"/>
+    </row>
+    <row r="29" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B29" s="63"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
+      <c r="F29" s="63"/>
+      <c r="G29" s="63"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+      <c r="K29" s="63"/>
+      <c r="L29" s="63"/>
+      <c r="M29" s="63"/>
+      <c r="N29" s="63"/>
+      <c r="O29" s="63"/>
+      <c r="P29" s="63"/>
+      <c r="Q29" s="63"/>
+      <c r="R29" s="63"/>
+      <c r="S29" s="63"/>
+      <c r="T29" s="63"/>
+      <c r="U29" s="63"/>
+      <c r="V29" s="63"/>
+      <c r="W29" s="63"/>
+      <c r="X29" s="63"/>
+      <c r="Y29" s="63"/>
+      <c r="Z29" s="63"/>
+      <c r="AA29" s="63"/>
+      <c r="AB29" s="63"/>
+      <c r="AC29" s="63"/>
+      <c r="AD29" s="63"/>
+      <c r="AE29" s="63"/>
+      <c r="AF29" s="63"/>
+      <c r="AG29" s="63"/>
+      <c r="AH29" s="63"/>
+      <c r="AI29" s="63"/>
+      <c r="AJ29" s="63"/>
+      <c r="AK29" s="63"/>
+      <c r="AL29" s="63"/>
+      <c r="AM29" s="63"/>
+      <c r="AN29" s="63"/>
+      <c r="AO29" s="63"/>
+      <c r="AP29" s="63"/>
+      <c r="AQ29" s="63"/>
+      <c r="AR29" s="63"/>
+      <c r="AS29" s="63"/>
+      <c r="AT29" s="63"/>
+      <c r="AU29" s="63"/>
+      <c r="AV29" s="63"/>
+      <c r="AW29" s="63"/>
+    </row>
+    <row r="30" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B30" s="63"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="63"/>
+      <c r="E30" s="63"/>
+      <c r="F30" s="63"/>
+      <c r="G30" s="63"/>
+      <c r="H30" s="63"/>
+      <c r="I30" s="63"/>
+      <c r="J30" s="63"/>
+      <c r="K30" s="63"/>
+      <c r="L30" s="63"/>
+      <c r="M30" s="63"/>
+      <c r="N30" s="63"/>
+      <c r="O30" s="63"/>
+      <c r="P30" s="63"/>
+      <c r="Q30" s="63"/>
+      <c r="R30" s="63"/>
+      <c r="S30" s="63"/>
+      <c r="T30" s="63"/>
+      <c r="U30" s="63"/>
+      <c r="V30" s="63"/>
+      <c r="W30" s="63"/>
+      <c r="X30" s="63"/>
+      <c r="Y30" s="63"/>
+      <c r="Z30" s="63"/>
+      <c r="AA30" s="63"/>
+      <c r="AB30" s="63"/>
+      <c r="AC30" s="63"/>
+      <c r="AD30" s="63"/>
+      <c r="AE30" s="63"/>
+      <c r="AF30" s="63"/>
+      <c r="AG30" s="63"/>
+      <c r="AH30" s="63"/>
+      <c r="AI30" s="63"/>
+      <c r="AJ30" s="63"/>
+      <c r="AK30" s="63"/>
+      <c r="AL30" s="63"/>
+      <c r="AM30" s="63"/>
+      <c r="AN30" s="63"/>
+      <c r="AO30" s="63"/>
+      <c r="AP30" s="63"/>
+      <c r="AQ30" s="63"/>
+      <c r="AR30" s="63"/>
+      <c r="AS30" s="63"/>
+      <c r="AT30" s="63"/>
+      <c r="AU30" s="63"/>
+      <c r="AV30" s="63"/>
+      <c r="AW30" s="63"/>
+    </row>
+    <row r="31" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B31" s="63"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
+      <c r="F31" s="63"/>
+      <c r="G31" s="63"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
+      <c r="J31" s="63"/>
+      <c r="K31" s="63"/>
+      <c r="L31" s="63"/>
+      <c r="M31" s="63"/>
+      <c r="N31" s="63"/>
+      <c r="O31" s="63"/>
+      <c r="P31" s="63"/>
+      <c r="Q31" s="63"/>
+      <c r="R31" s="63"/>
+      <c r="S31" s="63"/>
+      <c r="T31" s="63"/>
+      <c r="U31" s="63"/>
+      <c r="V31" s="63"/>
+      <c r="W31" s="63"/>
+      <c r="X31" s="63"/>
+      <c r="Y31" s="63"/>
+      <c r="Z31" s="63"/>
+      <c r="AA31" s="63"/>
+      <c r="AB31" s="63"/>
+      <c r="AC31" s="63"/>
+      <c r="AD31" s="63"/>
+      <c r="AE31" s="63"/>
+      <c r="AF31" s="63"/>
+      <c r="AG31" s="63"/>
+      <c r="AH31" s="63"/>
+      <c r="AI31" s="63"/>
+      <c r="AJ31" s="63"/>
+      <c r="AK31" s="63"/>
+      <c r="AL31" s="63"/>
+      <c r="AM31" s="63"/>
+      <c r="AN31" s="63"/>
+      <c r="AO31" s="63"/>
+      <c r="AP31" s="63"/>
+      <c r="AQ31" s="63"/>
+      <c r="AR31" s="63"/>
+      <c r="AS31" s="63"/>
+      <c r="AT31" s="63"/>
+      <c r="AU31" s="63"/>
+      <c r="AV31" s="63"/>
+      <c r="AW31" s="63"/>
+    </row>
+    <row r="32" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B32" s="63"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="63"/>
+      <c r="E32" s="63"/>
+      <c r="F32" s="63"/>
+      <c r="G32" s="63"/>
+      <c r="H32" s="63"/>
+      <c r="I32" s="63"/>
+      <c r="J32" s="63"/>
+      <c r="K32" s="63"/>
+      <c r="L32" s="63"/>
+      <c r="M32" s="63"/>
+      <c r="N32" s="63"/>
+      <c r="O32" s="63"/>
+      <c r="P32" s="63"/>
+      <c r="Q32" s="63"/>
+      <c r="R32" s="63"/>
+      <c r="S32" s="63"/>
+      <c r="T32" s="63"/>
+      <c r="U32" s="63"/>
+      <c r="V32" s="63"/>
+      <c r="W32" s="63"/>
+      <c r="X32" s="63"/>
+      <c r="Y32" s="63"/>
+      <c r="Z32" s="63"/>
+      <c r="AA32" s="63"/>
+      <c r="AB32" s="63"/>
+      <c r="AC32" s="63"/>
+      <c r="AD32" s="63"/>
+      <c r="AE32" s="63"/>
+      <c r="AF32" s="63"/>
+      <c r="AG32" s="63"/>
+      <c r="AH32" s="63"/>
+      <c r="AI32" s="63"/>
+      <c r="AJ32" s="63"/>
+      <c r="AK32" s="63"/>
+      <c r="AL32" s="63"/>
+      <c r="AM32" s="63"/>
+      <c r="AN32" s="63"/>
+      <c r="AO32" s="63"/>
+      <c r="AP32" s="63"/>
+      <c r="AQ32" s="63"/>
+      <c r="AR32" s="63"/>
+      <c r="AS32" s="63"/>
+      <c r="AT32" s="63"/>
+      <c r="AU32" s="63"/>
+      <c r="AV32" s="63"/>
+      <c r="AW32" s="63"/>
+    </row>
+    <row r="33" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B33" s="63"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
+      <c r="F33" s="63"/>
+      <c r="G33" s="63"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
+      <c r="J33" s="63"/>
+      <c r="K33" s="63"/>
+      <c r="L33" s="63"/>
+      <c r="M33" s="63"/>
+      <c r="N33" s="63"/>
+      <c r="O33" s="63"/>
+      <c r="P33" s="63"/>
+      <c r="Q33" s="63"/>
+      <c r="R33" s="63"/>
+      <c r="S33" s="63"/>
+      <c r="T33" s="63"/>
+      <c r="U33" s="63"/>
+      <c r="V33" s="63"/>
+      <c r="W33" s="63"/>
+      <c r="X33" s="63"/>
+      <c r="Y33" s="63"/>
+      <c r="Z33" s="63"/>
+      <c r="AA33" s="63"/>
+      <c r="AB33" s="63"/>
+      <c r="AC33" s="63"/>
+      <c r="AD33" s="63"/>
+      <c r="AE33" s="63"/>
+      <c r="AF33" s="63"/>
+      <c r="AG33" s="63"/>
+      <c r="AH33" s="63"/>
+      <c r="AI33" s="63"/>
+      <c r="AJ33" s="63"/>
+      <c r="AK33" s="63"/>
+      <c r="AL33" s="63"/>
+      <c r="AM33" s="63"/>
+      <c r="AN33" s="63"/>
+      <c r="AO33" s="63"/>
+      <c r="AP33" s="63"/>
+      <c r="AQ33" s="63"/>
+      <c r="AR33" s="63"/>
+      <c r="AS33" s="63"/>
+      <c r="AT33" s="63"/>
+      <c r="AU33" s="63"/>
+      <c r="AV33" s="63"/>
+      <c r="AW33" s="63"/>
+    </row>
+    <row r="34" spans="2:49" x14ac:dyDescent="0.25">
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="63"/>
+      <c r="F34" s="63"/>
+      <c r="G34" s="63"/>
+      <c r="H34" s="63"/>
+      <c r="I34" s="63"/>
+      <c r="J34" s="63"/>
+      <c r="K34" s="63"/>
+      <c r="L34" s="63"/>
+      <c r="M34" s="63"/>
+      <c r="N34" s="63"/>
+      <c r="O34" s="63"/>
+      <c r="P34" s="63"/>
+      <c r="Q34" s="63"/>
+      <c r="R34" s="63"/>
+      <c r="S34" s="63"/>
+      <c r="T34" s="63"/>
+      <c r="U34" s="63"/>
+      <c r="V34" s="63"/>
+      <c r="W34" s="63"/>
+      <c r="X34" s="63"/>
+      <c r="Y34" s="63"/>
+      <c r="Z34" s="63"/>
+      <c r="AA34" s="63"/>
+      <c r="AB34" s="63"/>
+      <c r="AC34" s="63"/>
+      <c r="AD34" s="63"/>
+      <c r="AE34" s="63"/>
+      <c r="AF34" s="63"/>
+      <c r="AG34" s="63"/>
+      <c r="AH34" s="63"/>
+      <c r="AI34" s="63"/>
+      <c r="AJ34" s="63"/>
+      <c r="AK34" s="63"/>
+      <c r="AL34" s="63"/>
+      <c r="AM34" s="63"/>
+      <c r="AN34" s="63"/>
+      <c r="AO34" s="63"/>
+      <c r="AP34" s="63"/>
+      <c r="AQ34" s="63"/>
+      <c r="AR34" s="63"/>
+      <c r="AS34" s="63"/>
+      <c r="AT34" s="63"/>
+      <c r="AU34" s="63"/>
+      <c r="AV34" s="63"/>
+      <c r="AW34" s="63"/>
     </row>
   </sheetData>
   <mergeCells count="31">
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="AD2:AD3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="Z2:Z3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="B18:AW34"/>
     <mergeCell ref="A1:AE1"/>
     <mergeCell ref="A2:A3"/>
@@ -9278,21 +10132,6 @@
     <mergeCell ref="M2:M3"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="O2:O3"/>
-    <mergeCell ref="P2:P3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="Z2:Z3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -9301,7 +10140,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AJ10"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
@@ -9309,7 +10148,7 @@
       <selection pane="topRight" activeCell="M9" sqref="M9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.28515625" customWidth="1"/>
     <col min="2" max="2" width="22.140625" customWidth="1"/>
@@ -9323,159 +10162,159 @@
     <col min="16" max="19" width="9.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:36" ht="31.5" customHeight="1">
-      <c r="A1" s="43" t="s">
+    <row r="1" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="44"/>
-      <c r="C1" s="44"/>
-      <c r="D1" s="44"/>
-      <c r="E1" s="44"/>
-      <c r="F1" s="44"/>
-      <c r="G1" s="44"/>
-      <c r="H1" s="44"/>
-      <c r="I1" s="44"/>
-      <c r="J1" s="44"/>
-      <c r="K1" s="44"/>
-      <c r="L1" s="44"/>
-      <c r="M1" s="44"/>
-      <c r="N1" s="44"/>
-      <c r="O1" s="44"/>
-      <c r="P1" s="44"/>
-      <c r="Q1" s="44"/>
-      <c r="R1" s="44"/>
-      <c r="S1" s="44"/>
-      <c r="T1" s="44"/>
-      <c r="U1" s="44"/>
-      <c r="V1" s="44"/>
-      <c r="W1" s="44"/>
-      <c r="X1" s="44"/>
-      <c r="Y1" s="44"/>
-      <c r="Z1" s="44"/>
-      <c r="AA1" s="44"/>
-      <c r="AB1" s="44"/>
-      <c r="AC1" s="44"/>
-      <c r="AD1" s="44"/>
-      <c r="AE1" s="44"/>
-      <c r="AF1" s="44"/>
-      <c r="AG1" s="44"/>
-      <c r="AH1" s="44"/>
-      <c r="AI1" s="44"/>
-      <c r="AJ1" s="48"/>
-    </row>
-    <row r="2" spans="1:36" ht="31.5" customHeight="1">
-      <c r="A2" s="46" t="s">
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
+      <c r="K1" s="48"/>
+      <c r="L1" s="48"/>
+      <c r="M1" s="48"/>
+      <c r="N1" s="48"/>
+      <c r="O1" s="48"/>
+      <c r="P1" s="48"/>
+      <c r="Q1" s="48"/>
+      <c r="R1" s="48"/>
+      <c r="S1" s="48"/>
+      <c r="T1" s="48"/>
+      <c r="U1" s="48"/>
+      <c r="V1" s="48"/>
+      <c r="W1" s="48"/>
+      <c r="X1" s="48"/>
+      <c r="Y1" s="48"/>
+      <c r="Z1" s="48"/>
+      <c r="AA1" s="48"/>
+      <c r="AB1" s="48"/>
+      <c r="AC1" s="48"/>
+      <c r="AD1" s="48"/>
+      <c r="AE1" s="48"/>
+      <c r="AF1" s="48"/>
+      <c r="AG1" s="48"/>
+      <c r="AH1" s="48"/>
+      <c r="AI1" s="48"/>
+      <c r="AJ1" s="51"/>
+    </row>
+    <row r="2" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="49" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="51" t="s">
+      <c r="B2" s="45" t="s">
         <v>22</v>
       </c>
-      <c r="C2" s="51" t="s">
+      <c r="C2" s="45" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="51" t="s">
+      <c r="D2" s="45" t="s">
         <v>34</v>
       </c>
-      <c r="E2" s="51" t="s">
+      <c r="E2" s="45" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="51" t="s">
+      <c r="F2" s="45" t="s">
         <v>26</v>
       </c>
-      <c r="G2" s="43" t="s">
+      <c r="G2" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="H2" s="44"/>
-      <c r="I2" s="48"/>
-      <c r="J2" s="45" t="s">
+      <c r="H2" s="48"/>
+      <c r="I2" s="51"/>
+      <c r="J2" s="46" t="s">
         <v>39</v>
       </c>
-      <c r="K2" s="45" t="s">
+      <c r="K2" s="46" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="45" t="s">
+      <c r="L2" s="46" t="s">
         <v>51</v>
       </c>
-      <c r="M2" s="45" t="s">
+      <c r="M2" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="N2" s="45" t="s">
+      <c r="N2" s="46" t="s">
         <v>52</v>
       </c>
-      <c r="O2" s="45" t="s">
+      <c r="O2" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="45" t="s">
+      <c r="P2" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="45" t="s">
+      <c r="Q2" s="46" t="s">
         <v>64</v>
       </c>
-      <c r="R2" s="45" t="s">
+      <c r="R2" s="46" t="s">
         <v>65</v>
       </c>
-      <c r="S2" s="45" t="s">
+      <c r="S2" s="46" t="s">
         <v>66</v>
       </c>
-      <c r="T2" s="45" t="s">
+      <c r="T2" s="46" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="45" t="s">
+      <c r="U2" s="46" t="s">
         <v>75</v>
       </c>
-      <c r="V2" s="45" t="s">
+      <c r="V2" s="46" t="s">
         <v>48</v>
       </c>
-      <c r="W2" s="45" t="s">
+      <c r="W2" s="46" t="s">
         <v>47</v>
       </c>
-      <c r="X2" s="49" t="s">
+      <c r="X2" s="52" t="s">
         <v>76</v>
       </c>
-      <c r="Y2" s="49" t="s">
+      <c r="Y2" s="52" t="s">
         <v>77</v>
       </c>
-      <c r="Z2" s="45" t="s">
+      <c r="Z2" s="46" t="s">
         <v>32</v>
       </c>
-      <c r="AA2" s="45" t="s">
+      <c r="AA2" s="46" t="s">
         <v>28</v>
       </c>
-      <c r="AB2" s="45" t="s">
+      <c r="AB2" s="46" t="s">
         <v>27</v>
       </c>
-      <c r="AC2" s="45" t="s">
+      <c r="AC2" s="46" t="s">
         <v>49</v>
       </c>
-      <c r="AD2" s="49" t="s">
+      <c r="AD2" s="52" t="s">
         <v>79</v>
       </c>
-      <c r="AE2" s="49" t="s">
+      <c r="AE2" s="52" t="s">
         <v>53</v>
       </c>
-      <c r="AF2" s="45" t="s">
+      <c r="AF2" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="AG2" s="45" t="s">
+      <c r="AG2" s="46" t="s">
         <v>54</v>
       </c>
-      <c r="AH2" s="45" t="s">
+      <c r="AH2" s="46" t="s">
         <v>55</v>
       </c>
-      <c r="AI2" s="61" t="s">
+      <c r="AI2" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="AJ2" s="45" t="s">
+      <c r="AJ2" s="46" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:36" ht="75">
-      <c r="A3" s="47"/>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+    <row r="3" spans="1:36" ht="75" x14ac:dyDescent="0.25">
+      <c r="A3" s="50"/>
+      <c r="B3" s="45"/>
+      <c r="C3" s="45"/>
+      <c r="D3" s="45"/>
+      <c r="E3" s="45"/>
+      <c r="F3" s="45"/>
       <c r="G3" s="16" t="s">
         <v>36</v>
       </c>
@@ -9485,35 +10324,35 @@
       <c r="I3" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="J3" s="45"/>
-      <c r="K3" s="45"/>
-      <c r="L3" s="45"/>
-      <c r="M3" s="45"/>
-      <c r="N3" s="45"/>
-      <c r="O3" s="45"/>
-      <c r="P3" s="45"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="45"/>
-      <c r="T3" s="45"/>
-      <c r="U3" s="45"/>
-      <c r="V3" s="45"/>
-      <c r="W3" s="45"/>
-      <c r="X3" s="50"/>
-      <c r="Y3" s="50"/>
-      <c r="Z3" s="45"/>
-      <c r="AA3" s="45"/>
-      <c r="AB3" s="45"/>
-      <c r="AC3" s="45"/>
-      <c r="AD3" s="50"/>
-      <c r="AE3" s="50"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="45"/>
-      <c r="AH3" s="45"/>
-      <c r="AI3" s="61"/>
-      <c r="AJ3" s="45"/>
-    </row>
-    <row r="4" spans="1:36" ht="35.25" customHeight="1">
+      <c r="J3" s="46"/>
+      <c r="K3" s="46"/>
+      <c r="L3" s="46"/>
+      <c r="M3" s="46"/>
+      <c r="N3" s="46"/>
+      <c r="O3" s="46"/>
+      <c r="P3" s="46"/>
+      <c r="Q3" s="46"/>
+      <c r="R3" s="46"/>
+      <c r="S3" s="46"/>
+      <c r="T3" s="46"/>
+      <c r="U3" s="46"/>
+      <c r="V3" s="46"/>
+      <c r="W3" s="46"/>
+      <c r="X3" s="53"/>
+      <c r="Y3" s="53"/>
+      <c r="Z3" s="46"/>
+      <c r="AA3" s="46"/>
+      <c r="AB3" s="46"/>
+      <c r="AC3" s="46"/>
+      <c r="AD3" s="53"/>
+      <c r="AE3" s="53"/>
+      <c r="AF3" s="46"/>
+      <c r="AG3" s="46"/>
+      <c r="AH3" s="46"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="46"/>
+    </row>
+    <row r="4" spans="1:36" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>1</v>
       </c>
@@ -9577,8 +10416,8 @@
         <v>99999.999999999985</v>
       </c>
       <c r="AD4" s="12">
-        <f>'Расчетная ведомость за первый п'!Y4</f>
-        <v>34090.909090909088</v>
+        <f>'Расчетная ведомость за первый п'!AB4</f>
+        <v>0</v>
       </c>
       <c r="AE4" s="12"/>
       <c r="AF4" s="12">
@@ -9591,10 +10430,10 @@
       </c>
       <c r="AJ4" s="12">
         <f>AC4-AD4-AE4-AF4-AG4-AH4-AI4</f>
-        <v>15909.090909090897</v>
-      </c>
-    </row>
-    <row r="5" spans="1:36" ht="30" customHeight="1">
+        <v>49999.999999999985</v>
+      </c>
+    </row>
+    <row r="5" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>2</v>
       </c>
@@ -9653,7 +10492,7 @@
         <v>153000</v>
       </c>
       <c r="AD5" s="12">
-        <f>'Расчетная ведомость за первый п'!Y5</f>
+        <f>'Расчетная ведомость за первый п'!AB5</f>
         <v>11363.636363636362</v>
       </c>
       <c r="AE5" s="12"/>
@@ -9670,7 +10509,7 @@
         <v>68436.363636363647</v>
       </c>
     </row>
-    <row r="6" spans="1:36" ht="33" customHeight="1">
+    <row r="6" spans="1:36" ht="33" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>3</v>
       </c>
@@ -9729,7 +10568,7 @@
         <v>140000</v>
       </c>
       <c r="AD6" s="12">
-        <f>'Расчетная ведомость за первый п'!Y6</f>
+        <f>'Расчетная ведомость за первый п'!AB6</f>
         <v>70000</v>
       </c>
       <c r="AE6" s="12"/>
@@ -9746,7 +10585,7 @@
         <v>59100</v>
       </c>
     </row>
-    <row r="7" spans="1:36" ht="31.5" customHeight="1">
+    <row r="7" spans="1:36" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>4</v>
       </c>
@@ -9805,7 +10644,7 @@
         <v>32000</v>
       </c>
       <c r="AD7" s="12">
-        <f>'Расчетная ведомость за первый п'!Y7</f>
+        <f>'Расчетная ведомость за первый п'!AB7</f>
         <v>16652.17391304348</v>
       </c>
       <c r="AE7" s="12"/>
@@ -9822,7 +10661,7 @@
         <v>-0.1739130434798426</v>
       </c>
     </row>
-    <row r="8" spans="1:36" ht="30" customHeight="1">
+    <row r="8" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>5</v>
       </c>
@@ -9888,7 +10727,7 @@
         <v>88821.818181818177</v>
       </c>
       <c r="AD8" s="12">
-        <f>'Расчетная ведомость за первый п'!Y8</f>
+        <f>'Расчетная ведомость за первый п'!AB8</f>
         <v>43204</v>
       </c>
       <c r="AE8" s="12"/>
@@ -9905,7 +10744,7 @@
         <v>917.81818181817653</v>
       </c>
     </row>
-    <row r="9" spans="1:36" ht="30" customHeight="1">
+    <row r="9" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>6</v>
       </c>
@@ -9947,7 +10786,7 @@
       <c r="O9" s="12"/>
       <c r="P9" s="12"/>
       <c r="Q9" s="12">
-        <f>'Расчетная ведомость за первый п'!O9+39540</f>
+        <f>'Расчетная ведомость за первый п'!R9+39540</f>
         <v>77373</v>
       </c>
       <c r="R9" s="12"/>
@@ -9966,7 +10805,7 @@
         <v>77373</v>
       </c>
       <c r="AD9" s="12">
-        <f>'Расчетная ведомость за первый п'!Y9</f>
+        <f>'Расчетная ведомость за первый п'!AB9</f>
         <v>37833</v>
       </c>
       <c r="AE9" s="12">
@@ -9985,7 +10824,7 @@
         <v>28440</v>
       </c>
     </row>
-    <row r="10" spans="1:36" ht="30" customHeight="1">
+    <row r="10" spans="1:36" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>7</v>
       </c>
@@ -10052,7 +10891,7 @@
         <v>66846.590909090912</v>
       </c>
       <c r="AD10" s="12">
-        <f>'Расчетная ведомость за первый п'!Y10</f>
+        <f>'Расчетная ведомость за первый п'!AB10</f>
         <v>32500</v>
       </c>
       <c r="AE10" s="12"/>
@@ -10073,25 +10912,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI2:AI3"/>
-    <mergeCell ref="AJ2:AJ3"/>
-    <mergeCell ref="AA2:AA3"/>
-    <mergeCell ref="AB2:AB3"/>
-    <mergeCell ref="AC2:AC3"/>
-    <mergeCell ref="AE2:AE3"/>
-    <mergeCell ref="AF2:AF3"/>
-    <mergeCell ref="AG2:AG3"/>
-    <mergeCell ref="AD2:AD3"/>
-    <mergeCell ref="V2:V3"/>
-    <mergeCell ref="W2:W3"/>
-    <mergeCell ref="X2:X3"/>
-    <mergeCell ref="Y2:Y3"/>
-    <mergeCell ref="AH2:AH3"/>
-    <mergeCell ref="Q2:Q3"/>
-    <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
-    <mergeCell ref="U2:U3"/>
     <mergeCell ref="A1:AJ1"/>
     <mergeCell ref="N2:N3"/>
     <mergeCell ref="A2:A3"/>
@@ -10108,6 +10928,25 @@
     <mergeCell ref="Z2:Z3"/>
     <mergeCell ref="O2:O3"/>
     <mergeCell ref="P2:P3"/>
+    <mergeCell ref="Q2:Q3"/>
+    <mergeCell ref="R2:R3"/>
+    <mergeCell ref="S2:S3"/>
+    <mergeCell ref="T2:T3"/>
+    <mergeCell ref="U2:U3"/>
+    <mergeCell ref="V2:V3"/>
+    <mergeCell ref="W2:W3"/>
+    <mergeCell ref="X2:X3"/>
+    <mergeCell ref="Y2:Y3"/>
+    <mergeCell ref="AH2:AH3"/>
+    <mergeCell ref="AI2:AI3"/>
+    <mergeCell ref="AJ2:AJ3"/>
+    <mergeCell ref="AA2:AA3"/>
+    <mergeCell ref="AB2:AB3"/>
+    <mergeCell ref="AC2:AC3"/>
+    <mergeCell ref="AE2:AE3"/>
+    <mergeCell ref="AF2:AF3"/>
+    <mergeCell ref="AG2:AG3"/>
+    <mergeCell ref="AD2:AD3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
